--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -52,10 +53,13 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,112 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>4.2-9.8</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +194,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -561,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -575,28 +684,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -610,28 +719,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -645,28 +754,28 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -680,28 +789,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -712,34 +821,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,34 +856,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -791,10 +900,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -806,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -817,34 +926,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,34 +961,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1006,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -914,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -928,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -939,10 +1048,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -953,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -967,13 +1076,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -981,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,10 +1104,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1009,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1023,13 +1132,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1037,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1061,16 +1170,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1095,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>-0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1112,16 +1221,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1129,13 +1238,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1146,16 +1255,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1163,13 +1272,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1180,16 +1289,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D8">
-        <v>-0.7</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1197,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1214,16 +1323,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1231,16 +1340,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1258,306 +1367,306 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>75.14999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="C2">
-        <v>24.31</v>
+        <v>20.2</v>
       </c>
       <c r="D2">
-        <v>0.54</v>
+        <v>19.6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C3">
-        <v>40.75</v>
+        <v>16.8</v>
       </c>
       <c r="D3">
-        <v>28.49</v>
+        <v>15.1</v>
       </c>
       <c r="E3">
-        <v>8.44</v>
+        <v>12.8</v>
       </c>
       <c r="F3">
-        <v>1.65</v>
+        <v>11.6</v>
       </c>
       <c r="G3">
-        <v>0.16</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>99.98999999999999</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3.85</v>
+        <v>18.8</v>
       </c>
       <c r="C4">
-        <v>23.6</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>34.88</v>
+        <v>16.7</v>
       </c>
       <c r="E4">
-        <v>24.28</v>
+        <v>13.5</v>
       </c>
       <c r="F4">
-        <v>10.42</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>2.51</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>0.45</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>4.6</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.54000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.49</v>
+        <v>20.9</v>
       </c>
       <c r="C5">
-        <v>9.120000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="D5">
-        <v>22.75</v>
+        <v>13.8</v>
       </c>
       <c r="E5">
-        <v>30.04</v>
+        <v>13.5</v>
       </c>
       <c r="F5">
-        <v>22.44</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
-        <v>11.29</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H5">
-        <v>3.42</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
-        <v>0.42</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>96.13</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.81</v>
+        <v>13.5</v>
       </c>
       <c r="D6">
-        <v>9.779999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="E6">
-        <v>22.2</v>
+        <v>15.1</v>
       </c>
       <c r="F6">
-        <v>29.2</v>
+        <v>12.7</v>
       </c>
       <c r="G6">
-        <v>22.5</v>
+        <v>11.7</v>
       </c>
       <c r="H6">
-        <v>10.88</v>
+        <v>10.7</v>
       </c>
       <c r="I6">
-        <v>3.29</v>
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>0.33</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>85.5</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="C7">
-        <v>0.37</v>
+        <v>8.1</v>
       </c>
       <c r="D7">
-        <v>3.08</v>
+        <v>8.9</v>
       </c>
       <c r="E7">
-        <v>11.14</v>
+        <v>12.2</v>
       </c>
       <c r="F7">
-        <v>21.89</v>
+        <v>14.2</v>
       </c>
       <c r="G7">
-        <v>28.41</v>
+        <v>15.1</v>
       </c>
       <c r="H7">
-        <v>22.68</v>
+        <v>21.5</v>
       </c>
       <c r="I7">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
       <c r="J7">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="K7">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
-        <v>64.89000000000001</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C8">
-        <v>0.04</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>0.46</v>
+        <v>7.4</v>
       </c>
       <c r="E8">
-        <v>3.42</v>
+        <v>10.9</v>
       </c>
       <c r="F8">
-        <v>11.31</v>
+        <v>16.2</v>
       </c>
       <c r="G8">
-        <v>23.05</v>
+        <v>20.1</v>
       </c>
       <c r="H8">
-        <v>29.9</v>
+        <v>18.3</v>
       </c>
       <c r="I8">
-        <v>22.74</v>
+        <v>13.8</v>
       </c>
       <c r="J8">
-        <v>8.57</v>
+        <v>4.4</v>
       </c>
       <c r="K8">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="L8">
-        <v>38.28</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1565,80 +1674,80 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>4.1</v>
       </c>
       <c r="E9">
-        <v>0.46</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>2.9</v>
+        <v>10.6</v>
       </c>
       <c r="G9">
-        <v>10.44</v>
+        <v>16.4</v>
       </c>
       <c r="H9">
-        <v>24.66</v>
+        <v>16.8</v>
       </c>
       <c r="I9">
-        <v>35.01000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="J9">
-        <v>22.76</v>
+        <v>12.2</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="L9">
-        <v>13.82</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="G10">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="I10">
-        <v>27.76</v>
+        <v>17.5</v>
       </c>
       <c r="J10">
-        <v>40.68</v>
+        <v>48.4</v>
       </c>
       <c r="K10">
-        <v>21.71</v>
+        <v>24.2</v>
       </c>
       <c r="L10">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1650,28 +1759,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I11">
-        <v>0.5700000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J11">
-        <v>25.41</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>74.02</v>
+        <v>71.5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1789,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>123.16</v>
+      </c>
+      <c r="E2">
+        <v>246.32</v>
+      </c>
+      <c r="F2">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>134.16</v>
+      </c>
+      <c r="E3">
+        <v>268.32</v>
+      </c>
+      <c r="F3">
+        <v>86.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>120.39</v>
+      </c>
+      <c r="E4">
+        <v>240.78</v>
+      </c>
+      <c r="F4">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>134.84</v>
+      </c>
+      <c r="E5">
+        <v>269.68</v>
+      </c>
+      <c r="F5">
+        <v>85.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>124.09</v>
+      </c>
+      <c r="E6">
+        <v>248.18</v>
+      </c>
+      <c r="F6">
+        <v>76.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>112.88</v>
+      </c>
+      <c r="E7">
+        <v>225.76</v>
+      </c>
+      <c r="F7">
+        <v>63.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>114.65</v>
+      </c>
+      <c r="E8">
+        <v>229.3</v>
+      </c>
+      <c r="F8">
+        <v>63.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>110.9</v>
+      </c>
+      <c r="E9">
+        <v>221.8</v>
+      </c>
+      <c r="F9">
+        <v>41.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>104.06</v>
+      </c>
+      <c r="E10">
+        <v>208.12</v>
+      </c>
+      <c r="F10">
+        <v>3.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>97.73</v>
+      </c>
+      <c r="E11">
+        <v>195.46</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2097,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,16 +2131,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1740,16 +2148,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +2165,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2182,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1845,13 +2253,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1862,144 +2270,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2286,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="85">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -146,12 +146,12 @@
     <t>8.9-5.1</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
     <t>8.6-5.4</t>
   </si>
   <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
     <t>8.2-5.8</t>
   </si>
   <si>
@@ -164,10 +164,10 @@
     <t>7.1-6.9</t>
   </si>
   <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>3.0-11.0</t>
@@ -188,10 +188,40 @@
     <t>3-11</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Matthew Dorchak</t>
+  </si>
+  <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
   </si>
   <si>
     <t>↓1</t>
@@ -1408,113 +1438,113 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>20.7</v>
+        <v>22.1</v>
       </c>
       <c r="C2">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
-        <v>19.6</v>
+        <v>17.7</v>
       </c>
       <c r="E2">
-        <v>15.6</v>
+        <v>12.6</v>
       </c>
       <c r="F2">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="G2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>94</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>20.9</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="D3">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="G3">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I3">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J3">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>86.5</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>18.8</v>
+        <v>21.3</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="E4">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
         <v>4.6</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>85.59999999999999</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1522,37 +1552,37 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>20.9</v>
+        <v>18.7</v>
       </c>
       <c r="C5">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>13.8</v>
+        <v>15.6</v>
       </c>
       <c r="E5">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L5">
-        <v>85.5</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1560,37 +1590,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="C6">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="D6">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="E6">
-        <v>15.1</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>12.7</v>
+        <v>14.6</v>
       </c>
       <c r="G6">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="H6">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1598,37 +1628,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="D7">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="E7">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="G7">
-        <v>15.1</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>21.5</v>
+        <v>16.7</v>
       </c>
       <c r="I7">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="J7">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>63.4</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1636,37 +1666,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="E8">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="F8">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="G8">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
       <c r="H8">
-        <v>18.3</v>
+        <v>19.9</v>
       </c>
       <c r="I8">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="J8">
         <v>4.4</v>
       </c>
       <c r="K8">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>63.2</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1674,37 +1704,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F9">
-        <v>10.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G9">
-        <v>16.4</v>
+        <v>12.2</v>
       </c>
       <c r="H9">
-        <v>16.8</v>
+        <v>19.1</v>
       </c>
       <c r="I9">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="J9">
-        <v>12.2</v>
+        <v>14.9</v>
       </c>
       <c r="K9">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>41.3</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1715,34 +1745,34 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="I10">
-        <v>17.5</v>
+        <v>16.9</v>
       </c>
       <c r="J10">
-        <v>48.4</v>
+        <v>46.9</v>
       </c>
       <c r="K10">
-        <v>24.2</v>
+        <v>22.8</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1756,31 +1786,31 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.1</v>
       </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I11">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>71.5</v>
+        <v>72.2</v>
       </c>
       <c r="L11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1869,7 @@
         <v>246.32</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -1850,54 +1880,54 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>134.16</v>
+        <v>120.39</v>
       </c>
       <c r="E3">
-        <v>268.32</v>
+        <v>240.78</v>
       </c>
       <c r="F3">
-        <v>86.5</v>
+        <v>87.3</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>120.39</v>
+        <v>134.16</v>
       </c>
       <c r="E4">
-        <v>240.78</v>
+        <v>268.32</v>
       </c>
       <c r="F4">
-        <v>85.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1917,7 +1947,7 @@
         <v>269.68</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -1943,7 +1973,7 @@
         <v>248.18</v>
       </c>
       <c r="F6">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1969,7 +1999,7 @@
         <v>225.76</v>
       </c>
       <c r="F7">
-        <v>63.4</v>
+        <v>67.2</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1995,7 +2025,7 @@
         <v>229.3</v>
       </c>
       <c r="F8">
-        <v>63.2</v>
+        <v>61.1</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2021,7 +2051,7 @@
         <v>221.8</v>
       </c>
       <c r="F9">
-        <v>41.3</v>
+        <v>36.3</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -2047,7 +2077,7 @@
         <v>208.12</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -2073,7 +2103,7 @@
         <v>195.46</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -2089,13 +2119,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2103,180 +2133,213 @@
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>-4</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2294,13 +2357,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2314,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2328,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2342,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2356,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2370,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2384,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2398,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2412,7 +2475,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2426,7 +2489,7 @@
         <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2440,7 +2503,7 @@
         <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2458,25 +2521,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -53,13 +53,16 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,43 +137,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
   </si>
   <si>
     <t>8.6-5.4</t>
   </si>
   <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
   </si>
   <si>
     <t>4.3-9.7</t>
   </si>
   <si>
-    <t>3.0-11.0</t>
+    <t>2.5-11.5</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -182,10 +188,13 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>2-12</t>
   </si>
   <si>
     <t>Owners</t>
@@ -197,64 +206,67 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
     <t>Matt Galvin</t>
   </si>
   <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
     <t>Josh Cai</t>
   </si>
   <si>
     <t>Matthew Dorchak</t>
   </si>
   <si>
-    <t>Dan Davis</t>
-  </si>
-  <si>
     <t>Elle Patterson</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -679,19 +691,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -700,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -717,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -726,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -746,34 +758,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -781,34 +793,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -831,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -854,31 +866,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -889,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -901,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -910,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -959,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -971,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -980,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -991,34 +1003,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1036,13 +1048,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1053,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1067,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1078,13 +1090,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1092,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1106,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1120,10 +1132,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1134,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1151,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1162,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1176,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1200,16 +1212,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1217,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D2">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1237,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="D3">
-        <v>-0.7</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1251,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1268,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1285,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1302,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1322,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>-0.09999999999999998</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1336,16 +1348,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D9">
-        <v>-0.2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1356,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1379,7 +1391,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1397,154 +1409,154 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>22.1</v>
+        <v>30.7</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>17.7</v>
+        <v>17.1</v>
       </c>
       <c r="E2">
-        <v>12.6</v>
+        <v>14.4</v>
       </c>
       <c r="F2">
-        <v>12.4</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="I2">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>93.3</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>27.6</v>
       </c>
       <c r="C3">
-        <v>18.3</v>
+        <v>20.9</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18.4</v>
       </c>
       <c r="E3">
-        <v>14.8</v>
+        <v>11.4</v>
       </c>
       <c r="F3">
-        <v>11.1</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>87.3</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>21.3</v>
+        <v>10.2</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>16.9</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>14.2</v>
+        <v>20.3</v>
       </c>
       <c r="F4">
-        <v>8.800000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>86.2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1552,189 +1564,189 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>18.7</v>
+        <v>14.9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="D5">
-        <v>15.6</v>
+        <v>12.4</v>
       </c>
       <c r="E5">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="F5">
+        <v>16.1</v>
+      </c>
+      <c r="G5">
         <v>12.6</v>
       </c>
-      <c r="G5">
-        <v>10.8</v>
-      </c>
       <c r="H5">
-        <v>5.8</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="J5">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>86.09999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.1</v>
+      </c>
+      <c r="C6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D6">
+        <v>12.9</v>
+      </c>
+      <c r="E6">
+        <v>15.5</v>
+      </c>
+      <c r="F6">
+        <v>17.8</v>
+      </c>
+      <c r="G6">
+        <v>18.2</v>
+      </c>
+      <c r="H6">
+        <v>12.2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>10.7</v>
-      </c>
-      <c r="C6">
-        <v>12.2</v>
-      </c>
-      <c r="D6">
-        <v>13.1</v>
-      </c>
-      <c r="E6">
-        <v>12.9</v>
-      </c>
-      <c r="F6">
-        <v>14.6</v>
-      </c>
-      <c r="G6">
-        <v>12.3</v>
-      </c>
-      <c r="H6">
-        <v>10.8</v>
-      </c>
-      <c r="I6">
-        <v>8.9</v>
-      </c>
-      <c r="J6">
-        <v>3.5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>75.8</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C7">
-        <v>7.7</v>
+        <v>10.7</v>
       </c>
       <c r="D7">
-        <v>10.3</v>
+        <v>13.3</v>
       </c>
       <c r="E7">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="H7">
-        <v>16.7</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>11.8</v>
+        <v>6.4</v>
       </c>
       <c r="J7">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
-        <v>67.2</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="E8">
-        <v>12.3</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="H8">
-        <v>19.9</v>
+        <v>30.3</v>
       </c>
       <c r="I8">
-        <v>13.9</v>
+        <v>16.5</v>
       </c>
       <c r="J8">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="K8">
         <v>0.7</v>
       </c>
       <c r="L8">
-        <v>61.1</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="E9">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="F9">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="G9">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
       <c r="H9">
-        <v>19.1</v>
+        <v>15.9</v>
       </c>
       <c r="I9">
-        <v>27.4</v>
+        <v>34.9</v>
       </c>
       <c r="J9">
-        <v>14.9</v>
+        <v>26.8</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="L9">
-        <v>36.3</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1745,34 +1757,34 @@
         <v>0.1</v>
       </c>
       <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
       <c r="E10">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H10">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="I10">
-        <v>16.9</v>
+        <v>25.6</v>
       </c>
       <c r="J10">
-        <v>46.9</v>
+        <v>47.3</v>
       </c>
       <c r="K10">
-        <v>22.8</v>
+        <v>14.4</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1786,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>14.7</v>
       </c>
       <c r="K11">
-        <v>72.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="L11">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1828,106 +1840,106 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>123.16</v>
+        <v>125.4666666666667</v>
       </c>
       <c r="E2">
-        <v>246.32</v>
+        <v>376.4</v>
       </c>
       <c r="F2">
-        <v>93.30000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>120.39</v>
+        <v>137.1533333333333</v>
       </c>
       <c r="E3">
-        <v>240.78</v>
+        <v>411.46</v>
       </c>
       <c r="F3">
-        <v>87.3</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4">
-        <v>134.16</v>
+        <v>124.8266666666667</v>
       </c>
       <c r="E4">
-        <v>268.32</v>
+        <v>374.48</v>
       </c>
       <c r="F4">
-        <v>86.2</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1935,129 +1947,129 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>134.84</v>
+        <v>127.5</v>
       </c>
       <c r="E5">
-        <v>269.68</v>
+        <v>382.5</v>
       </c>
       <c r="F5">
-        <v>86.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>124.09</v>
+        <v>121.4533333333333</v>
       </c>
       <c r="E6">
-        <v>248.18</v>
+        <v>364.36</v>
       </c>
       <c r="F6">
-        <v>75.8</v>
+        <v>81.3</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>112.88</v>
+        <v>120.1666666666667</v>
       </c>
       <c r="E7">
-        <v>225.76</v>
+        <v>360.5</v>
       </c>
       <c r="F7">
-        <v>67.2</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>114.65</v>
+        <v>111.1266666666667</v>
       </c>
       <c r="E8">
-        <v>229.3</v>
+        <v>333.38</v>
       </c>
       <c r="F8">
-        <v>61.1</v>
+        <v>46.9</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>110.9</v>
+        <v>106.3333333333333</v>
       </c>
       <c r="E9">
-        <v>221.8</v>
+        <v>319</v>
       </c>
       <c r="F9">
-        <v>36.3</v>
+        <v>18.1</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2065,25 +2077,25 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>104.06</v>
+        <v>105.9</v>
       </c>
       <c r="E10">
-        <v>208.12</v>
+        <v>317.7</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2091,25 +2103,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>97.73</v>
+        <v>92.36000000000001</v>
       </c>
       <c r="E11">
-        <v>195.46</v>
+        <v>277.08</v>
       </c>
       <c r="F11">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2127,19 +2139,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2147,19 +2159,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2167,19 +2179,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2187,19 +2199,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2207,19 +2219,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2230,16 +2242,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2247,19 +2259,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2267,19 +2279,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2287,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2307,19 +2319,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2330,16 +2342,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2349,80 +2361,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2432,67 +2459,82 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>-4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2502,8 +2544,11 @@
       <c r="C11">
         <v>-13</v>
       </c>
-      <c r="D11" t="s">
-        <v>75</v>
+      <c r="D11">
+        <v>-19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2521,25 +2566,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2566,6 +2611,32 @@
       </c>
       <c r="H2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -53,16 +53,19 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,43 +140,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
   </si>
   <si>
     <t>8.3-5.7</t>
   </si>
   <si>
-    <t>7.9-6.1</t>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
   </si>
   <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>2.5-11.5</t>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>10-4</t>
@@ -194,9 +200,6 @@
     <t>4-10</t>
   </si>
   <si>
-    <t>2-12</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -209,55 +212,52 @@
     <t>Steve Heidengren</t>
   </si>
   <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
     <t>Andrew Li</t>
   </si>
   <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
     <t>Dan Davis</t>
   </si>
   <si>
+    <t>Matthew Dorchak</t>
+  </si>
+  <si>
     <t>Josh Cai</t>
   </si>
   <si>
-    <t>Matthew Dorchak</t>
-  </si>
-  <si>
     <t>Elle Patterson</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -691,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -700,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -712,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -726,22 +729,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -773,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -793,28 +796,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -831,22 +834,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -863,34 +866,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -901,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -933,25 +936,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -971,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -980,10 +983,10 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1003,34 +1006,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,10 +1068,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1076,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1090,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1104,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1118,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1146,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1160,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1188,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1212,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1232,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1249,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D3">
-        <v>-0.8999999999999999</v>
+        <v>-1.3</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1263,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1283,13 +1286,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D5">
-        <v>-0.3</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1297,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>-0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1314,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1334,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>-0.6000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1348,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1365,16 +1368,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1385,13 +1388,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1409,40 +1412,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1450,37 +1453,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30.7</v>
+        <v>44.9</v>
       </c>
       <c r="C2">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D2">
-        <v>17.1</v>
+        <v>14.1</v>
       </c>
       <c r="E2">
-        <v>14.4</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H2">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1488,151 +1491,151 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>27.6</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="D3">
-        <v>18.4</v>
+        <v>17.1</v>
       </c>
       <c r="E3">
-        <v>11.4</v>
+        <v>13.1</v>
       </c>
       <c r="F3">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="G3">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>94.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10.2</v>
+        <v>14.6</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>16.1</v>
       </c>
       <c r="E4">
-        <v>20.3</v>
+        <v>16.9</v>
       </c>
       <c r="F4">
-        <v>15.6</v>
+        <v>11.8</v>
       </c>
       <c r="G4">
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
+        <v>4.4</v>
+      </c>
+      <c r="J4">
         <v>1.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.3</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>12.4</v>
+      </c>
+      <c r="D5">
+        <v>14.6</v>
+      </c>
+      <c r="E5">
+        <v>13.9</v>
+      </c>
+      <c r="F5">
         <v>14.9</v>
       </c>
-      <c r="C5">
-        <v>15.3</v>
-      </c>
-      <c r="D5">
-        <v>12.4</v>
-      </c>
-      <c r="E5">
-        <v>14.2</v>
-      </c>
-      <c r="F5">
-        <v>16.1</v>
-      </c>
       <c r="G5">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>12.3</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>9.5</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>85.5</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="C6">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
+        <v>12.6</v>
+      </c>
+      <c r="F6">
         <v>15.5</v>
       </c>
-      <c r="F6">
-        <v>17.8</v>
-      </c>
       <c r="G6">
-        <v>18.2</v>
+        <v>13.5</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>81.3</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1640,151 +1643,151 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="C7">
-        <v>10.7</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>13.3</v>
+        <v>11.7</v>
       </c>
       <c r="E7">
         <v>14.1</v>
       </c>
       <c r="F7">
-        <v>15.5</v>
+        <v>13.3</v>
       </c>
       <c r="G7">
-        <v>16.8</v>
+        <v>14.2</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="I7">
-        <v>6.4</v>
+        <v>10.9</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="L7">
-        <v>79.09999999999999</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="G8">
-        <v>19.5</v>
+        <v>17.7</v>
       </c>
       <c r="H8">
-        <v>30.3</v>
+        <v>16.5</v>
       </c>
       <c r="I8">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="J8">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>46.9</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="F9">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>9.5</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
+        <v>16.8</v>
+      </c>
+      <c r="I9">
+        <v>20.5</v>
+      </c>
+      <c r="J9">
         <v>15.9</v>
       </c>
-      <c r="I9">
-        <v>34.9</v>
-      </c>
-      <c r="J9">
-        <v>26.8</v>
-      </c>
       <c r="K9">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="L9">
-        <v>18.1</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H10">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="I10">
-        <v>25.6</v>
+        <v>14.7</v>
       </c>
       <c r="J10">
-        <v>47.3</v>
+        <v>32.5</v>
       </c>
       <c r="K10">
-        <v>14.4</v>
+        <v>37.1</v>
       </c>
       <c r="L10">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1798,31 +1801,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>4.3</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>14.7</v>
+        <v>27.3</v>
       </c>
       <c r="K11">
-        <v>80.09999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -1840,28 +1843,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1869,25 +1872,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>125.4666666666667</v>
+        <v>124.99</v>
       </c>
       <c r="E2">
-        <v>376.4</v>
+        <v>499.96</v>
       </c>
       <c r="F2">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1895,103 +1898,103 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>137.1533333333333</v>
+        <v>134.99</v>
       </c>
       <c r="E3">
-        <v>411.46</v>
+        <v>539.96</v>
       </c>
       <c r="F3">
-        <v>94.39999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>124.8266666666667</v>
+        <v>121.74</v>
       </c>
       <c r="E4">
-        <v>374.48</v>
+        <v>486.96</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>127.5</v>
+        <v>116.515</v>
       </c>
       <c r="E5">
-        <v>382.5</v>
+        <v>466.06</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>74.8</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>121.4533333333333</v>
+        <v>120.49</v>
       </c>
       <c r="E6">
-        <v>364.36</v>
+        <v>481.96</v>
       </c>
       <c r="F6">
-        <v>81.3</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1999,103 +2002,103 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>120.1666666666667</v>
+        <v>120.67</v>
       </c>
       <c r="E7">
-        <v>360.5</v>
+        <v>482.68</v>
       </c>
       <c r="F7">
-        <v>79.10000000000001</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>111.1266666666667</v>
+        <v>122.22</v>
       </c>
       <c r="E8">
-        <v>333.38</v>
+        <v>488.88</v>
       </c>
       <c r="F8">
-        <v>46.9</v>
+        <v>60.7</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>106.3333333333333</v>
+        <v>116.62</v>
       </c>
       <c r="E9">
-        <v>319</v>
+        <v>466.48</v>
       </c>
       <c r="F9">
-        <v>18.1</v>
+        <v>39.5</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>105.9</v>
+        <v>104.33</v>
       </c>
       <c r="E10">
-        <v>317.7</v>
+        <v>417.32</v>
       </c>
       <c r="F10">
-        <v>4.100000000000001</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2103,25 +2106,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>92.36000000000001</v>
+        <v>100.875</v>
       </c>
       <c r="E11">
-        <v>277.08</v>
+        <v>403.5000000000001</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2139,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2162,16 +2165,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2179,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2202,16 +2205,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,19 +2222,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2259,19 +2262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2279,19 +2282,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2319,19 +2322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,13 +2345,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
@@ -2361,13 +2364,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
@@ -2378,10 +2381,13 @@
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2394,28 +2400,34 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2428,113 +2440,134 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="D7">
+      <c r="C9">
         <v>-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
       </c>
       <c r="D9">
         <v>-5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2580,10 @@
       <c r="D11">
         <v>-19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>-18</v>
+      </c>
+      <c r="F11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2558,7 +2594,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2566,25 +2602,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2592,25 +2628,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2618,24 +2654,76 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>-2</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="91">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -152,34 +152,34 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
+    <t>9.8-4.1-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8-0.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9-0.1</t>
+  </si>
+  <si>
+    <t>4.4-9.6-0.1</t>
+  </si>
+  <si>
+    <t>4.4-9.5-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -194,10 +194,13 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1453,28 +1456,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>44.9</v>
+        <v>48.4</v>
       </c>
       <c r="C2">
-        <v>23.5</v>
+        <v>20.8</v>
       </c>
       <c r="D2">
         <v>14.1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F2">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1491,37 +1494,37 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>17.6</v>
       </c>
       <c r="C3">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="D3">
         <v>17.1</v>
       </c>
       <c r="E3">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="F3">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I3">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>90.90000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1529,37 +1532,37 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>19.3</v>
       </c>
       <c r="D4">
-        <v>16.1</v>
+        <v>17.3</v>
       </c>
       <c r="E4">
-        <v>16.9</v>
+        <v>15.7</v>
       </c>
       <c r="F4">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="G4">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1567,37 +1570,37 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="C5">
-        <v>12.4</v>
+        <v>10.3</v>
       </c>
       <c r="D5">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E5">
-        <v>13.9</v>
+        <v>15.5</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="G5">
+        <v>12.9</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>12.3</v>
-      </c>
       <c r="I5">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="J5">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>74.8</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1605,28 +1608,28 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="C6">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E6">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="G6">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H6">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="I6">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>6.2</v>
@@ -1635,7 +1638,7 @@
         <v>3.6</v>
       </c>
       <c r="L6">
-        <v>68.59999999999999</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1643,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="E7">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="F7">
-        <v>13.3</v>
+        <v>15.5</v>
       </c>
       <c r="G7">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="H7">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="J7">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1684,34 +1687,34 @@
         <v>1.8</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E8">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F8">
+        <v>13.8</v>
+      </c>
+      <c r="G8">
+        <v>17.9</v>
+      </c>
+      <c r="H8">
+        <v>14.4</v>
+      </c>
+      <c r="I8">
         <v>15.1</v>
       </c>
-      <c r="G8">
-        <v>17.7</v>
-      </c>
-      <c r="H8">
-        <v>16.5</v>
-      </c>
-      <c r="I8">
-        <v>13.6</v>
-      </c>
       <c r="J8">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>60.7</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1722,34 +1725,34 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E9">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>11.8</v>
       </c>
       <c r="G9">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H9">
-        <v>16.8</v>
+        <v>18.5</v>
       </c>
       <c r="I9">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="J9">
-        <v>15.9</v>
+        <v>12.8</v>
       </c>
       <c r="K9">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="L9">
-        <v>39.5</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1760,34 +1763,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="G10">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H10">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="I10">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="J10">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="K10">
-        <v>37.1</v>
+        <v>41.2</v>
       </c>
       <c r="L10">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1795,37 +1798,37 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G11">
         <v>3.2</v>
       </c>
       <c r="H11">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>12.9</v>
+        <v>15.6</v>
       </c>
       <c r="J11">
-        <v>27.3</v>
+        <v>31.4</v>
       </c>
       <c r="K11">
-        <v>45.4</v>
+        <v>39.6</v>
       </c>
       <c r="L11">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1887,7 @@
         <v>499.96</v>
       </c>
       <c r="F2">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1910,7 +1913,7 @@
         <v>539.96</v>
       </c>
       <c r="F3">
-        <v>90.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
@@ -1936,13 +1939,13 @@
         <v>486.96</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1962,7 +1965,7 @@
         <v>466.06</v>
       </c>
       <c r="F5">
-        <v>74.8</v>
+        <v>76.5</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1988,7 +1991,7 @@
         <v>481.96</v>
       </c>
       <c r="F6">
-        <v>68.60000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -2014,7 +2017,7 @@
         <v>482.68</v>
       </c>
       <c r="F7">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -2040,7 +2043,7 @@
         <v>488.88</v>
       </c>
       <c r="F8">
-        <v>60.7</v>
+        <v>59.8</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -2066,7 +2069,7 @@
         <v>466.48</v>
       </c>
       <c r="F9">
-        <v>39.5</v>
+        <v>41.6</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -2092,7 +2095,7 @@
         <v>417.32</v>
       </c>
       <c r="F10">
-        <v>8.200000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -2118,13 +2121,13 @@
         <v>403.5000000000001</v>
       </c>
       <c r="F11">
-        <v>6.600000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2145,16 +2148,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2165,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -2174,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2185,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -2194,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2205,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2214,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2225,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2234,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2254,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2265,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>-6</v>
@@ -2274,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>-6</v>
@@ -2294,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2305,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>-6</v>
@@ -2314,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2325,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>-10</v>
@@ -2334,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2345,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-18</v>
@@ -2354,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2372,19 +2375,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2404,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2424,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2444,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2464,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2484,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2504,7 +2507,7 @@
         <v>-6</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2524,7 +2527,7 @@
         <v>-6</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2544,7 +2547,7 @@
         <v>-6</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2564,7 +2567,7 @@
         <v>-10</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2584,7 +2587,7 @@
         <v>-18</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2602,25 +2605,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="93">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -53,19 +53,22 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,49 +143,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7-0.1</t>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>10.2-3.7-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.2-0.1</t>
   </si>
   <si>
     <t>7.7-6.2-0.1</t>
   </si>
   <si>
-    <t>7.2-6.8-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>4.4-9.6-0.1</t>
-  </si>
-  <si>
-    <t>4.4-9.5-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>7.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.7-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.5-0.1</t>
+  </si>
+  <si>
+    <t>4.1-9.8-0.1</t>
+  </si>
+  <si>
+    <t>3.7-10.2-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
@@ -200,9 +206,6 @@
     <t>4-10</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -215,34 +218,43 @@
     <t>Steve Heidengren</t>
   </si>
   <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
     <t>Matt Galvin</t>
   </si>
   <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
     <t>Andrew Li</t>
   </si>
   <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
+    <t>Matthew Dorchak</t>
+  </si>
+  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
-    <t>Dan Davis</t>
-  </si>
-  <si>
-    <t>Matthew Dorchak</t>
-  </si>
-  <si>
     <t>Josh Cai</t>
   </si>
   <si>
     <t>Elle Patterson</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
@@ -251,18 +263,9 @@
     <t>↓4</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -697,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -712,13 +718,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -732,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -741,19 +747,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -779,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -817,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -834,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -846,19 +852,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -887,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -904,31 +910,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -939,34 +945,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -974,34 +980,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1054,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1071,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1082,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1096,13 +1102,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1110,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1124,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1152,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1166,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1180,13 +1186,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1194,10 +1200,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1218,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1238,13 +1244,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1255,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D3">
-        <v>-1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1269,16 +1275,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D4">
-        <v>-0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1289,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999998</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1303,16 +1309,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1320,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1337,16 +1343,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D8">
-        <v>-0.3</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1354,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>-0.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1371,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D10">
-        <v>0.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1388,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1415,40 +1421,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1456,189 +1462,189 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>20.8</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>17.6</v>
+        <v>15.3</v>
       </c>
       <c r="C3">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D3">
-        <v>17.1</v>
+        <v>21.2</v>
       </c>
       <c r="E3">
-        <v>12.6</v>
+        <v>16.7</v>
       </c>
       <c r="F3">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H3">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>14.2</v>
+        <v>22.1</v>
       </c>
       <c r="C4">
-        <v>19.3</v>
+        <v>24.9</v>
       </c>
       <c r="D4">
-        <v>17.3</v>
+        <v>19.9</v>
       </c>
       <c r="E4">
-        <v>15.7</v>
+        <v>14.3</v>
       </c>
       <c r="F4">
-        <v>11.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>9.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>87.2</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="C5">
         <v>10.3</v>
       </c>
       <c r="D5">
-        <v>14.7</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>15.5</v>
+        <v>17.2</v>
       </c>
       <c r="F5">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="G5">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>10.6</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>76.5</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="D6">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>13.9</v>
+        <v>19.6</v>
       </c>
       <c r="G6">
-        <v>12.5</v>
+        <v>17.9</v>
       </c>
       <c r="H6">
         <v>12.5</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="J6">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1646,75 +1652,75 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="D7">
-        <v>10.9</v>
+        <v>7.5</v>
       </c>
       <c r="E7">
-        <v>14.3</v>
+        <v>12.7</v>
       </c>
       <c r="F7">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="G7">
+        <v>17.1</v>
+      </c>
+      <c r="H7">
+        <v>20.7</v>
+      </c>
+      <c r="I7">
         <v>13.9</v>
       </c>
-      <c r="H7">
-        <v>13.7</v>
-      </c>
-      <c r="I7">
-        <v>11.4</v>
-      </c>
       <c r="J7">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L7">
-        <v>66.40000000000001</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D8">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>13.3</v>
+        <v>10.3</v>
       </c>
       <c r="F8">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="G8">
-        <v>17.9</v>
+        <v>19.8</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>18.9</v>
       </c>
       <c r="I8">
-        <v>15.1</v>
+        <v>16.6</v>
       </c>
       <c r="J8">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>59.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1722,113 +1728,113 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="F9">
-        <v>11.8</v>
+        <v>6.9</v>
       </c>
       <c r="G9">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="I9">
-        <v>19</v>
+        <v>28.5</v>
       </c>
       <c r="J9">
-        <v>12.8</v>
+        <v>16.4</v>
       </c>
       <c r="K9">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>41.6</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1.5</v>
       </c>
-      <c r="F10">
-        <v>1.6</v>
-      </c>
       <c r="G10">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I10">
-        <v>13.5</v>
+        <v>16.2</v>
       </c>
       <c r="J10">
-        <v>30.5</v>
+        <v>35.5</v>
       </c>
       <c r="K10">
-        <v>41.2</v>
+        <v>36.6</v>
       </c>
       <c r="L10">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>15.6</v>
+        <v>10.3</v>
       </c>
       <c r="J11">
-        <v>31.4</v>
+        <v>32.2</v>
       </c>
       <c r="K11">
-        <v>39.6</v>
+        <v>51.4</v>
       </c>
       <c r="L11">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -1846,28 +1852,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1875,129 +1881,129 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>124.99</v>
+        <v>127.244</v>
       </c>
       <c r="E2">
-        <v>499.96</v>
+        <v>636.22</v>
       </c>
       <c r="F2">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>134.99</v>
+        <v>124.856</v>
       </c>
       <c r="E3">
-        <v>539.96</v>
+        <v>624.28</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>121.74</v>
+        <v>137.812</v>
       </c>
       <c r="E4">
-        <v>486.96</v>
+        <v>689.0600000000001</v>
       </c>
       <c r="F4">
-        <v>87.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>116.515</v>
+        <v>124.06</v>
       </c>
       <c r="E5">
-        <v>466.06</v>
+        <v>620.3</v>
       </c>
       <c r="F5">
-        <v>76.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>120.49</v>
+        <v>126.656</v>
       </c>
       <c r="E6">
-        <v>481.96</v>
+        <v>633.28</v>
       </c>
       <c r="F6">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2005,51 +2011,51 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>120.67</v>
+        <v>122.032</v>
       </c>
       <c r="E7">
-        <v>482.68</v>
+        <v>610.16</v>
       </c>
       <c r="F7">
-        <v>66.40000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>122.22</v>
+        <v>112.488</v>
       </c>
       <c r="E8">
-        <v>488.88</v>
+        <v>562.4400000000001</v>
       </c>
       <c r="F8">
-        <v>59.8</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2057,77 +2063,77 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>116.62</v>
+        <v>115.124</v>
       </c>
       <c r="E9">
-        <v>466.48</v>
+        <v>575.62</v>
       </c>
       <c r="F9">
-        <v>41.6</v>
+        <v>27.9</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>104.33</v>
+        <v>102.084</v>
       </c>
       <c r="E10">
-        <v>417.32</v>
+        <v>510.4200000000001</v>
       </c>
       <c r="F10">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>100.875</v>
+        <v>100.172</v>
       </c>
       <c r="E11">
-        <v>403.5000000000001</v>
+        <v>500.86</v>
       </c>
       <c r="F11">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2145,19 +2151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2168,16 +2174,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2185,19 +2191,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2205,19 +2211,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2228,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2251,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2265,19 +2271,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,19 +2291,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2305,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2328,16 +2334,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2348,16 +2354,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2367,30 +2373,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2406,51 +2415,60 @@
       <c r="E2">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2466,11 +2484,14 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2486,71 +2507,83 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7">
         <v>-6</v>
       </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
       </c>
       <c r="E9">
         <v>-6</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2566,11 +2599,14 @@
       <c r="E10">
         <v>-10</v>
       </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2622,11 @@
       <c r="E11">
         <v>-18</v>
       </c>
-      <c r="F11" t="s">
-        <v>79</v>
+      <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2605,25 +2644,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2728,6 +2767,58 @@
       </c>
       <c r="H5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -122,6 +123,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -161,34 +180,34 @@
     <t>10.2-3.7-0.1</t>
   </si>
   <si>
-    <t>8.9-5.1-0.1</t>
-  </si>
-  <si>
-    <t>8.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3-0.1</t>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.3-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.6-0.1</t>
+  </si>
+  <si>
+    <t>6.7-7.2-0.1</t>
   </si>
   <si>
     <t>6.9-7.0-0.1</t>
   </si>
   <si>
-    <t>5.5-8.5-0.1</t>
-  </si>
-  <si>
-    <t>4.1-9.8-0.1</t>
-  </si>
-  <si>
-    <t>3.7-10.2-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.4-8.5-0.1</t>
+  </si>
+  <si>
+    <t>4.1-9.9-0.1</t>
+  </si>
+  <si>
+    <t>3.6-10.3-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -200,10 +219,13 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1462,28 +1484,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47.1</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>26.4</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1492,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1500,37 +1522,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="D3">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="E3">
-        <v>16.7</v>
+        <v>17.7</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="G3">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1538,37 +1560,37 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="C4">
-        <v>24.9</v>
+        <v>22.8</v>
       </c>
       <c r="D4">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="E4">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1576,37 +1598,37 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="C5">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E5">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="F5">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="H5">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="I5">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5">
         <v>2.1</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L5">
-        <v>80.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1614,37 +1636,37 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="C6">
         <v>7.9</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>19.3</v>
       </c>
       <c r="F6">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="G6">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>77.8</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1652,37 +1674,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
         <v>4.1</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="E7">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="F7">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="G7">
-        <v>17.1</v>
+        <v>20.4</v>
       </c>
       <c r="H7">
-        <v>20.7</v>
+        <v>18.4</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="K7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>58.5</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1690,37 +1712,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="E8">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8">
         <v>16.1</v>
       </c>
       <c r="G8">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="H8">
-        <v>18.9</v>
+        <v>23.3</v>
       </c>
       <c r="I8">
-        <v>16.6</v>
+        <v>14.9</v>
       </c>
       <c r="J8">
         <v>5.1</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1728,37 +1750,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="D9">
-        <v>1.7</v>
-      </c>
       <c r="E9">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="H9">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="I9">
-        <v>28.5</v>
+        <v>35.6</v>
       </c>
       <c r="J9">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="L9">
-        <v>27.9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1769,34 +1791,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
         <v>6.5</v>
       </c>
       <c r="I10">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="J10">
-        <v>35.5</v>
+        <v>38.1</v>
       </c>
       <c r="K10">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="L10">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1813,28 +1835,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J11">
-        <v>32.2</v>
+        <v>31.4</v>
       </c>
       <c r="K11">
-        <v>51.4</v>
+        <v>53.6</v>
       </c>
       <c r="L11">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1865,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>97.8</v>
+      </c>
+      <c r="E2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>34.9</v>
+      </c>
+      <c r="D3">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="E3">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="F3">
+        <v>94.8</v>
+      </c>
+      <c r="G3">
+        <v>95.89999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>32.7</v>
+      </c>
+      <c r="C4">
+        <v>87.8</v>
+      </c>
+      <c r="D4">
+        <v>96.2</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>96.7</v>
+      </c>
+      <c r="G4">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="D5">
+        <v>87.5</v>
+      </c>
+      <c r="E5">
+        <v>68.89999999999999</v>
+      </c>
+      <c r="F5">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="G5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="C6">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="D6">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="E6">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="F6">
+        <v>80.2</v>
+      </c>
+      <c r="G6">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D7">
+        <v>79.2</v>
+      </c>
+      <c r="E7">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>62.5</v>
+      </c>
+      <c r="G7">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="C8">
+        <v>64.5</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>75.3</v>
+      </c>
+      <c r="F8">
+        <v>53.8</v>
+      </c>
+      <c r="G8">
+        <v>56.39999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="D9">
+        <v>6.3</v>
+      </c>
+      <c r="E9">
+        <v>41.3</v>
+      </c>
+      <c r="F9">
+        <v>24.5</v>
+      </c>
+      <c r="G9">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>16.8</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10">
+        <v>4.9</v>
+      </c>
+      <c r="G10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>60.3</v>
+      </c>
+      <c r="C11">
+        <v>72.89999999999999</v>
+      </c>
+      <c r="D11">
+        <v>16.3</v>
+      </c>
+      <c r="E11">
+        <v>5.3</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1855,25 +2140,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1881,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1893,13 +2178,13 @@
         <v>636.22</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1907,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -1919,13 +2204,13 @@
         <v>624.28</v>
       </c>
       <c r="F3">
-        <v>95.39999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1933,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -1945,13 +2230,13 @@
         <v>689.0600000000001</v>
       </c>
       <c r="F4">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1959,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -1971,13 +2256,13 @@
         <v>620.3</v>
       </c>
       <c r="F5">
-        <v>80.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1985,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -1997,13 +2282,13 @@
         <v>633.28</v>
       </c>
       <c r="F6">
-        <v>77.8</v>
+        <v>80.5</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2011,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2023,13 +2308,13 @@
         <v>610.16</v>
       </c>
       <c r="F7">
-        <v>58.5</v>
+        <v>61.8</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2037,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0.6</v>
@@ -2049,13 +2334,13 @@
         <v>562.4400000000001</v>
       </c>
       <c r="F8">
-        <v>57.99999999999999</v>
+        <v>55.7</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2063,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -2075,13 +2360,13 @@
         <v>575.62</v>
       </c>
       <c r="F9">
-        <v>27.9</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2089,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -2101,13 +2386,13 @@
         <v>510.4200000000001</v>
       </c>
       <c r="F10">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2115,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0.2</v>
@@ -2127,13 +2412,13 @@
         <v>500.86</v>
       </c>
       <c r="F11">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2154,16 +2439,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2174,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2183,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2194,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -2203,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2214,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2223,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2234,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2243,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2263,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2274,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>-4</v>
@@ -2283,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2294,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>-6</v>
@@ -2303,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2314,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>-10</v>
@@ -2323,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2334,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>-11</v>
@@ -2343,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2354,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>-17</v>
@@ -2363,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2381,22 +2666,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2419,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2442,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2465,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2488,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2511,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2534,7 +2819,7 @@
         <v>-4</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2557,7 +2842,7 @@
         <v>-6</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2580,7 +2865,7 @@
         <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2603,7 +2888,7 @@
         <v>-11</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2626,7 +2911,7 @@
         <v>-17</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2644,25 +2929,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="103">
   <si>
     <t>Kevin Nichols</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Leafy Water</t>
   </si>
   <si>
-    <t>CHASING DOWN BOWSER</t>
+    <t>The Real Kevin Nichols</t>
   </si>
   <si>
     <t>yay football woo</t>
@@ -54,22 +54,25 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +144,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,52 +168,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10.2-3.7-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>8.7-5.3-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.2-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>4.1-9.9-0.1</t>
-  </si>
-  <si>
-    <t>3.6-10.3-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.9-3.0-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.1-5.9-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>4.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.4-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
@@ -219,15 +225,15 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -240,15 +246,15 @@
     <t>Steve Heidengren</t>
   </si>
   <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
     <t>Andrew Steen</t>
   </si>
   <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
     <t>Dan Davis</t>
   </si>
   <si>
@@ -264,30 +270,30 @@
     <t>Elle Patterson</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -728,25 +737,25 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -757,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -784,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -792,34 +801,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -830,31 +839,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -868,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -897,26 +906,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -924,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -932,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -944,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -982,10 +991,10 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -994,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1002,34 +1011,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1040,28 +1049,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1082,13 +1091,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1099,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1110,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1124,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1138,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1152,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1169,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1183,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1194,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1208,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1222,13 +1231,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1246,16 +1255,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1266,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1283,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D3">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1297,16 +1306,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,13 +1326,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D5">
-        <v>-1.1</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1331,16 +1340,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1348,16 +1357,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1365,13 +1374,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1385,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1399,16 +1408,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,16 +1425,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
-        <v>0.1000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1443,40 +1452,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1484,25 +1493,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>47.1</v>
+        <v>68.8</v>
       </c>
       <c r="C2">
-        <v>26.4</v>
+        <v>22.3</v>
       </c>
       <c r="D2">
-        <v>14.5</v>
+        <v>6.3</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1514,235 +1523,235 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>19.7</v>
       </c>
       <c r="C3">
-        <v>24.3</v>
+        <v>35.4</v>
       </c>
       <c r="D3">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="E3">
-        <v>17.7</v>
+        <v>11.5</v>
       </c>
       <c r="F3">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>95.2</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>22.3</v>
+        <v>5.6</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>20.2</v>
       </c>
       <c r="D4">
-        <v>20.1</v>
+        <v>27.8</v>
       </c>
       <c r="E4">
-        <v>13.6</v>
+        <v>21.9</v>
       </c>
       <c r="F4">
-        <v>9.699999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>7.9</v>
+        <v>4.2</v>
       </c>
       <c r="C5">
-        <v>11.3</v>
+        <v>12.7</v>
       </c>
       <c r="D5">
-        <v>16.1</v>
+        <v>23.8</v>
       </c>
       <c r="E5">
-        <v>17.1</v>
+        <v>21.9</v>
       </c>
       <c r="F5">
-        <v>16.1</v>
+        <v>18.3</v>
       </c>
       <c r="G5">
-        <v>14.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H5">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="I5">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="J5">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>82.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
-        <v>13.4</v>
+        <v>10.9</v>
       </c>
       <c r="E6">
-        <v>19.3</v>
+        <v>14.3</v>
       </c>
       <c r="F6">
-        <v>19.1</v>
+        <v>18.3</v>
       </c>
       <c r="G6">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>11.3</v>
+        <v>14</v>
       </c>
       <c r="I6">
+        <v>10.1</v>
+      </c>
+      <c r="J6">
         <v>5.7</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>80.5</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
+        <v>4.9</v>
+      </c>
+      <c r="E7">
+        <v>14.1</v>
+      </c>
+      <c r="F7">
+        <v>16.5</v>
+      </c>
+      <c r="G7">
+        <v>19.9</v>
+      </c>
+      <c r="H7">
+        <v>17.4</v>
+      </c>
+      <c r="I7">
+        <v>14.5</v>
+      </c>
+      <c r="J7">
         <v>7.6</v>
       </c>
-      <c r="E7">
-        <v>12.2</v>
-      </c>
-      <c r="F7">
-        <v>16.3</v>
-      </c>
-      <c r="G7">
-        <v>20.4</v>
-      </c>
-      <c r="H7">
-        <v>18.4</v>
-      </c>
-      <c r="I7">
-        <v>13.7</v>
-      </c>
-      <c r="J7">
-        <v>4.8</v>
-      </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>61.8</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="D8">
-        <v>7.8</v>
+        <v>3.3</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="F8">
-        <v>16.1</v>
+        <v>10.7</v>
       </c>
       <c r="G8">
-        <v>18.8</v>
+        <v>16.4</v>
       </c>
       <c r="H8">
-        <v>23.3</v>
+        <v>19.4</v>
       </c>
       <c r="I8">
-        <v>14.9</v>
+        <v>18.3</v>
       </c>
       <c r="J8">
-        <v>5.1</v>
+        <v>15.2</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8">
-        <v>55.7</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1750,37 +1759,37 @@
         <v>5</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0.3</v>
       </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="F9">
-        <v>7.2</v>
+        <v>10.4</v>
       </c>
       <c r="G9">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="H9">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="I9">
-        <v>35.6</v>
+        <v>19.3</v>
       </c>
       <c r="J9">
-        <v>16.1</v>
+        <v>18.7</v>
       </c>
       <c r="K9">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1791,34 +1800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>6.5</v>
+        <v>11.2</v>
       </c>
       <c r="I10">
-        <v>14.6</v>
+        <v>17.7</v>
       </c>
       <c r="J10">
-        <v>38.1</v>
+        <v>26.1</v>
       </c>
       <c r="K10">
-        <v>36.2</v>
+        <v>31.2</v>
       </c>
       <c r="L10">
-        <v>4.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1829,34 +1838,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11">
+        <v>16.2</v>
+      </c>
+      <c r="J11">
+        <v>25.2</v>
+      </c>
+      <c r="K11">
+        <v>40.7</v>
+      </c>
+      <c r="L11">
         <v>8.699999999999999</v>
-      </c>
-      <c r="J11">
-        <v>31.4</v>
-      </c>
-      <c r="K11">
-        <v>53.6</v>
-      </c>
-      <c r="L11">
-        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -1866,260 +1875,293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>87.5</v>
       </c>
       <c r="D2">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="G2">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>34.5</v>
+      </c>
+      <c r="C3">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E3">
+        <v>89.3</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>97.7</v>
+      </c>
+      <c r="H3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>34.9</v>
-      </c>
-      <c r="D3">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="E3">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="F3">
-        <v>94.8</v>
-      </c>
-      <c r="G3">
-        <v>95.89999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B4">
-        <v>32.7</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>87.8</v>
+        <v>36.9</v>
       </c>
       <c r="D4">
-        <v>96.2</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F4">
-        <v>96.7</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G4">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="C5">
+        <v>62.5</v>
+      </c>
+      <c r="D5">
+        <v>45.7</v>
+      </c>
+      <c r="E5">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>53.2</v>
+      </c>
+      <c r="G5">
+        <v>90.3</v>
+      </c>
+      <c r="H5">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="D5">
-        <v>87.5</v>
-      </c>
-      <c r="E5">
-        <v>68.89999999999999</v>
-      </c>
-      <c r="F5">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="G5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="C6">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D6">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="E6">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="F6">
+        <v>82.5</v>
+      </c>
+      <c r="G6">
+        <v>62.7</v>
+      </c>
+      <c r="H6">
+        <v>69.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="C6">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="D6">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="E6">
-        <v>58.09999999999999</v>
-      </c>
-      <c r="F6">
+      <c r="B7">
+        <v>93.7</v>
+      </c>
+      <c r="C7">
+        <v>91.5</v>
+      </c>
+      <c r="D7">
+        <v>92.5</v>
+      </c>
+      <c r="E7">
+        <v>60.6</v>
+      </c>
+      <c r="F7">
         <v>80.2</v>
       </c>
-      <c r="G6">
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="G7">
+        <v>63.3</v>
+      </c>
+      <c r="H7">
+        <v>57.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="D7">
-        <v>79.2</v>
-      </c>
-      <c r="E7">
-        <v>68.60000000000001</v>
-      </c>
-      <c r="F7">
-        <v>62.5</v>
-      </c>
-      <c r="G7">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B8">
-        <v>95.09999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C8">
-        <v>64.5</v>
+        <v>75.8</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>79.3</v>
       </c>
       <c r="E8">
-        <v>75.3</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>53.8</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G8">
-        <v>56.39999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>45.1</v>
+      </c>
+      <c r="H8">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>66.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>6.3</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E9">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="F9">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="G9">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>30.1</v>
+      </c>
+      <c r="H9">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>7.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="G10">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>10.4</v>
+      </c>
+      <c r="H10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>60.3</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="C11">
-        <v>72.89999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D11">
-        <v>16.3</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>6.7</v>
+      </c>
+      <c r="H11">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -2137,28 +2179,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2166,181 +2208,181 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>127.244</v>
+        <v>127.6766666666667</v>
       </c>
       <c r="E2">
-        <v>636.22</v>
+        <v>766.0600000000001</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>124.856</v>
+        <v>134.0633333333334</v>
       </c>
       <c r="E3">
-        <v>624.28</v>
+        <v>804.38</v>
       </c>
       <c r="F3">
-        <v>95.19999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>137.812</v>
+        <v>122.76</v>
       </c>
       <c r="E4">
-        <v>689.0600000000001</v>
+        <v>736.5599999999999</v>
       </c>
       <c r="F4">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>124.06</v>
+        <v>119.28</v>
       </c>
       <c r="E5">
-        <v>620.3</v>
+        <v>715.6800000000001</v>
       </c>
       <c r="F5">
-        <v>82.59999999999999</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>126.656</v>
+        <v>115.5833333333333</v>
       </c>
       <c r="E6">
-        <v>633.28</v>
+        <v>693.5</v>
       </c>
       <c r="F6">
-        <v>80.5</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>122.032</v>
+        <v>121.8033333333333</v>
       </c>
       <c r="E7">
-        <v>610.16</v>
+        <v>730.8200000000001</v>
       </c>
       <c r="F7">
-        <v>61.8</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>112.488</v>
+        <v>116.4533333333333</v>
       </c>
       <c r="E8">
-        <v>562.4400000000001</v>
+        <v>698.72</v>
       </c>
       <c r="F8">
-        <v>55.7</v>
+        <v>38.9</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2348,25 +2390,25 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D9">
-        <v>115.124</v>
+        <v>117.3933333333333</v>
       </c>
       <c r="E9">
-        <v>575.62</v>
+        <v>704.36</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>30.6</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2374,25 +2416,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>102.084</v>
+        <v>101.9266666666667</v>
       </c>
       <c r="E10">
-        <v>510.4200000000001</v>
+        <v>611.5600000000001</v>
       </c>
       <c r="F10">
-        <v>4.6</v>
+        <v>13.8</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2400,25 +2442,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>100.172</v>
+        <v>100.7233333333333</v>
       </c>
       <c r="E11">
-        <v>500.86</v>
+        <v>604.34</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2436,19 +2478,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2459,16 +2501,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2476,19 +2518,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2496,19 +2538,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2519,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2528,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2536,19 +2578,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2559,16 +2601,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2579,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2599,16 +2641,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2619,16 +2661,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2639,16 +2681,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2658,33 +2700,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2703,57 +2748,66 @@
       <c r="F2">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2772,34 +2826,40 @@
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2818,11 +2878,14 @@
       <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2841,11 +2904,14 @@
       <c r="F8">
         <v>-6</v>
       </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2864,11 +2930,14 @@
       <c r="F9">
         <v>-10</v>
       </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2887,11 +2956,14 @@
       <c r="F10">
         <v>-11</v>
       </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2910,8 +2982,11 @@
       <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G11" t="s">
-        <v>81</v>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2996,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,25 +3004,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2955,22 +3030,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -3007,25 +3082,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3033,25 +3108,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3059,25 +3134,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
       <c r="E6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3085,25 +3160,103 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>-10</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>-11</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>-12</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="103">
-  <si>
-    <t>Kevin Nichols</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="106">
+  <si>
+    <t>Matthew Dorchak</t>
   </si>
   <si>
     <t>Leafy Water</t>
@@ -54,25 +54,34 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>4-2-1</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>2-4-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -147,6 +156,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -168,49 +180,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.9-3.0-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.1-5.9-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.0</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>4.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.4-0.1</t>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>11.3-2.7-0.1</t>
+  </si>
+  <si>
+    <t>9.1-4.9-0.1</t>
+  </si>
+  <si>
+    <t>8.1-4.9-1.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>5.7-7.2-1.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>4.4-9.5-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>11-3</t>
@@ -219,16 +231,16 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-5-1</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-7-1</t>
   </si>
   <si>
     <t>4-10</t>
@@ -258,42 +270,36 @@
     <t>Dan Davis</t>
   </si>
   <si>
-    <t>Matthew Dorchak</t>
+    <t>Josh Cai</t>
   </si>
   <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
     <t>Elle Patterson</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -784,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -804,31 +813,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -839,31 +848,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -883,22 +892,22 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -909,31 +918,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -941,34 +950,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -988,22 +997,22 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1023,22 +1032,22 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1058,22 +1067,22 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1100,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1108,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1122,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1133,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1147,13 +1156,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1161,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1175,10 +1184,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1189,13 +1198,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1203,13 +1212,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>3.6</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1217,13 +1226,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1234,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1255,16 +1264,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1275,10 +1284,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1292,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="D3">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1306,16 +1315,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1323,16 +1332,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>3.4</v>
-      </c>
       <c r="D5">
-        <v>-0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1343,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1360,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1374,16 +1383,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1391,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1408,16 +1417,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D10">
-        <v>-0.3999999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1425,16 +1434,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1452,40 +1461,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1493,22 +1502,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68.8</v>
+        <v>77.8</v>
       </c>
       <c r="C2">
-        <v>22.3</v>
+        <v>17.1</v>
       </c>
       <c r="D2">
-        <v>6.3</v>
+        <v>3.6</v>
       </c>
       <c r="E2">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1531,37 +1540,37 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>19.7</v>
+        <v>14.9</v>
       </c>
       <c r="C3">
-        <v>35.4</v>
+        <v>38.2</v>
       </c>
       <c r="D3">
-        <v>20.9</v>
+        <v>26.1</v>
       </c>
       <c r="E3">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>97.3</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1569,37 +1578,37 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="C4">
-        <v>20.2</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="E4">
-        <v>21.9</v>
+        <v>19.5</v>
       </c>
       <c r="F4">
-        <v>12.4</v>
+        <v>8.5</v>
       </c>
       <c r="G4">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1607,75 +1616,75 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="C5">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="D5">
-        <v>23.8</v>
+        <v>18.7</v>
       </c>
       <c r="E5">
-        <v>21.9</v>
+        <v>26.5</v>
       </c>
       <c r="F5">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="G5">
-        <v>9.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H5">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
         <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>90.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>10.9</v>
+        <v>8.4</v>
       </c>
       <c r="E6">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>20.1</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="I6">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="J6">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>67.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1683,75 +1692,75 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
       <c r="E7">
-        <v>14.1</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>19.9</v>
+        <v>17.8</v>
       </c>
       <c r="H7">
-        <v>17.4</v>
+        <v>19.1</v>
       </c>
       <c r="I7">
-        <v>14.5</v>
+        <v>13.2</v>
       </c>
       <c r="J7">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="L7">
-        <v>57.5</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="E8">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="H8">
-        <v>19.4</v>
+        <v>16.8</v>
       </c>
       <c r="I8">
-        <v>18.3</v>
+        <v>19.5</v>
       </c>
       <c r="J8">
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="L8">
-        <v>38.9</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1762,34 +1771,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="G9">
-        <v>13.5</v>
+        <v>18.9</v>
       </c>
       <c r="H9">
-        <v>17.9</v>
+        <v>20.6</v>
       </c>
       <c r="I9">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="J9">
-        <v>18.7</v>
+        <v>14.5</v>
       </c>
       <c r="K9">
-        <v>13.5</v>
+        <v>5.7</v>
       </c>
       <c r="L9">
-        <v>30.6</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1800,34 +1809,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G10">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H10">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="J10">
-        <v>26.1</v>
+        <v>29.8</v>
       </c>
       <c r="K10">
-        <v>31.2</v>
+        <v>35.5</v>
       </c>
       <c r="L10">
-        <v>13.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1838,34 +1847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>9.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I11">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>25.2</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>40.7</v>
+        <v>43.2</v>
       </c>
       <c r="L11">
-        <v>8.699999999999999</v>
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -1875,293 +1884,326 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76.5</v>
+        <v>75.2</v>
       </c>
       <c r="C2">
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>96.8</v>
       </c>
       <c r="E2">
         <v>98.09999999999999</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
+        <v>99.7</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>86.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D3">
-        <v>94.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E3">
-        <v>89.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="G3">
-        <v>97.7</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="H3">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>50.7</v>
       </c>
       <c r="C4">
-        <v>36.9</v>
+        <v>34.3</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="E4">
-        <v>85.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="F4">
-        <v>96.39999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="G4">
-        <v>93.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="H4">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>95.19999999999999</v>
+      </c>
+      <c r="I4">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>93.89999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="C5">
-        <v>62.5</v>
+        <v>62.8</v>
       </c>
       <c r="D5">
-        <v>45.7</v>
+        <v>43.6</v>
       </c>
       <c r="E5">
-        <v>73.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="F5">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="G5">
-        <v>90.3</v>
+        <v>89</v>
       </c>
       <c r="H5">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>10.1</v>
       </c>
       <c r="C6">
-        <v>82.09999999999999</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="D6">
-        <v>87.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>68.30000000000001</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="F6">
-        <v>82.5</v>
+        <v>58.4</v>
       </c>
       <c r="G6">
-        <v>62.7</v>
+        <v>45.8</v>
       </c>
       <c r="H6">
-        <v>69.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>62.4</v>
+      </c>
+      <c r="I6">
+        <v>65.60000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="C7">
-        <v>91.5</v>
+        <v>92.5</v>
       </c>
       <c r="D7">
-        <v>92.5</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E7">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="F7">
-        <v>80.2</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="G7">
-        <v>63.3</v>
+        <v>63.8</v>
       </c>
       <c r="H7">
-        <v>57.59999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>58.2</v>
+      </c>
+      <c r="I7">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>9.1</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>75.8</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="D8">
-        <v>79.3</v>
+        <v>87</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>60.09999999999999</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G8">
-        <v>45.1</v>
+        <v>64.7</v>
       </c>
       <c r="H8">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39.1</v>
+      </c>
+      <c r="I8">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>69.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D9">
-        <v>4.100000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="E9">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="F9">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
       <c r="G9">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="H9">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>7.399999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="F10">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="G10">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>58.59999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="C11">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16.6</v>
       </c>
       <c r="E11">
-        <v>6.2</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -2179,28 +2221,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2208,25 +2250,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>127.6766666666667</v>
+        <v>130.3257142857143</v>
       </c>
       <c r="E2">
-        <v>766.0600000000001</v>
+        <v>912.2800000000001</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2234,25 +2276,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>134.0633333333334</v>
+        <v>133.8171428571429</v>
       </c>
       <c r="E3">
-        <v>804.38</v>
+        <v>936.7200000000001</v>
       </c>
       <c r="F3">
-        <v>97.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2260,25 +2302,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D4">
-        <v>122.76</v>
+        <v>125.9571428571428</v>
       </c>
       <c r="E4">
-        <v>736.5599999999999</v>
+        <v>881.6999999999999</v>
       </c>
       <c r="F4">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2286,51 +2328,51 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>119.28</v>
+        <v>121.92</v>
       </c>
       <c r="E5">
-        <v>715.6800000000001</v>
+        <v>853.4400000000001</v>
       </c>
       <c r="F5">
-        <v>90.60000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6">
-        <v>115.5833333333333</v>
+        <v>121.8257142857143</v>
       </c>
       <c r="E6">
-        <v>693.5</v>
+        <v>852.78</v>
       </c>
       <c r="F6">
-        <v>67.10000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2338,51 +2380,51 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D7">
-        <v>121.8033333333333</v>
+        <v>125.1371428571428</v>
       </c>
       <c r="E7">
-        <v>730.8200000000001</v>
+        <v>875.9599999999999</v>
       </c>
       <c r="F7">
-        <v>57.49999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>116.4533333333333</v>
+        <v>104.9171428571428</v>
       </c>
       <c r="E8">
-        <v>698.72</v>
+        <v>734.42</v>
       </c>
       <c r="F8">
-        <v>38.9</v>
+        <v>42.2</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2390,25 +2432,25 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>117.3933333333333</v>
+        <v>118.3428571428571</v>
       </c>
       <c r="E9">
-        <v>704.36</v>
+        <v>828.4</v>
       </c>
       <c r="F9">
-        <v>30.6</v>
+        <v>40.2</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2416,25 +2458,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>101.9266666666667</v>
+        <v>103.1914285714286</v>
       </c>
       <c r="E10">
-        <v>611.5600000000001</v>
+        <v>722.34</v>
       </c>
       <c r="F10">
-        <v>13.8</v>
+        <v>6.4</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2442,25 +2484,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>100.7233333333333</v>
+        <v>102.1342857142857</v>
       </c>
       <c r="E11">
-        <v>604.34</v>
+        <v>714.9400000000001</v>
       </c>
       <c r="F11">
-        <v>8.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2478,19 +2520,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2501,16 +2543,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2518,19 +2560,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2538,19 +2580,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2561,16 +2603,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2581,16 +2623,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2601,16 +2643,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2621,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2638,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2658,19 +2700,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2681,16 +2723,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2700,36 +2742,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2751,63 +2796,72 @@
       <c r="G2">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2829,11 +2883,14 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2855,11 +2912,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2881,11 +2941,14 @@
       <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,63 +2970,72 @@
       <c r="G8">
         <v>-12</v>
       </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>-11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G9">
         <v>-13</v>
       </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
       <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
         <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
       </c>
       <c r="G10">
         <v>-13</v>
       </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3057,11 @@
       <c r="G11">
         <v>-20</v>
       </c>
-      <c r="H11" t="s">
-        <v>88</v>
+      <c r="H11">
+        <v>-26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3004,25 +3079,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3108,25 +3183,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3134,25 +3209,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
       <c r="F6">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3160,25 +3235,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3186,22 +3261,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -3212,25 +3287,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3238,25 +3313,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>-12</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
-      <c r="G10">
+      <c r="H10" t="s">
         <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -174,6 +174,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -195,37 +198,37 @@
     <t>2-5</t>
   </si>
   <si>
-    <t>11.3-2.7-0.1</t>
-  </si>
-  <si>
-    <t>9.1-4.9-0.1</t>
-  </si>
-  <si>
-    <t>8.1-4.9-1.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.7-7.2-1.1</t>
+    <t>11.3-2.6-0.1</t>
+  </si>
+  <si>
+    <t>9.0-4.9</t>
+  </si>
+  <si>
+    <t>8.1-4.8-1.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>6.3-7.6</t>
+  </si>
+  <si>
+    <t>5.8-7.1-1.1</t>
   </si>
   <si>
     <t>6.0-7.9</t>
   </si>
   <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>4.4-9.5-0.1</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.4-0.1</t>
+  </si>
+  <si>
+    <t>4.2-9.7-0.1</t>
+  </si>
+  <si>
+    <t>12-2</t>
   </si>
   <si>
     <t>9-5</t>
@@ -1502,22 +1505,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.8</v>
+        <v>79.7</v>
       </c>
       <c r="C2">
-        <v>17.1</v>
+        <v>15.8</v>
       </c>
       <c r="D2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1540,25 +1543,25 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>14.9</v>
+        <v>13.5</v>
       </c>
       <c r="C3">
-        <v>38.2</v>
+        <v>36.7</v>
       </c>
       <c r="D3">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="E3">
-        <v>11.3</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H3">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -1570,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1578,37 +1581,37 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>30.8</v>
       </c>
       <c r="D4">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="E4">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="F4">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="G4">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="I4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1616,37 +1619,37 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C5">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="D5">
-        <v>18.7</v>
+        <v>19.9</v>
       </c>
       <c r="E5">
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="F5">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="G5">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0.3</v>
       </c>
       <c r="L5">
-        <v>89.09999999999999</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1654,37 +1657,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D6">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="E6">
-        <v>14.6</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="G6">
-        <v>20.1</v>
+        <v>22.7</v>
       </c>
       <c r="H6">
-        <v>15.6</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>12.2</v>
+        <v>10.5</v>
       </c>
       <c r="J6">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>65.40000000000001</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1692,37 +1695,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>19.1</v>
       </c>
       <c r="G7">
-        <v>17.8</v>
+        <v>16.3</v>
       </c>
       <c r="H7">
-        <v>19.1</v>
+        <v>16.7</v>
       </c>
       <c r="I7">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="K7">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>55.3</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1730,37 +1733,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="E8">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="H8">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="I8">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L8">
-        <v>42.2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1774,31 +1777,31 @@
         <v>0.4</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="E9">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="F9">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="G9">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="H9">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="I9">
-        <v>19</v>
+        <v>22.2</v>
       </c>
       <c r="J9">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="K9">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L9">
-        <v>40.2</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1812,31 +1815,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G10">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="I10">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="J10">
-        <v>29.8</v>
+        <v>28.1</v>
       </c>
       <c r="K10">
-        <v>35.5</v>
+        <v>34.1</v>
       </c>
       <c r="L10">
-        <v>6.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1850,31 +1853,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.7</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I11">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="J11">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="K11">
-        <v>43.2</v>
+        <v>45.3</v>
       </c>
       <c r="L11">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1921,22 +1924,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C2">
-        <v>86.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D2">
-        <v>96.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E2">
-        <v>98.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1950,28 +1953,28 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="C3">
-        <v>87.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="D3">
-        <v>96.3</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="E3">
-        <v>91.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="F3">
-        <v>96.3</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="G3">
-        <v>97.89999999999999</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I3">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1979,28 +1982,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50.7</v>
+        <v>51.4</v>
       </c>
       <c r="C4">
-        <v>34.3</v>
+        <v>34.7</v>
       </c>
       <c r="D4">
-        <v>82.39999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E4">
-        <v>87.5</v>
+        <v>85.3</v>
       </c>
       <c r="F4">
-        <v>95.3</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G4">
-        <v>92.30000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="H4">
-        <v>95.19999999999999</v>
+        <v>96</v>
       </c>
       <c r="I4">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2008,28 +2011,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>95.39999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C5">
-        <v>62.8</v>
+        <v>63.8</v>
       </c>
       <c r="D5">
-        <v>43.6</v>
+        <v>42.3</v>
       </c>
       <c r="E5">
-        <v>74.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F5">
-        <v>53.7</v>
+        <v>51.8</v>
       </c>
       <c r="G5">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I5">
-        <v>91.40000000000001</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2037,28 +2040,28 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="C6">
-        <v>77.10000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>79.2</v>
       </c>
       <c r="E6">
-        <v>68.10000000000001</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>58.4</v>
+        <v>60.7</v>
       </c>
       <c r="G6">
-        <v>45.8</v>
+        <v>46.1</v>
       </c>
       <c r="H6">
-        <v>62.4</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I6">
-        <v>65.60000000000001</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2066,28 +2069,28 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>92.30000000000001</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="C7">
-        <v>92.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D7">
-        <v>92.60000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="E7">
-        <v>59.4</v>
+        <v>63.8</v>
       </c>
       <c r="F7">
-        <v>81.39999999999999</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>63.8</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>58.2</v>
       </c>
       <c r="I7">
-        <v>55.2</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2098,25 +2101,25 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>81.69999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D8">
-        <v>87</v>
+        <v>88.3</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F8">
-        <v>83.39999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="G8">
-        <v>64.7</v>
+        <v>64.8</v>
       </c>
       <c r="H8">
-        <v>39.1</v>
+        <v>40.7</v>
       </c>
       <c r="I8">
-        <v>41.6</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2124,28 +2127,28 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="C9">
-        <v>5.600000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="D9">
-        <v>4.399999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="E9">
-        <v>40.6</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="F9">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="G9">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>41.3</v>
       </c>
       <c r="I9">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2153,28 +2156,28 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>16.3</v>
+        <v>13.6</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D10">
         <v>0.3</v>
       </c>
       <c r="E10">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>11.2</v>
+        <v>9</v>
       </c>
       <c r="H10">
+        <v>7.6</v>
+      </c>
+      <c r="I10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2182,28 +2185,28 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>63.5</v>
+        <v>61.1</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D11">
-        <v>16.6</v>
+        <v>15.3</v>
       </c>
       <c r="E11">
-        <v>7.000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G11">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -2213,13 +2216,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,13 +2247,16 @@
       <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2264,19 +2270,22 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -2288,16 +2297,19 @@
         <v>936.7200000000001</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
+        <v>98.7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2314,21 +2326,24 @@
         <v>881.6999999999999</v>
       </c>
       <c r="F4">
-        <v>96.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
+        <v>96.3</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -2340,21 +2355,24 @@
         <v>853.4400000000001</v>
       </c>
       <c r="F5">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
+        <v>89.60000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>0.4285714285714285</v>
@@ -2366,16 +2384,19 @@
         <v>852.78</v>
       </c>
       <c r="F6">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
+        <v>63.4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2392,21 +2413,24 @@
         <v>875.9599999999999</v>
       </c>
       <c r="F7">
-        <v>55.3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
+        <v>58.09999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.6</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2418,21 +2442,24 @@
         <v>734.42</v>
       </c>
       <c r="F8">
-        <v>42.2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>8.699999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0.2857142857142857</v>
@@ -2444,21 +2471,24 @@
         <v>828.4</v>
       </c>
       <c r="F9">
-        <v>40.2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
+        <v>36.3</v>
+      </c>
+      <c r="G9">
+        <v>5.800000000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -2470,21 +2500,24 @@
         <v>722.34</v>
       </c>
       <c r="F10">
-        <v>6.4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
+        <v>10.2</v>
+      </c>
+      <c r="G10">
+        <v>34.1</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2496,13 +2529,16 @@
         <v>714.9400000000001</v>
       </c>
       <c r="F11">
-        <v>6.3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
+        <v>5.4</v>
+      </c>
+      <c r="G11">
+        <v>45.3</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2523,16 +2559,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2543,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2552,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2572,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2583,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -2592,7 +2628,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2603,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -2612,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2623,7 +2659,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2632,7 +2668,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2643,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2652,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2672,7 +2708,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2683,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>-14</v>
@@ -2692,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2703,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>-19</v>
@@ -2712,7 +2748,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2723,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>-26</v>
@@ -2732,7 +2768,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2750,28 +2786,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2800,7 +2836,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2829,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2858,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2887,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2916,7 +2952,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2945,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2974,7 +3010,7 @@
         <v>-11</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3003,7 +3039,7 @@
         <v>-14</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3032,7 +3068,7 @@
         <v>-19</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3061,7 +3097,7 @@
         <v>-26</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3079,25 +3115,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="107">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -54,34 +54,37 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>4-2-1</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>2-4-1</t>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>5-2-1</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>4-3-1</t>
+  </si>
+  <si>
+    <t>2-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +162,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -183,70 +189,64 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>11.3-2.6-0.1</t>
-  </si>
-  <si>
-    <t>9.0-4.9</t>
-  </si>
-  <si>
-    <t>8.1-4.8-1.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>6.3-7.6</t>
-  </si>
-  <si>
-    <t>5.8-7.1-1.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.4-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7-0.1</t>
-  </si>
-  <si>
-    <t>12-2</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>8-5-1</t>
-  </si>
-  <si>
-    <t>8-6</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>10.3-3.7-0.1</t>
+  </si>
+  <si>
+    <t>9.6-4.3</t>
+  </si>
+  <si>
+    <t>8.3-4.7-1.0</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>5.2-7.7-1.0</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-8-1</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
-    <t>4-10</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>Owners</t>
@@ -261,15 +261,15 @@
     <t>Steve Heidengren</t>
   </si>
   <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
     <t>Matt Galvin</t>
   </si>
   <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
     <t>Dan Davis</t>
   </si>
   <si>
@@ -282,25 +282,22 @@
     <t>Elle Patterson</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -746,31 +746,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -778,34 +778,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -816,31 +816,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -851,31 +851,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -883,16 +883,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -918,34 +918,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -959,22 +959,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -988,31 +988,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1023,34 +1023,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1058,34 +1058,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1103,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1117,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1131,13 +1131,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1162,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1187,13 +1187,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1243,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1267,16 +1267,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1287,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="D2">
-        <v>0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1304,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1335,16 +1335,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1352,16 +1352,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1369,16 +1369,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D7">
-        <v>1.4</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1386,16 +1386,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1406,13 +1406,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1420,16 +1420,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
-        <v>-0.2</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1437,16 +1437,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>-0.3</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1464,40 +1464,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1505,22 +1505,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>79.7</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>15.8</v>
+        <v>33.6</v>
       </c>
       <c r="D2">
-        <v>3.3</v>
+        <v>14.3</v>
       </c>
       <c r="E2">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1543,37 +1543,37 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13.5</v>
+        <v>39.6</v>
       </c>
       <c r="C3">
-        <v>36.7</v>
+        <v>33.6</v>
       </c>
       <c r="D3">
-        <v>25.6</v>
+        <v>18.3</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="G3">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1581,113 +1581,113 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.9</v>
+        <v>11.1</v>
       </c>
       <c r="C4">
-        <v>30.8</v>
+        <v>24.5</v>
       </c>
       <c r="D4">
-        <v>31.2</v>
+        <v>38.7</v>
       </c>
       <c r="E4">
-        <v>17.5</v>
+        <v>15.1</v>
       </c>
       <c r="F4">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>96.3</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>13.2</v>
+      </c>
+      <c r="E5">
+        <v>27.9</v>
+      </c>
+      <c r="F5">
+        <v>21.3</v>
+      </c>
+      <c r="G5">
+        <v>12.3</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+      <c r="I5">
+        <v>6.7</v>
+      </c>
+      <c r="J5">
+        <v>3.6</v>
+      </c>
+      <c r="K5">
         <v>1.2</v>
       </c>
-      <c r="C5">
-        <v>10.8</v>
-      </c>
-      <c r="D5">
-        <v>19.9</v>
-      </c>
-      <c r="E5">
-        <v>27.5</v>
-      </c>
-      <c r="F5">
-        <v>18.8</v>
-      </c>
-      <c r="G5">
-        <v>11.4</v>
-      </c>
-      <c r="H5">
-        <v>5.7</v>
-      </c>
-      <c r="I5">
-        <v>3.4</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.3</v>
-      </c>
       <c r="L5">
-        <v>89.59999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>18.8</v>
       </c>
       <c r="F6">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
       <c r="G6">
-        <v>22.7</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>14.4</v>
       </c>
       <c r="I6">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>63.4</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1695,113 +1695,113 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="E7">
-        <v>11.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F7">
-        <v>19.1</v>
+        <v>12.9</v>
       </c>
       <c r="G7">
-        <v>16.3</v>
+        <v>14.9</v>
       </c>
       <c r="H7">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="I7">
-        <v>14.2</v>
+        <v>16.9</v>
       </c>
       <c r="J7">
-        <v>7.4</v>
+        <v>13.8</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>12.7</v>
       </c>
       <c r="L7">
-        <v>58.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="G8">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="H8">
-        <v>17.4</v>
+        <v>15.4</v>
       </c>
       <c r="I8">
         <v>17.9</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="K8">
-        <v>8.699999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="E9">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="F9">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="G9">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="H9">
-        <v>22.1</v>
+        <v>15.6</v>
       </c>
       <c r="I9">
-        <v>22.2</v>
+        <v>13.9</v>
       </c>
       <c r="J9">
-        <v>13.6</v>
+        <v>17.1</v>
       </c>
       <c r="K9">
-        <v>5.8</v>
+        <v>17.9</v>
       </c>
       <c r="L9">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1812,39 +1812,39 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="F10">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>5.9</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>10.7</v>
+        <v>14.1</v>
       </c>
       <c r="I10">
-        <v>16.9</v>
+        <v>19.2</v>
       </c>
       <c r="J10">
-        <v>28.1</v>
+        <v>22.6</v>
       </c>
       <c r="K10">
-        <v>34.1</v>
+        <v>21.2</v>
       </c>
       <c r="L10">
-        <v>10.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1853,31 +1853,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>9.9</v>
       </c>
       <c r="H11">
-        <v>7.2</v>
+        <v>13.3</v>
       </c>
       <c r="I11">
-        <v>13.7</v>
+        <v>16.8</v>
       </c>
       <c r="J11">
-        <v>28.4</v>
+        <v>21.5</v>
       </c>
       <c r="K11">
-        <v>45.3</v>
+        <v>29.9</v>
       </c>
       <c r="L11">
-        <v>5.4</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -1887,326 +1887,359 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="D2">
-        <v>98.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="E2">
-        <v>97.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
+        <v>99.8</v>
+      </c>
+      <c r="J2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>31.3</v>
+        <v>33.3</v>
       </c>
       <c r="C3">
-        <v>86.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D3">
-        <v>95.39999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E3">
-        <v>89.60000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="F3">
-        <v>95.89999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="H3">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>51.4</v>
+        <v>47.8</v>
       </c>
       <c r="C4">
-        <v>34.7</v>
+        <v>35.6</v>
       </c>
       <c r="D4">
-        <v>85.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="E4">
-        <v>85.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F4">
-        <v>93.60000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="G4">
-        <v>92.60000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="I4">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>13.8</v>
+      </c>
+      <c r="C5">
+        <v>76.8</v>
+      </c>
+      <c r="D5">
+        <v>79.2</v>
+      </c>
+      <c r="E5">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>60.7</v>
+      </c>
+      <c r="G5">
+        <v>42.6</v>
+      </c>
+      <c r="H5">
+        <v>63.4</v>
+      </c>
+      <c r="I5">
+        <v>80.5</v>
+      </c>
+      <c r="J5">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>95.5</v>
       </c>
-      <c r="C5">
-        <v>63.8</v>
-      </c>
-      <c r="D5">
-        <v>42.3</v>
-      </c>
-      <c r="E5">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="F5">
-        <v>51.8</v>
-      </c>
-      <c r="G5">
+      <c r="C6">
+        <v>64.8</v>
+      </c>
+      <c r="D6">
+        <v>44.6</v>
+      </c>
+      <c r="E6">
+        <v>71.5</v>
+      </c>
+      <c r="F6">
+        <v>49.6</v>
+      </c>
+      <c r="G6">
+        <v>87.5</v>
+      </c>
+      <c r="H6">
         <v>89.09999999999999</v>
       </c>
-      <c r="H5">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="I5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>12.1</v>
-      </c>
-      <c r="C6">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="D6">
-        <v>79.2</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>60.7</v>
-      </c>
-      <c r="G6">
-        <v>46.1</v>
-      </c>
-      <c r="H6">
-        <v>64.09999999999999</v>
-      </c>
       <c r="I6">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>68.60000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.89999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="C7">
-        <v>91.40000000000001</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D7">
-        <v>91.5</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="E7">
-        <v>63.8</v>
+        <v>62.3</v>
       </c>
       <c r="F7">
-        <v>82</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>63.1</v>
       </c>
       <c r="H7">
-        <v>58.2</v>
+        <v>55.1</v>
       </c>
       <c r="I7">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>61.2</v>
+      </c>
+      <c r="C8">
+        <v>68.8</v>
+      </c>
+      <c r="D8">
+        <v>16.6</v>
+      </c>
+      <c r="E8">
+        <v>7.3</v>
+      </c>
+      <c r="F8">
+        <v>2.8</v>
+      </c>
+      <c r="G8">
+        <v>8.1</v>
+      </c>
+      <c r="H8">
+        <v>5.1</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>83.7</v>
-      </c>
-      <c r="D8">
-        <v>88.3</v>
-      </c>
-      <c r="E8">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="F8">
-        <v>82.8</v>
-      </c>
-      <c r="G8">
-        <v>64.8</v>
-      </c>
-      <c r="H8">
-        <v>40.7</v>
-      </c>
-      <c r="I8">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>67.5</v>
-      </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="D9">
-        <v>4.5</v>
+        <v>87.3</v>
       </c>
       <c r="E9">
-        <v>39.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F9">
-        <v>26.4</v>
+        <v>84.7</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>66.8</v>
       </c>
       <c r="H9">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="I9">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35.4</v>
+      </c>
+      <c r="J9">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="C10">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
         <v>6.2</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>11.3</v>
       </c>
       <c r="H10">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="I10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24.1</v>
+      </c>
+      <c r="J10">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>61.1</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>71.09999999999999</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>15.3</v>
+        <v>3.4</v>
       </c>
       <c r="E11">
-        <v>6.1</v>
+        <v>39.3</v>
       </c>
       <c r="F11">
-        <v>2.9</v>
+        <v>24.7</v>
       </c>
       <c r="G11">
-        <v>7.6</v>
+        <v>29.6</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>43.6</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>18.6</v>
+      </c>
+      <c r="J11">
+        <v>17.8</v>
       </c>
     </row>
   </sheetData>
@@ -2224,31 +2257,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2256,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>130.3257142857143</v>
+        <v>127.2325</v>
       </c>
       <c r="E2">
-        <v>912.2800000000001</v>
+        <v>1017.86</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2274,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2285,25 +2318,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>133.8171428571429</v>
+        <v>135.11</v>
       </c>
       <c r="E3">
-        <v>936.7200000000001</v>
+        <v>1080.88</v>
       </c>
       <c r="F3">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>69</v>
@@ -2317,22 +2350,22 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6428571428571429</v>
+        <v>0.6875</v>
       </c>
       <c r="D4">
-        <v>125.9571428571428</v>
+        <v>123.8325</v>
       </c>
       <c r="E4">
-        <v>881.6999999999999</v>
+        <v>990.66</v>
       </c>
       <c r="F4">
-        <v>96.3</v>
+        <v>97.5</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
         <v>70</v>
@@ -2340,28 +2373,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>121.92</v>
+        <v>122.2075</v>
       </c>
       <c r="E5">
-        <v>853.4400000000001</v>
+        <v>977.66</v>
       </c>
       <c r="F5">
-        <v>89.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
         <v>71</v>
@@ -2369,31 +2402,31 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>121.8257142857143</v>
+        <v>114.9175</v>
       </c>
       <c r="E6">
-        <v>852.78</v>
+        <v>919.34</v>
       </c>
       <c r="F6">
-        <v>63.4</v>
+        <v>68.8</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2401,86 +2434,86 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.3571428571428572</v>
+        <v>0.3125</v>
       </c>
       <c r="D7">
-        <v>125.1371428571428</v>
+        <v>125.52</v>
       </c>
       <c r="E7">
-        <v>875.9599999999999</v>
+        <v>1004.16</v>
       </c>
       <c r="F7">
-        <v>58.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>12.7</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D8">
-        <v>104.9171428571428</v>
+        <v>110.56</v>
       </c>
       <c r="E8">
-        <v>734.42</v>
+        <v>884.48</v>
       </c>
       <c r="F8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>8.699999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>118.3428571428571</v>
+        <v>108.0175</v>
       </c>
       <c r="E9">
-        <v>828.4</v>
+        <v>864.14</v>
       </c>
       <c r="F9">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
       <c r="G9">
-        <v>5.800000000000001</v>
+        <v>17.9</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2488,25 +2521,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>103.1914285714286</v>
+        <v>106.89</v>
       </c>
       <c r="E10">
-        <v>722.34</v>
+        <v>855.12</v>
       </c>
       <c r="F10">
-        <v>10.2</v>
+        <v>22.9</v>
       </c>
       <c r="G10">
-        <v>34.1</v>
+        <v>21.2</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
         <v>74</v>
@@ -2514,28 +2547,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>102.1342857142857</v>
+        <v>115.115</v>
       </c>
       <c r="E11">
-        <v>714.9400000000001</v>
+        <v>920.92</v>
       </c>
       <c r="F11">
-        <v>5.4</v>
+        <v>18.5</v>
       </c>
       <c r="G11">
-        <v>45.3</v>
+        <v>29.9</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
         <v>74</v>
@@ -2556,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>75</v>
@@ -2565,7 +2598,7 @@
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>77</v>
@@ -2582,10 +2615,10 @@
         <v>78</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
@@ -2596,16 +2629,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -2616,19 +2649,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2642,13 +2675,13 @@
         <v>80</v>
       </c>
       <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2656,19 +2689,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2682,13 +2715,13 @@
         <v>82</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2696,19 +2729,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2716,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2736,19 +2769,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2762,13 +2795,13 @@
         <v>85</v>
       </c>
       <c r="D11">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2778,39 +2811,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2835,69 +2871,78 @@
       <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-5</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2922,40 +2967,46 @@
       <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
       <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2980,98 +3031,110 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>-13</v>
+      </c>
+      <c r="H8">
+        <v>-14</v>
+      </c>
+      <c r="I8">
+        <v>-10</v>
+      </c>
+      <c r="J8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
-      </c>
-      <c r="E8">
+      <c r="E9">
         <v>-6</v>
       </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-12</v>
-      </c>
-      <c r="H8">
-        <v>-11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
       </c>
       <c r="G9">
         <v>-13</v>
       </c>
       <c r="H9">
-        <v>-14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-19</v>
+      </c>
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E10">
         <v>-6</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="G10">
+        <v>-12</v>
+      </c>
+      <c r="H10">
+        <v>-11</v>
+      </c>
+      <c r="I10">
         <v>-13</v>
       </c>
-      <c r="H10">
-        <v>-19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3159,11 @@
       <c r="H11">
         <v>-26</v>
       </c>
-      <c r="I11" t="s">
-        <v>92</v>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3141,22 +3207,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -3167,25 +3233,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3193,22 +3259,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F4">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -3219,25 +3285,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
       <c r="F5">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3245,25 +3311,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3271,25 +3337,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-18</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3300,22 +3366,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3323,25 +3389,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
         <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3349,24 +3415,76 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
         <v>1</v>
       </c>
     </row>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="115">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -54,37 +54,37 @@
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
-    <t>5-2-1</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>4-3-1</t>
-  </si>
-  <si>
-    <t>2-5-1</t>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
+  <si>
+    <t>6-2-1</t>
+  </si>
+  <si>
+    <t>5-3-1</t>
+  </si>
+  <si>
+    <t>3-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,46 +192,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>10.3-3.7-0.1</t>
-  </si>
-  <si>
-    <t>9.6-4.3</t>
-  </si>
-  <si>
-    <t>8.3-4.7-1.0</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>5.2-7.7-1.0</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>10.7-3.2</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.6-4.4-1.0</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.5-7.5-1.0</t>
+  </si>
+  <si>
+    <t>5.3-8.6</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>10-4</t>
@@ -240,15 +249,18 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>5-8-1</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -261,13 +273,16 @@
     <t>Steve Heidengren</t>
   </si>
   <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
     <t>Andrew Steen</t>
   </si>
   <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
+    <t>Kevin  Nichols</t>
   </si>
   <si>
     <t>Dan Davis</t>
@@ -276,30 +291,36 @@
     <t>Josh Cai</t>
   </si>
   <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
     <t>Elle Patterson</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -746,16 +770,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -767,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -778,34 +802,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -813,34 +837,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -860,22 +884,22 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -883,34 +907,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -918,34 +942,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -965,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -977,10 +1001,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -988,34 +1012,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1023,28 +1047,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -1058,13 +1082,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1076,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1117,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1131,13 +1155,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1145,13 +1169,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1159,13 +1183,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1176,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1190,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1201,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1215,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1232,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1243,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1287,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999964</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1304,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D3">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1321,13 +1345,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1338,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1352,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1369,13 +1393,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1386,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1403,16 +1427,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1420,13 +1444,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1440,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1505,22 +1529,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>56.4</v>
       </c>
       <c r="C2">
-        <v>33.6</v>
+        <v>31.6</v>
       </c>
       <c r="D2">
-        <v>14.3</v>
+        <v>10.7</v>
       </c>
       <c r="E2">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1543,25 +1567,25 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>39.6</v>
+        <v>33.6</v>
       </c>
       <c r="C3">
-        <v>33.6</v>
+        <v>39.9</v>
       </c>
       <c r="D3">
-        <v>18.3</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1573,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1581,37 +1605,37 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>24.5</v>
+        <v>26.1</v>
       </c>
       <c r="D4">
-        <v>38.7</v>
+        <v>50.4</v>
       </c>
       <c r="E4">
-        <v>15.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F4">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>97.5</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1619,118 +1643,118 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4.5</v>
       </c>
-      <c r="D5">
-        <v>13.2</v>
-      </c>
       <c r="E5">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F5">
-        <v>21.3</v>
+        <v>22.9</v>
       </c>
       <c r="G5">
-        <v>12.3</v>
+        <v>18.6</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I5">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="J5">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="D6">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="E6">
-        <v>18.8</v>
+        <v>21.6</v>
       </c>
       <c r="F6">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="G6">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="H6">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>68.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="E7">
-        <v>9.199999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="F7">
-        <v>12.9</v>
+        <v>18.6</v>
       </c>
       <c r="G7">
-        <v>14.9</v>
+        <v>18.3</v>
       </c>
       <c r="H7">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>16.9</v>
+        <v>14.7</v>
       </c>
       <c r="J7">
-        <v>13.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7">
-        <v>12.7</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1739,31 +1763,31 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="E8">
-        <v>6.8</v>
+        <v>12.7</v>
       </c>
       <c r="F8">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="G8">
+        <v>18.9</v>
+      </c>
+      <c r="H8">
+        <v>18.7</v>
+      </c>
+      <c r="I8">
         <v>16.2</v>
       </c>
-      <c r="H8">
-        <v>15.4</v>
-      </c>
-      <c r="I8">
-        <v>17.9</v>
-      </c>
       <c r="J8">
-        <v>15.2</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1774,34 +1798,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="F9">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H9">
-        <v>15.6</v>
+        <v>18.1</v>
       </c>
       <c r="I9">
-        <v>13.9</v>
+        <v>17.2</v>
       </c>
       <c r="J9">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>17.9</v>
+        <v>21.2</v>
       </c>
       <c r="L9">
-        <v>35.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1812,34 +1836,34 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.1</v>
       </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
       <c r="E10">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="H10">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="I10">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="J10">
-        <v>22.6</v>
+        <v>23.8</v>
       </c>
       <c r="K10">
-        <v>21.2</v>
+        <v>27.6</v>
       </c>
       <c r="L10">
-        <v>22.9</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1853,31 +1877,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>13.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I11">
-        <v>16.8</v>
+        <v>15.7</v>
       </c>
       <c r="J11">
-        <v>21.5</v>
+        <v>23.8</v>
       </c>
       <c r="K11">
-        <v>29.9</v>
+        <v>39</v>
       </c>
       <c r="L11">
-        <v>18.5</v>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -1887,13 +1911,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1921,232 +1945,256 @@
       <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C2">
-        <v>87.3</v>
+        <v>88.3</v>
       </c>
       <c r="D2">
-        <v>96.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E2">
-        <v>97.89999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C3">
-        <v>86.59999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D3">
-        <v>95.3</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="E3">
-        <v>91.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F3">
-        <v>95.59999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G3">
-        <v>97.8</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="H3">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I3">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J3">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="C4">
-        <v>35.6</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="D4">
-        <v>84.2</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="E4">
-        <v>85.90000000000001</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F4">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="G4">
+        <v>91.8</v>
+      </c>
+      <c r="H4">
         <v>95.3</v>
       </c>
-      <c r="G4">
-        <v>93.2</v>
-      </c>
-      <c r="H4">
-        <v>95.8</v>
-      </c>
       <c r="I4">
-        <v>97</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>99.8</v>
+      </c>
+      <c r="K4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>75.5</v>
       </c>
       <c r="D5">
-        <v>79.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E5">
-        <v>70.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F5">
-        <v>60.7</v>
+        <v>62.5</v>
       </c>
       <c r="G5">
-        <v>42.6</v>
+        <v>44.4</v>
       </c>
       <c r="H5">
-        <v>63.4</v>
+        <v>65.2</v>
       </c>
       <c r="I5">
-        <v>80.5</v>
+        <v>79</v>
       </c>
       <c r="J5">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>70.8</v>
+      </c>
+      <c r="K5">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>59.3</v>
+      </c>
+      <c r="C6">
+        <v>73.2</v>
+      </c>
+      <c r="D6">
+        <v>15.1</v>
+      </c>
+      <c r="E6">
+        <v>5.7</v>
+      </c>
+      <c r="F6">
+        <v>3.1</v>
+      </c>
+      <c r="G6">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>5.2</v>
+      </c>
+      <c r="I6">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="J6">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K6">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>95.5</v>
-      </c>
-      <c r="C6">
-        <v>64.8</v>
-      </c>
-      <c r="D6">
-        <v>44.6</v>
-      </c>
-      <c r="E6">
-        <v>71.5</v>
-      </c>
-      <c r="F6">
-        <v>49.6</v>
-      </c>
-      <c r="G6">
-        <v>87.5</v>
-      </c>
-      <c r="H6">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="I6">
-        <v>69</v>
-      </c>
-      <c r="J6">
-        <v>68.60000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="C7">
+        <v>63.2</v>
+      </c>
+      <c r="D7">
+        <v>47.4</v>
+      </c>
+      <c r="E7">
+        <v>74.8</v>
+      </c>
+      <c r="F7">
+        <v>53.8</v>
+      </c>
+      <c r="G7">
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>68.7</v>
+      </c>
+      <c r="J7">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>55.50000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="C7">
-        <v>92.80000000000001</v>
-      </c>
-      <c r="D7">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="E7">
-        <v>62.3</v>
-      </c>
-      <c r="F7">
-        <v>83.39999999999999</v>
-      </c>
-      <c r="G7">
-        <v>63.1</v>
-      </c>
-      <c r="H7">
-        <v>55.1</v>
-      </c>
-      <c r="I7">
-        <v>41</v>
-      </c>
-      <c r="J7">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B8">
-        <v>61.2</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>68.8</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D8">
-        <v>16.6</v>
+        <v>92.7</v>
       </c>
       <c r="E8">
-        <v>7.3</v>
+        <v>62.8</v>
       </c>
       <c r="F8">
-        <v>2.8</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G8">
-        <v>8.1</v>
+        <v>63.7</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>45.8</v>
       </c>
       <c r="J8">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>56.2</v>
+      </c>
+      <c r="K8">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2154,92 +2202,101 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>81.89999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="D9">
         <v>87.3</v>
       </c>
       <c r="E9">
-        <v>68.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F9">
-        <v>84.7</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="G9">
-        <v>66.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H9">
-        <v>41.2</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="I9">
-        <v>35.4</v>
+        <v>33.6</v>
       </c>
       <c r="J9">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>26.5</v>
+      </c>
+      <c r="K9">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="C10">
         <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>6.2</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="F10">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G10">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="I10">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="J10">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>12.7</v>
+      </c>
+      <c r="K10">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="D11">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="E11">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="F11">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>29.6</v>
+        <v>30.9</v>
       </c>
       <c r="H11">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="J11">
-        <v>17.8</v>
+        <v>13.9</v>
+      </c>
+      <c r="K11">
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
@@ -2260,28 +2317,28 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2289,16 +2346,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2">
-        <v>127.2325</v>
+        <v>129.6622222222222</v>
       </c>
       <c r="E2">
-        <v>1017.86</v>
+        <v>1166.96</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2307,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2318,28 +2375,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3">
-        <v>135.11</v>
+        <v>133.6977777777778</v>
       </c>
       <c r="E3">
-        <v>1080.88</v>
+        <v>1203.28</v>
       </c>
       <c r="F3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2347,28 +2404,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D4">
-        <v>123.8325</v>
+        <v>122.7066666666666</v>
       </c>
       <c r="E4">
-        <v>990.66</v>
+        <v>1104.36</v>
       </c>
       <c r="F4">
-        <v>97.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2376,115 +2433,115 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D5">
-        <v>122.2075</v>
+        <v>120.8977777777778</v>
       </c>
       <c r="E5">
-        <v>977.66</v>
+        <v>1088.08</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>74.8</v>
       </c>
       <c r="G5">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6">
-        <v>114.9175</v>
+        <v>118.4088888888889</v>
       </c>
       <c r="E6">
-        <v>919.34</v>
+        <v>1065.68</v>
       </c>
       <c r="F6">
-        <v>68.8</v>
+        <v>67</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.3125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>125.52</v>
+        <v>113.9333333333333</v>
       </c>
       <c r="E7">
-        <v>1004.16</v>
+        <v>1025.4</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G7">
-        <v>12.7</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D8">
-        <v>110.56</v>
+        <v>124.0422222222222</v>
       </c>
       <c r="E8">
-        <v>884.48</v>
+        <v>1116.38</v>
       </c>
       <c r="F8">
-        <v>37</v>
+        <v>50.1</v>
       </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2492,28 +2549,28 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>108.0175</v>
+        <v>108.2066666666667</v>
       </c>
       <c r="E9">
-        <v>864.14</v>
+        <v>973.86</v>
       </c>
       <c r="F9">
-        <v>35.5</v>
+        <v>23.5</v>
       </c>
       <c r="G9">
-        <v>17.9</v>
+        <v>21.2</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2521,28 +2578,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>106.89</v>
+        <v>107.6977777777778</v>
       </c>
       <c r="E10">
-        <v>855.12</v>
+        <v>969.28</v>
       </c>
       <c r="F10">
-        <v>22.9</v>
+        <v>17.4</v>
       </c>
       <c r="G10">
-        <v>21.2</v>
+        <v>27.6</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2550,28 +2607,28 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D11">
-        <v>115.115</v>
+        <v>116.4844444444445</v>
       </c>
       <c r="E11">
-        <v>920.92</v>
+        <v>1048.36</v>
       </c>
       <c r="F11">
-        <v>18.5</v>
+        <v>12.2</v>
       </c>
       <c r="G11">
-        <v>29.9</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2592,16 +2649,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2612,16 +2669,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2629,19 +2686,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2649,19 +2706,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2669,19 +2726,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2689,19 +2746,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2709,19 +2766,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2729,19 +2786,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2749,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2769,19 +2826,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2792,16 +2849,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2811,42 +2868,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2874,267 +2934,294 @@
       <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
       <c r="C7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-6</v>
       </c>
       <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-19</v>
+      </c>
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
         <v>-4</v>
       </c>
-      <c r="G7">
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="H7">
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-2</v>
       </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>-11</v>
-      </c>
-      <c r="G8">
-        <v>-13</v>
-      </c>
-      <c r="H8">
-        <v>-14</v>
-      </c>
-      <c r="I8">
-        <v>-10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
       <c r="C9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E9">
         <v>-6</v>
       </c>
       <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-12</v>
+      </c>
+      <c r="H9">
+        <v>-11</v>
+      </c>
+      <c r="I9">
+        <v>-13</v>
+      </c>
+      <c r="J9">
+        <v>-16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
         <v>-10</v>
       </c>
-      <c r="G9">
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
         <v>-13</v>
       </c>
-      <c r="H9">
-        <v>-19</v>
-      </c>
-      <c r="I9">
-        <v>-12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10">
-        <v>-6</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>-12</v>
-      </c>
       <c r="H10">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I10">
-        <v>-13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3162,8 +3249,11 @@
       <c r="I11">
         <v>-28</v>
       </c>
-      <c r="J11" t="s">
-        <v>91</v>
+      <c r="J11">
+        <v>-24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +3263,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3181,25 +3271,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3311,25 +3401,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3340,22 +3430,22 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3363,25 +3453,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3389,25 +3479,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3415,22 +3505,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3441,25 +3531,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
       <c r="F11">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3467,24 +3557,76 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>-2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>1</v>
       </c>
     </row>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="115">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -51,237 +51,237 @@
     <t>Steenage Mutant Ninja Turtles</t>
   </si>
   <si>
+    <t>Kevin Nichols The Third</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
+  </si>
+  <si>
+    <t>6-3-1</t>
+  </si>
+  <si>
+    <t>7-2-1</t>
+  </si>
+  <si>
+    <t>5-4-1</t>
+  </si>
+  <si>
+    <t>4-5-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>10.5-3.4</t>
+  </si>
+  <si>
+    <t>7.8-5.2-1.0</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>6.1-6.9-1.0</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>4.8-9.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>8-5-1</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
+    <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
-  </si>
-  <si>
-    <t>6-2-1</t>
-  </si>
-  <si>
-    <t>5-3-1</t>
-  </si>
-  <si>
-    <t>3-5-1</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Current_Record</t>
-  </si>
-  <si>
-    <t>Current_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Score</t>
-  </si>
-  <si>
-    <t>Total_Points_For</t>
-  </si>
-  <si>
-    <t>Playoff_Chance_Pct</t>
-  </si>
-  <si>
-    <t>Last_Place_Chance_Pct</t>
-  </si>
-  <si>
-    <t>Expected_Final_Record</t>
-  </si>
-  <si>
-    <t>Most_Likely_Record</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>10.7-3.2</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>8.6-4.4-1.0</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.5-7.5-1.0</t>
-  </si>
-  <si>
-    <t>5.3-8.6</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
-  </si>
-  <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
-  </si>
-  <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>5-8-1</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
-  </si>
-  <si>
-    <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
@@ -294,31 +294,28 @@
     <t>Elle Patterson</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -776,11 +776,11 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -791,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -808,28 +808,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -843,28 +843,28 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -875,31 +875,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -931,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -948,25 +948,25 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -983,25 +983,25 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -1015,31 +1015,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1047,34 +1047,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1085,19 +1085,19 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1127,13 +1127,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1144,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1172,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1186,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1225,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1270,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1291,16 +1291,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1311,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="D3">
-        <v>-1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1342,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="D4">
-        <v>-1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1359,16 +1359,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D5">
-        <v>1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1379,13 +1379,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1393,16 +1393,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1410,13 +1410,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D8">
-        <v>-0.1000000000000001</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1427,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1447,13 +1447,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1464,13 +1464,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D11">
-        <v>0.1000000000000001</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1488,40 +1488,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1529,19 +1529,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56.4</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>31.6</v>
+        <v>55.4</v>
       </c>
       <c r="D2">
-        <v>10.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E2">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1567,22 +1567,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>33.6</v>
+        <v>62.3</v>
       </c>
       <c r="C3">
-        <v>39.9</v>
+        <v>31.3</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>5.9</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1605,28 +1605,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="C4">
-        <v>26.1</v>
+        <v>11.1</v>
       </c>
       <c r="D4">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="E4">
-        <v>9.300000000000001</v>
+        <v>19.9</v>
       </c>
       <c r="F4">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1635,164 +1635,164 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
+        <v>1.8</v>
+      </c>
+      <c r="D5">
+        <v>17.9</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>20.8</v>
+      </c>
+      <c r="G5">
+        <v>14.5</v>
+      </c>
+      <c r="H5">
+        <v>8.6</v>
+      </c>
+      <c r="I5">
+        <v>4.9</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>4.5</v>
-      </c>
-      <c r="E5">
-        <v>27.8</v>
-      </c>
-      <c r="F5">
-        <v>22.9</v>
-      </c>
-      <c r="G5">
-        <v>18.6</v>
-      </c>
-      <c r="H5">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I5">
-        <v>9.5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
       <c r="L5">
-        <v>74.8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>4.9</v>
+        <v>10.4</v>
       </c>
       <c r="E6">
-        <v>21.6</v>
+        <v>23.9</v>
       </c>
       <c r="F6">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="G6">
-        <v>17.5</v>
+        <v>16.2</v>
       </c>
       <c r="H6">
-        <v>14.8</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="J6">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="E7">
-        <v>15.4</v>
+        <v>12.1</v>
       </c>
       <c r="F7">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="G7">
-        <v>18.3</v>
+        <v>23.5</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="I7">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="J7">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>12.7</v>
+        <v>6.3</v>
       </c>
       <c r="F8">
-        <v>15.5</v>
+        <v>13.3</v>
       </c>
       <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>17.8</v>
+      </c>
+      <c r="I8">
         <v>18.9</v>
       </c>
-      <c r="H8">
-        <v>18.7</v>
-      </c>
-      <c r="I8">
-        <v>16.2</v>
-      </c>
       <c r="J8">
-        <v>11</v>
+        <v>18.3</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>10.4</v>
       </c>
       <c r="L8">
-        <v>50.1</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1801,36 +1801,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="F9">
         <v>8.6</v>
       </c>
       <c r="G9">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="K9">
-        <v>21.2</v>
+        <v>19.1</v>
       </c>
       <c r="L9">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1842,33 +1842,33 @@
         <v>0.1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="I10">
-        <v>17.8</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>23.8</v>
       </c>
       <c r="K10">
-        <v>27.6</v>
+        <v>23.6</v>
       </c>
       <c r="L10">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1877,31 +1877,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H11">
-        <v>9.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="I11">
-        <v>15.7</v>
+        <v>13.4</v>
       </c>
       <c r="J11">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="K11">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="L11">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>
@@ -1911,71 +1911,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="C2">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="D2">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E2">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
         <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1983,31 +1986,34 @@
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="C3">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="D3">
-        <v>95.39999999999999</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>91.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="F3">
-        <v>94.89999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="G3">
-        <v>97.89999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="H3">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="I3">
         <v>99.8</v>
@@ -2018,285 +2024,312 @@
       <c r="K3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>48.9</v>
+        <v>53.7</v>
       </c>
       <c r="C4">
-        <v>35.09999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="D4">
-        <v>82.69999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E4">
-        <v>84.89999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="F4">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="G4">
-        <v>91.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H4">
-        <v>95.3</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="I4">
-        <v>96.89999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J4">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>97.8</v>
+      </c>
+      <c r="L4">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>60.9</v>
       </c>
       <c r="C5">
-        <v>75.5</v>
+        <v>71.3</v>
       </c>
       <c r="D5">
-        <v>77.90000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="E5">
-        <v>68.5</v>
+        <v>6.3</v>
       </c>
       <c r="F5">
-        <v>62.5</v>
+        <v>2.9</v>
       </c>
       <c r="G5">
-        <v>44.4</v>
+        <v>6.4</v>
       </c>
       <c r="H5">
-        <v>65.2</v>
+        <v>3.8</v>
       </c>
       <c r="I5">
-        <v>79</v>
+        <v>35.9</v>
       </c>
       <c r="J5">
-        <v>70.8</v>
+        <v>68.7</v>
       </c>
       <c r="K5">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="L5">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>91.3</v>
+      </c>
+      <c r="D6">
+        <v>91.3</v>
+      </c>
+      <c r="E6">
+        <v>61.8</v>
+      </c>
+      <c r="F6">
+        <v>80.5</v>
+      </c>
+      <c r="G6">
+        <v>60.2</v>
+      </c>
+      <c r="H6">
+        <v>56.2</v>
+      </c>
+      <c r="I6">
+        <v>45.6</v>
+      </c>
+      <c r="J6">
+        <v>58.3</v>
+      </c>
+      <c r="K6">
+        <v>74.3</v>
+      </c>
+      <c r="L6">
+        <v>75.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>11.3</v>
+      </c>
+      <c r="C7">
+        <v>74.8</v>
+      </c>
+      <c r="D7">
+        <v>77.7</v>
+      </c>
+      <c r="E7">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F7">
+        <v>62.3</v>
+      </c>
+      <c r="G7">
+        <v>45.4</v>
+      </c>
+      <c r="H7">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="I7">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J7">
+        <v>70.89999999999999</v>
+      </c>
+      <c r="K7">
+        <v>54.6</v>
+      </c>
+      <c r="L7">
         <v>59.3</v>
       </c>
-      <c r="C6">
-        <v>73.2</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>95.5</v>
+      </c>
+      <c r="C8">
+        <v>63.5</v>
+      </c>
+      <c r="D8">
+        <v>46.2</v>
+      </c>
+      <c r="E8">
+        <v>73.7</v>
+      </c>
+      <c r="F8">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>88.2</v>
+      </c>
+      <c r="H8">
+        <v>86.8</v>
+      </c>
+      <c r="I8">
+        <v>66.7</v>
+      </c>
+      <c r="J8">
+        <v>51.7</v>
+      </c>
+      <c r="K8">
+        <v>35.7</v>
+      </c>
+      <c r="L8">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>15.1</v>
       </c>
-      <c r="E6">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
         <v>5.7</v>
       </c>
-      <c r="F6">
-        <v>3.1</v>
-      </c>
-      <c r="G6">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="H6">
-        <v>5.2</v>
-      </c>
-      <c r="I6">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="J6">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="K6">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="C7">
-        <v>63.2</v>
-      </c>
-      <c r="D7">
-        <v>47.4</v>
-      </c>
-      <c r="E7">
-        <v>74.8</v>
-      </c>
-      <c r="F7">
-        <v>53.8</v>
-      </c>
-      <c r="G7">
-        <v>89</v>
-      </c>
-      <c r="H7">
-        <v>86</v>
-      </c>
-      <c r="I7">
-        <v>68.7</v>
-      </c>
-      <c r="J7">
-        <v>51</v>
-      </c>
-      <c r="K7">
-        <v>55.50000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>94</v>
-      </c>
-      <c r="C8">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="D8">
-        <v>92.7</v>
-      </c>
-      <c r="E8">
-        <v>62.8</v>
-      </c>
-      <c r="F8">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="G8">
-        <v>63.7</v>
-      </c>
-      <c r="H8">
-        <v>58.59999999999999</v>
-      </c>
-      <c r="I8">
-        <v>45.8</v>
-      </c>
-      <c r="J8">
-        <v>56.2</v>
-      </c>
-      <c r="K8">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>12.2</v>
+      </c>
+      <c r="H9">
+        <v>7.3</v>
+      </c>
+      <c r="I9">
+        <v>23.5</v>
+      </c>
+      <c r="J9">
+        <v>13.1</v>
+      </c>
+      <c r="K9">
+        <v>22.9</v>
+      </c>
+      <c r="L9">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="C10">
+        <v>6.2</v>
+      </c>
+      <c r="D10">
+        <v>4.8</v>
+      </c>
+      <c r="E10">
+        <v>39.1</v>
+      </c>
+      <c r="F10">
+        <v>23.7</v>
+      </c>
+      <c r="G10">
+        <v>30.9</v>
+      </c>
+      <c r="H10">
+        <v>45.4</v>
+      </c>
+      <c r="I10">
+        <v>19.3</v>
+      </c>
+      <c r="J10">
+        <v>14.2</v>
+      </c>
+      <c r="K10">
+        <v>19.3</v>
+      </c>
+      <c r="L10">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>100</v>
       </c>
-      <c r="C9">
-        <v>81.2</v>
-      </c>
-      <c r="D9">
-        <v>87.3</v>
-      </c>
-      <c r="E9">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F9">
-        <v>81.10000000000001</v>
-      </c>
-      <c r="G9">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="H9">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="I9">
-        <v>33.6</v>
-      </c>
-      <c r="J9">
-        <v>26.5</v>
-      </c>
-      <c r="K9">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>15.7</v>
-      </c>
-      <c r="C10">
-        <v>0.4</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="F10">
-        <v>4.2</v>
-      </c>
-      <c r="G10">
-        <v>9.9</v>
-      </c>
-      <c r="H10">
-        <v>7.1</v>
-      </c>
-      <c r="I10">
-        <v>23.2</v>
-      </c>
-      <c r="J10">
-        <v>12.7</v>
-      </c>
-      <c r="K10">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>67.60000000000001</v>
-      </c>
       <c r="C11">
-        <v>4.7</v>
+        <v>84.2</v>
       </c>
       <c r="D11">
-        <v>4.5</v>
+        <v>86.5</v>
       </c>
       <c r="E11">
-        <v>39.6</v>
+        <v>65.3</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G11">
-        <v>30.9</v>
+        <v>65.7</v>
       </c>
       <c r="H11">
-        <v>44</v>
+        <v>39.8</v>
       </c>
       <c r="I11">
-        <v>19.2</v>
+        <v>32.4</v>
       </c>
       <c r="J11">
-        <v>13.9</v>
+        <v>23.6</v>
       </c>
       <c r="K11">
-        <v>10.6</v>
+        <v>13.8</v>
+      </c>
+      <c r="L11">
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>
@@ -2314,31 +2347,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2346,16 +2379,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>129.6622222222222</v>
+        <v>130.316</v>
       </c>
       <c r="E2">
-        <v>1166.96</v>
+        <v>1303.16</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2364,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>71</v>
@@ -2375,16 +2408,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>133.6977777777778</v>
+        <v>134.76</v>
       </c>
       <c r="E3">
-        <v>1203.28</v>
+        <v>1347.6</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -2393,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>72</v>
@@ -2404,25 +2437,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.7222222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="D4">
-        <v>122.7066666666666</v>
+        <v>119.982</v>
       </c>
       <c r="E4">
-        <v>1104.36</v>
+        <v>1199.82</v>
       </c>
       <c r="F4">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
@@ -2430,28 +2463,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>120.8977777777778</v>
+        <v>119.678</v>
       </c>
       <c r="E5">
-        <v>1088.08</v>
+        <v>1196.78</v>
       </c>
       <c r="F5">
-        <v>74.8</v>
+        <v>83</v>
       </c>
       <c r="G5">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
         <v>74</v>
@@ -2459,86 +2492,86 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="D6">
-        <v>118.4088888888889</v>
+        <v>129.368</v>
       </c>
       <c r="E6">
-        <v>1065.68</v>
+        <v>1293.68</v>
       </c>
       <c r="F6">
+        <v>72.3</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="s">
         <v>67</v>
       </c>
-      <c r="G6">
-        <v>2.8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>113.9333333333333</v>
+        <v>119.838</v>
       </c>
       <c r="E7">
-        <v>1025.4</v>
+        <v>1198.38</v>
       </c>
       <c r="F7">
-        <v>55.60000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="G7">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>124.0422222222222</v>
+        <v>114.284</v>
       </c>
       <c r="E8">
-        <v>1116.38</v>
+        <v>1142.84</v>
       </c>
       <c r="F8">
-        <v>50.1</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>10.4</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
@@ -2546,57 +2579,57 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>108.2066666666667</v>
+        <v>106.748</v>
       </c>
       <c r="E9">
-        <v>973.86</v>
+        <v>1067.48</v>
       </c>
       <c r="F9">
-        <v>23.5</v>
+        <v>25.1</v>
       </c>
       <c r="G9">
-        <v>21.2</v>
+        <v>19.1</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>107.6977777777778</v>
+        <v>117.654</v>
       </c>
       <c r="E10">
-        <v>969.28</v>
+        <v>1176.54</v>
       </c>
       <c r="F10">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="G10">
-        <v>27.6</v>
+        <v>23.6</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
@@ -2604,31 +2637,31 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>116.4844444444445</v>
+        <v>108.92</v>
       </c>
       <c r="E11">
-        <v>1048.36</v>
+        <v>1089.2</v>
       </c>
       <c r="F11">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="G11">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2646,19 +2679,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2669,13 +2702,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
@@ -2689,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2706,16 +2739,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>92</v>
@@ -2726,16 +2759,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -2749,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2758,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2772,13 +2805,13 @@
         <v>86</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2786,19 +2819,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2806,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2832,13 +2865,13 @@
         <v>88</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2852,13 +2885,13 @@
         <v>89</v>
       </c>
       <c r="D11">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2868,45 +2901,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2937,11 +2973,14 @@
       <c r="J2">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2972,81 +3011,90 @@
       <c r="J3">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
       <c r="G4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
       <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
       <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3077,11 +3125,14 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3112,81 +3163,90 @@
       <c r="J7">
         <v>-2</v>
       </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
       <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-11</v>
+      </c>
+      <c r="I8">
+        <v>-13</v>
+      </c>
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8">
+        <v>-14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="G8">
+      <c r="D9">
         <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
       </c>
       <c r="E9">
         <v>-6</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G9">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="J9">
-        <v>-16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>-7</v>
+      </c>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3217,11 +3277,14 @@
       <c r="J10">
         <v>-17</v>
       </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3252,8 +3315,11 @@
       <c r="J11">
         <v>-24</v>
       </c>
-      <c r="K11" t="s">
-        <v>98</v>
+      <c r="K11">
+        <v>-32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3427,25 +3493,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>-32</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3456,22 +3522,22 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3479,25 +3545,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3505,22 +3571,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3531,25 +3597,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>-2</v>
-      </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3557,25 +3623,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-2</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
       </c>
       <c r="G12">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3583,25 +3649,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
         <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3609,25 +3675,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="120">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -54,43 +54,40 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
-  </si>
-  <si>
-    <t>6-3-1</t>
-  </si>
-  <si>
-    <t>7-2-1</t>
-  </si>
-  <si>
-    <t>5-4-1</t>
-  </si>
-  <si>
-    <t>4-5-1</t>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>7-3-1</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>6-4-1</t>
+  </si>
+  <si>
+    <t>5-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -177,6 +174,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -201,63 +201,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>10.5-3.4</t>
-  </si>
-  <si>
-    <t>7.8-5.2-1.0</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
-  </si>
-  <si>
-    <t>6.1-6.9-1.0</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>8.5-4.5-1.0</t>
+  </si>
+  <si>
+    <t>9.8-4.1</t>
+  </si>
+  <si>
+    <t>6.7-6.3-1.0</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.5-7.4</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
     <t>8-5-1</t>
   </si>
   <si>
+    <t>7-6-1</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -276,12 +285,12 @@
     <t>Andrew Steen</t>
   </si>
   <si>
+    <t>Luke Galan</t>
+  </si>
+  <si>
     <t>Matt Galvin</t>
   </si>
   <si>
-    <t>Luke Galan</t>
-  </si>
-  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
@@ -294,28 +303,31 @@
     <t>Elle Patterson</t>
   </si>
   <si>
-    <t>↑9</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑10</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -346,6 +358,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -770,31 +785,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -805,31 +820,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -840,31 +855,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -872,34 +887,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -907,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -916,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -931,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -942,34 +957,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -980,28 +995,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -1012,34 +1027,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1047,34 +1062,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1085,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1094,22 +1109,22 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1127,13 +1142,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1141,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1155,13 +1170,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1169,13 +1184,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1183,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1197,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1211,10 +1226,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1225,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1239,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1256,10 +1271,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1270,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1291,16 +1306,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1311,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>-1.1</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1345,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1362,13 +1377,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="D5">
         <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1376,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D6">
-        <v>1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1393,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>-0.5999999999999996</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1410,16 +1425,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>0.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1430,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1447,13 +1462,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1470,7 +1485,7 @@
         <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1488,40 +1503,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1529,19 +1544,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>55.4</v>
+        <v>48.5</v>
       </c>
       <c r="D2">
-        <v>9.300000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1564,25 +1579,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>62.3</v>
+        <v>15.1</v>
       </c>
       <c r="C3">
-        <v>31.3</v>
+        <v>21.8</v>
       </c>
       <c r="D3">
-        <v>5.9</v>
+        <v>42.7</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>13.8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1602,28 +1617,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>3.7</v>
+        <v>53.7</v>
       </c>
       <c r="C4">
-        <v>11.1</v>
+        <v>25.2</v>
       </c>
       <c r="D4">
-        <v>50.7</v>
+        <v>19.4</v>
       </c>
       <c r="E4">
-        <v>19.9</v>
+        <v>1.6</v>
       </c>
       <c r="F4">
-        <v>9.1</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1635,83 +1650,83 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>17.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>33.2</v>
       </c>
       <c r="F5">
-        <v>20.8</v>
+        <v>27.6</v>
       </c>
       <c r="G5">
-        <v>14.5</v>
+        <v>18.2</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="I5">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>83</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="E6">
-        <v>23.9</v>
+        <v>30.8</v>
       </c>
       <c r="F6">
-        <v>21.4</v>
+        <v>25.2</v>
       </c>
       <c r="G6">
-        <v>16.2</v>
+        <v>17.3</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>10.6</v>
+        <v>3.3</v>
       </c>
       <c r="J6">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>72.3</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1722,39 +1737,39 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="F7">
-        <v>18.3</v>
+        <v>24.6</v>
       </c>
       <c r="G7">
-        <v>23.5</v>
+        <v>31.7</v>
       </c>
       <c r="H7">
-        <v>14.7</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>14.2</v>
+        <v>6.8</v>
       </c>
       <c r="J7">
-        <v>9.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="K7">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="L7">
-        <v>56.7</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1763,36 +1778,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="F8">
-        <v>13.3</v>
+        <v>8.1</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>17.8</v>
+        <v>24.8</v>
       </c>
       <c r="I8">
-        <v>18.9</v>
+        <v>21.9</v>
       </c>
       <c r="J8">
-        <v>18.3</v>
+        <v>17.4</v>
       </c>
       <c r="K8">
-        <v>10.4</v>
+        <v>12.9</v>
       </c>
       <c r="L8">
-        <v>34.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1801,36 +1816,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>20.4</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>25.3</v>
       </c>
       <c r="J9">
-        <v>19.8</v>
+        <v>24.8</v>
       </c>
       <c r="K9">
-        <v>19.1</v>
+        <v>11.5</v>
       </c>
       <c r="L9">
-        <v>25.1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1839,36 +1854,36 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="H10">
-        <v>15.7</v>
+        <v>16.5</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>19.1</v>
       </c>
       <c r="J10">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="K10">
-        <v>23.6</v>
+        <v>32.3</v>
       </c>
       <c r="L10">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1877,31 +1892,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>8.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
       <c r="I11">
-        <v>13.4</v>
+        <v>19.7</v>
       </c>
       <c r="J11">
-        <v>22.8</v>
+        <v>27.4</v>
       </c>
       <c r="K11">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="L11">
-        <v>13.3</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -1911,71 +1926,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74.2</v>
+        <v>73.8</v>
       </c>
       <c r="C2">
-        <v>88.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D2">
-        <v>96.7</v>
+        <v>97.2</v>
       </c>
       <c r="E2">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
         <v>99.8</v>
       </c>
       <c r="H2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1989,347 +2007,377 @@
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>46.9</v>
+      </c>
+      <c r="C3">
+        <v>36.6</v>
+      </c>
+      <c r="D3">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="E3">
+        <v>86.2</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="H3">
+        <v>95.3</v>
+      </c>
+      <c r="I3">
+        <v>97.8</v>
+      </c>
+      <c r="J3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K3">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="L3">
+        <v>99.8</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>32.7</v>
-      </c>
-      <c r="C3">
-        <v>85.7</v>
-      </c>
-      <c r="D3">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>92.2</v>
-      </c>
-      <c r="F3">
-        <v>95.7</v>
-      </c>
-      <c r="G3">
-        <v>97.8</v>
-      </c>
-      <c r="H3">
-        <v>99</v>
-      </c>
-      <c r="I3">
-        <v>99.8</v>
-      </c>
-      <c r="J3">
+      <c r="B4">
+        <v>32.1</v>
+      </c>
+      <c r="C4">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="E4">
+        <v>91.7</v>
+      </c>
+      <c r="F4">
+        <v>96.8</v>
+      </c>
+      <c r="G4">
+        <v>97.5</v>
+      </c>
+      <c r="H4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I4">
+        <v>99.5</v>
+      </c>
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>53.7</v>
-      </c>
-      <c r="C4">
-        <v>34.3</v>
-      </c>
-      <c r="D4">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="E4">
-        <v>86.8</v>
-      </c>
-      <c r="F4">
-        <v>94.8</v>
-      </c>
-      <c r="G4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="H4">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="I4">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="J4">
-        <v>99.5</v>
-      </c>
-      <c r="K4">
-        <v>97.8</v>
-      </c>
-      <c r="L4">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>91.5</v>
+      </c>
+      <c r="C5">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D5">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>60.6</v>
+      </c>
+      <c r="F5">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>59.2</v>
+      </c>
+      <c r="H5">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="I5">
+        <v>44.4</v>
+      </c>
+      <c r="J5">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="K5">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L5">
+        <v>86.3</v>
+      </c>
+      <c r="M5">
+        <v>90.10000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>60.9</v>
-      </c>
-      <c r="C5">
-        <v>71.3</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>65.5</v>
+      </c>
+      <c r="C6">
+        <v>70.19999999999999</v>
+      </c>
+      <c r="D6">
+        <v>15.3</v>
+      </c>
+      <c r="E6">
+        <v>6.1</v>
+      </c>
+      <c r="F6">
+        <v>2.1</v>
+      </c>
+      <c r="G6">
+        <v>9.6</v>
+      </c>
+      <c r="H6">
+        <v>5.4</v>
+      </c>
+      <c r="I6">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="K6">
+        <v>81.3</v>
+      </c>
+      <c r="L6">
+        <v>87.3</v>
+      </c>
+      <c r="M6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>12.4</v>
+      </c>
+      <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>69.8</v>
+      </c>
+      <c r="F7">
+        <v>58.8</v>
+      </c>
+      <c r="G7">
+        <v>46.1</v>
+      </c>
+      <c r="H7">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="I7">
+        <v>78.2</v>
+      </c>
+      <c r="J7">
+        <v>68.7</v>
+      </c>
+      <c r="K7">
+        <v>54.1</v>
+      </c>
+      <c r="L7">
+        <v>67.7</v>
+      </c>
+      <c r="M7">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>88.2</v>
+      </c>
+      <c r="E8">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="F8">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="G8">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="H8">
+        <v>40.5</v>
+      </c>
+      <c r="I8">
+        <v>33.3</v>
+      </c>
+      <c r="J8">
+        <v>25.1</v>
+      </c>
+      <c r="K8">
+        <v>12.9</v>
+      </c>
+      <c r="L8">
+        <v>27.5</v>
+      </c>
+      <c r="M8">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="C9">
+        <v>64.7</v>
+      </c>
+      <c r="D9">
+        <v>45.5</v>
+      </c>
+      <c r="E9">
+        <v>72.3</v>
+      </c>
+      <c r="F9">
+        <v>52.6</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>68.2</v>
+      </c>
+      <c r="J9">
+        <v>53.3</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>16.8</v>
+      </c>
+      <c r="M9">
         <v>17.5</v>
       </c>
-      <c r="E5">
-        <v>6.3</v>
-      </c>
-      <c r="F5">
-        <v>2.9</v>
-      </c>
-      <c r="G5">
-        <v>6.4</v>
-      </c>
-      <c r="H5">
-        <v>3.8</v>
-      </c>
-      <c r="I5">
-        <v>35.9</v>
-      </c>
-      <c r="J5">
-        <v>68.7</v>
-      </c>
-      <c r="K5">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="L5">
-        <v>82.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>91.3</v>
-      </c>
-      <c r="D6">
-        <v>91.3</v>
-      </c>
-      <c r="E6">
-        <v>61.8</v>
-      </c>
-      <c r="F6">
-        <v>80.5</v>
-      </c>
-      <c r="G6">
-        <v>60.2</v>
-      </c>
-      <c r="H6">
-        <v>56.2</v>
-      </c>
-      <c r="I6">
-        <v>45.6</v>
-      </c>
-      <c r="J6">
-        <v>58.3</v>
-      </c>
-      <c r="K6">
-        <v>74.3</v>
-      </c>
-      <c r="L6">
-        <v>75.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>11.3</v>
-      </c>
-      <c r="C7">
-        <v>74.8</v>
-      </c>
-      <c r="D7">
-        <v>77.7</v>
-      </c>
-      <c r="E7">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F7">
-        <v>62.3</v>
-      </c>
-      <c r="G7">
-        <v>45.4</v>
-      </c>
-      <c r="H7">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="I7">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J7">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="K7">
-        <v>54.6</v>
-      </c>
-      <c r="L7">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>16.7</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10">
+        <v>4.3</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>8.6</v>
+      </c>
+      <c r="I10">
+        <v>24.9</v>
+      </c>
+      <c r="J10">
+        <v>14.7</v>
+      </c>
+      <c r="K10">
+        <v>25.3</v>
+      </c>
+      <c r="L10">
+        <v>9.9</v>
+      </c>
+      <c r="M10">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>95.5</v>
-      </c>
-      <c r="C8">
-        <v>63.5</v>
-      </c>
-      <c r="D8">
-        <v>46.2</v>
-      </c>
-      <c r="E8">
-        <v>73.7</v>
-      </c>
-      <c r="F8">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>88.2</v>
-      </c>
-      <c r="H8">
-        <v>86.8</v>
-      </c>
-      <c r="I8">
-        <v>66.7</v>
-      </c>
-      <c r="J8">
-        <v>51.7</v>
-      </c>
-      <c r="K8">
-        <v>35.7</v>
-      </c>
-      <c r="L8">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>15.1</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.4</v>
-      </c>
-      <c r="E9">
-        <v>5.7</v>
-      </c>
-      <c r="F9">
-        <v>3.6</v>
-      </c>
-      <c r="G9">
-        <v>12.2</v>
-      </c>
-      <c r="H9">
-        <v>7.3</v>
-      </c>
-      <c r="I9">
-        <v>23.5</v>
-      </c>
-      <c r="J9">
-        <v>13.1</v>
-      </c>
-      <c r="K9">
-        <v>22.9</v>
-      </c>
-      <c r="L9">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="C10">
-        <v>6.2</v>
-      </c>
-      <c r="D10">
-        <v>4.8</v>
-      </c>
-      <c r="E10">
-        <v>39.1</v>
-      </c>
-      <c r="F10">
-        <v>23.7</v>
-      </c>
-      <c r="G10">
-        <v>30.9</v>
-      </c>
-      <c r="H10">
-        <v>45.4</v>
-      </c>
-      <c r="I10">
-        <v>19.3</v>
-      </c>
-      <c r="J10">
-        <v>14.2</v>
-      </c>
-      <c r="K10">
-        <v>19.3</v>
-      </c>
-      <c r="L10">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B11">
-        <v>100</v>
+        <v>67.2</v>
       </c>
       <c r="C11">
-        <v>84.2</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D11">
-        <v>86.5</v>
+        <v>5.2</v>
       </c>
       <c r="E11">
-        <v>65.3</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>83.09999999999999</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>65.7</v>
+        <v>29.8</v>
       </c>
       <c r="H11">
-        <v>39.8</v>
+        <v>43.6</v>
       </c>
       <c r="I11">
-        <v>32.4</v>
+        <v>17.7</v>
       </c>
       <c r="J11">
-        <v>23.6</v>
+        <v>14.7</v>
       </c>
       <c r="K11">
-        <v>13.8</v>
+        <v>20.1</v>
       </c>
       <c r="L11">
-        <v>13.3</v>
+        <v>4.7</v>
+      </c>
+      <c r="M11">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -2382,13 +2430,13 @@
         <v>59</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>130.316</v>
+        <v>128.6709090909091</v>
       </c>
       <c r="E2">
-        <v>1303.16</v>
+        <v>1415.38</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2397,27 +2445,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D3">
-        <v>134.76</v>
+        <v>123.8690909090909</v>
       </c>
       <c r="E3">
-        <v>1347.6</v>
+        <v>1362.56</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -2426,97 +2474,97 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.65</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4">
-        <v>119.982</v>
+        <v>131.7181818181818</v>
       </c>
       <c r="E4">
-        <v>1199.82</v>
+        <v>1448.9</v>
       </c>
       <c r="F4">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>119.678</v>
+        <v>127.7981818181818</v>
       </c>
       <c r="E5">
-        <v>1196.78</v>
+        <v>1405.78</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>89.5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>129.368</v>
+        <v>118.2109090909091</v>
       </c>
       <c r="E6">
-        <v>1293.68</v>
+        <v>1300.32</v>
       </c>
       <c r="F6">
-        <v>72.3</v>
+        <v>88.3</v>
       </c>
       <c r="G6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2527,141 +2575,141 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>119.838</v>
+        <v>118.0709090909091</v>
       </c>
       <c r="E7">
-        <v>1198.38</v>
+        <v>1298.78</v>
       </c>
       <c r="F7">
-        <v>56.7</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="G7">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>114.284</v>
+        <v>113.2254545454546</v>
       </c>
       <c r="E8">
-        <v>1142.84</v>
+        <v>1245.48</v>
       </c>
       <c r="F8">
-        <v>34.59999999999999</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>10.4</v>
+        <v>12.9</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>106.748</v>
+        <v>113.9327272727273</v>
       </c>
       <c r="E9">
-        <v>1067.48</v>
+        <v>1253.26</v>
       </c>
       <c r="F9">
-        <v>25.1</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>19.1</v>
+        <v>11.5</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>117.654</v>
+        <v>105.2654545454545</v>
       </c>
       <c r="E10">
-        <v>1176.54</v>
+        <v>1157.92</v>
       </c>
       <c r="F10">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="G10">
-        <v>23.6</v>
+        <v>32.3</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D11">
-        <v>108.92</v>
+        <v>115.3436363636364</v>
       </c>
       <c r="E11">
-        <v>1089.2</v>
+        <v>1268.78</v>
       </c>
       <c r="F11">
-        <v>13.3</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2679,19 +2727,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2702,16 +2750,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2722,16 +2770,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2742,16 +2790,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2759,19 +2807,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2779,19 +2827,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2802,16 +2850,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2819,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2839,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2859,19 +2907,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2882,13 +2930,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>97</v>
@@ -2901,48 +2949,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2976,11 +3027,14 @@
       <c r="K2">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3014,11 +3068,14 @@
       <c r="K3">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3052,87 +3109,96 @@
       <c r="K4">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3166,125 +3232,137 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
         <v>-4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
       <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-14</v>
+      </c>
+      <c r="I9">
+        <v>-10</v>
+      </c>
+      <c r="J9">
+        <v>-17</v>
+      </c>
+      <c r="K9">
+        <v>-19</v>
+      </c>
+      <c r="L9">
+        <v>-13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
         <v>-6</v>
       </c>
-      <c r="G8">
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
         <v>-12</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>-11</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>-13</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>-16</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>-14</v>
       </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9">
-        <v>-18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-13</v>
-      </c>
-      <c r="H10">
-        <v>-14</v>
-      </c>
-      <c r="I10">
-        <v>-10</v>
-      </c>
-      <c r="J10">
-        <v>-17</v>
-      </c>
-      <c r="K10">
-        <v>-19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3318,7 +3396,10 @@
       <c r="K11">
         <v>-32</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>-40</v>
+      </c>
+      <c r="M11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3337,25 +3418,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3389,25 +3470,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="F3">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3415,25 +3496,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3441,25 +3522,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="F5">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3467,25 +3548,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
       <c r="E6">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3493,25 +3574,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>-32</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3519,25 +3600,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
       <c r="F8">
-        <v>16</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3545,25 +3626,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3574,22 +3655,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3597,25 +3678,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>-32</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3623,25 +3704,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3649,25 +3730,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>-18</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3675,25 +3756,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="126">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -177,6 +178,54 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Luke Galan</t>
+  </si>
+  <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -204,6 +253,9 @@
     <t>8-3</t>
   </si>
   <si>
+    <t>7-4</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -219,48 +271,42 @@
     <t>9.7-4.3</t>
   </si>
   <si>
-    <t>8.5-4.5-1.0</t>
-  </si>
-  <si>
-    <t>9.8-4.1</t>
-  </si>
-  <si>
-    <t>6.7-6.3-1.0</t>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
   </si>
   <si>
     <t>7.4-6.6</t>
   </si>
   <si>
-    <t>6.5-7.4</t>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
   </si>
   <si>
     <t>5.5-8.5</t>
   </si>
   <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
     <t>5.2-8.8</t>
   </si>
   <si>
-    <t>4.3-9.7</t>
+    <t>5.2-8.7</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>8-5-1</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
+    <t>9-5</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -274,33 +320,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Luke Galan</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
-    <t>Dan Davis</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
-    <t>Elle Patterson</t>
   </si>
   <si>
     <t>↓1</t>
@@ -1132,6 +1151,380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-28</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-8</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>-12</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>-20</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>-20</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>-13</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>-18</v>
+      </c>
+      <c r="F11">
+        <v>-32</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <v>-18</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>-7</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1544,19 +1937,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>37.4</v>
       </c>
       <c r="C2">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="D2">
-        <v>15.9</v>
+        <v>11.1</v>
       </c>
       <c r="E2">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1579,25 +1972,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>15.1</v>
+        <v>55.7</v>
       </c>
       <c r="C3">
-        <v>21.8</v>
+        <v>32.5</v>
       </c>
       <c r="D3">
-        <v>42.7</v>
+        <v>10.6</v>
       </c>
       <c r="E3">
-        <v>13.8</v>
+        <v>0.9</v>
       </c>
       <c r="F3">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1617,28 +2010,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>53.7</v>
+        <v>6.2</v>
       </c>
       <c r="C4">
-        <v>25.2</v>
+        <v>15.2</v>
       </c>
       <c r="D4">
-        <v>19.4</v>
+        <v>49.6</v>
       </c>
       <c r="E4">
-        <v>1.6</v>
+        <v>18.6</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>7.9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1650,83 +2043,83 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>9.699999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>33.2</v>
+        <v>27.6</v>
       </c>
       <c r="F5">
-        <v>27.6</v>
+        <v>25.6</v>
       </c>
       <c r="G5">
-        <v>18.2</v>
+        <v>15.7</v>
       </c>
       <c r="H5">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>89.5</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="D6">
-        <v>11.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6">
-        <v>30.8</v>
+        <v>29.4</v>
       </c>
       <c r="F6">
-        <v>25.2</v>
+        <v>28.4</v>
       </c>
       <c r="G6">
-        <v>17.3</v>
+        <v>20.3</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.3</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1737,34 +2130,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
+        <v>2.7</v>
+      </c>
+      <c r="E7">
+        <v>14.6</v>
+      </c>
+      <c r="F7">
+        <v>21.5</v>
+      </c>
+      <c r="G7">
+        <v>30.3</v>
+      </c>
+      <c r="H7">
+        <v>17.8</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7">
+        <v>4.5</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>12.7</v>
-      </c>
-      <c r="F7">
-        <v>24.6</v>
-      </c>
-      <c r="G7">
-        <v>31.7</v>
-      </c>
-      <c r="H7">
-        <v>17.1</v>
-      </c>
-      <c r="I7">
-        <v>6.8</v>
-      </c>
-      <c r="J7">
-        <v>4.8</v>
-      </c>
-      <c r="K7">
-        <v>1.1</v>
-      </c>
       <c r="L7">
-        <v>70.2</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1778,31 +2171,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="I8">
-        <v>21.9</v>
+        <v>18.7</v>
       </c>
       <c r="J8">
-        <v>17.4</v>
+        <v>20.5</v>
       </c>
       <c r="K8">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1816,31 +2209,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F9">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="G9">
         <v>11</v>
       </c>
       <c r="H9">
-        <v>20.4</v>
+        <v>18.1</v>
       </c>
       <c r="I9">
-        <v>25.3</v>
+        <v>28.6</v>
       </c>
       <c r="J9">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="K9">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1857,28 +2250,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="G10">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I10">
         <v>19.1</v>
       </c>
       <c r="J10">
-        <v>24.3</v>
+        <v>22.7</v>
       </c>
       <c r="K10">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="L10">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1895,28 +2288,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H11">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="I11">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="K11">
-        <v>42.2</v>
+        <v>39.3</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1975,28 +2368,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73.8</v>
+        <v>73.5</v>
       </c>
       <c r="C2">
-        <v>86.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="D2">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E2">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2013,40 +2406,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>46.9</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>36.6</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D3">
-        <v>83.89999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E3">
-        <v>86.2</v>
+        <v>90.5</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="G3">
-        <v>93.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>95.3</v>
+        <v>99.7</v>
       </c>
       <c r="I3">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J3">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>96.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2054,125 +2447,125 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>32.1</v>
+        <v>51.2</v>
       </c>
       <c r="C4">
-        <v>86.90000000000001</v>
+        <v>39.4</v>
       </c>
       <c r="D4">
-        <v>94.39999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="E4">
-        <v>91.7</v>
+        <v>86.3</v>
       </c>
       <c r="F4">
-        <v>96.8</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="G4">
-        <v>97.5</v>
+        <v>94</v>
       </c>
       <c r="H4">
-        <v>98.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="I4">
+        <v>97.3</v>
+      </c>
+      <c r="J4">
+        <v>98.2</v>
+      </c>
+      <c r="K4">
+        <v>95.8</v>
+      </c>
+      <c r="L4">
         <v>99.5</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
       <c r="M4">
-        <v>100</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>91.5</v>
+        <v>60.2</v>
       </c>
       <c r="C5">
-        <v>91.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D5">
-        <v>91.40000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="E5">
-        <v>60.6</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="F5">
-        <v>81.89999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="G5">
-        <v>59.2</v>
+        <v>8.1</v>
       </c>
       <c r="H5">
-        <v>57.59999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I5">
-        <v>44.4</v>
+        <v>36.7</v>
       </c>
       <c r="J5">
-        <v>56.00000000000001</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="K5">
-        <v>74.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="L5">
-        <v>86.3</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="M5">
-        <v>90.10000000000001</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>65.5</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C6">
-        <v>70.19999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D6">
-        <v>15.3</v>
+        <v>92.7</v>
       </c>
       <c r="E6">
-        <v>6.1</v>
+        <v>61.3</v>
       </c>
       <c r="F6">
-        <v>2.1</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="G6">
-        <v>9.6</v>
+        <v>62</v>
       </c>
       <c r="H6">
-        <v>5.4</v>
+        <v>53.8</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>38.9</v>
       </c>
       <c r="J6">
-        <v>68.10000000000001</v>
+        <v>51.3</v>
       </c>
       <c r="K6">
-        <v>81.3</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="L6">
-        <v>87.3</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="M6">
-        <v>88</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2180,40 +2573,40 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>75.5</v>
       </c>
       <c r="D7">
-        <v>78.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E7">
-        <v>69.8</v>
+        <v>72.5</v>
       </c>
       <c r="F7">
-        <v>58.8</v>
+        <v>61.4</v>
       </c>
       <c r="G7">
-        <v>46.1</v>
+        <v>43.7</v>
       </c>
       <c r="H7">
-        <v>65.60000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="I7">
-        <v>78.2</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="J7">
-        <v>68.7</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="K7">
-        <v>54.1</v>
+        <v>55.2</v>
       </c>
       <c r="L7">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>69.5</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2224,37 +2617,37 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>82.8</v>
       </c>
       <c r="D8">
-        <v>88.2</v>
+        <v>86.5</v>
       </c>
       <c r="E8">
-        <v>67.60000000000001</v>
+        <v>65</v>
       </c>
       <c r="F8">
-        <v>82.19999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="G8">
-        <v>65.60000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="H8">
-        <v>40.5</v>
+        <v>42.1</v>
       </c>
       <c r="I8">
-        <v>33.3</v>
+        <v>34.3</v>
       </c>
       <c r="J8">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="K8">
-        <v>12.9</v>
+        <v>14.7</v>
       </c>
       <c r="L8">
-        <v>27.5</v>
+        <v>24.7</v>
       </c>
       <c r="M8">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2262,40 +2655,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>93.89999999999999</v>
+        <v>96</v>
       </c>
       <c r="C9">
-        <v>64.7</v>
+        <v>61.9</v>
       </c>
       <c r="D9">
-        <v>45.5</v>
+        <v>45.2</v>
       </c>
       <c r="E9">
-        <v>72.3</v>
+        <v>74.7</v>
       </c>
       <c r="F9">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H9">
-        <v>85</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I9">
-        <v>68.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="J9">
-        <v>53.3</v>
+        <v>56.8</v>
       </c>
       <c r="K9">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="L9">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="M9">
-        <v>17.5</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2303,40 +2696,40 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>16.7</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="H10">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="J10">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="K10">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="L10">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2344,40 +2737,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>67.2</v>
+        <v>68.8</v>
       </c>
       <c r="C11">
-        <v>4.100000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="D11">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="G11">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="H11">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>17.7</v>
+        <v>19.4</v>
       </c>
       <c r="J11">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="K11">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="L11">
-        <v>4.7</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -2394,322 +2787,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>127.8</v>
+      </c>
+      <c r="E2">
+        <v>0.455</v>
+      </c>
+      <c r="F2">
+        <v>119.32</v>
+      </c>
+      <c r="G2">
+        <v>0.455</v>
+      </c>
+      <c r="H2">
+        <v>12.7</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>128.6709090909091</v>
-      </c>
-      <c r="E2">
-        <v>1415.38</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>113.93</v>
+      </c>
+      <c r="E3">
+        <v>0.364</v>
+      </c>
+      <c r="F3">
+        <v>125.86</v>
+      </c>
+      <c r="G3">
+        <v>0.545</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>123.87</v>
+      </c>
+      <c r="E4">
+        <v>0.636</v>
+      </c>
+      <c r="F4">
+        <v>121.05</v>
+      </c>
+      <c r="G4">
+        <v>0.545</v>
+      </c>
+      <c r="H4">
+        <v>5.3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>115.34</v>
+      </c>
+      <c r="E5">
+        <v>0.273</v>
+      </c>
+      <c r="F5">
+        <v>121.59</v>
+      </c>
+      <c r="G5">
+        <v>0.515</v>
+      </c>
+      <c r="H5">
+        <v>2.7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>118.21</v>
+      </c>
+      <c r="E6">
+        <v>0.545</v>
+      </c>
+      <c r="F6">
+        <v>121.92</v>
+      </c>
+      <c r="G6">
+        <v>0.576</v>
+      </c>
+      <c r="H6">
+        <v>1.7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>131.72</v>
+      </c>
+      <c r="E7">
+        <v>0.727</v>
+      </c>
+      <c r="F7">
+        <v>117.72</v>
+      </c>
+      <c r="G7">
+        <v>0.424</v>
+      </c>
+      <c r="H7">
+        <v>1.3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>118.07</v>
+      </c>
+      <c r="E8">
+        <v>0.455</v>
+      </c>
+      <c r="F8">
+        <v>115.96</v>
+      </c>
+      <c r="G8">
+        <v>0.485</v>
+      </c>
+      <c r="H8">
+        <v>-2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="D3">
-        <v>123.8690909090909</v>
-      </c>
-      <c r="E3">
-        <v>1362.56</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D9">
+        <v>128.67</v>
+      </c>
+      <c r="E9">
+        <v>0.727</v>
+      </c>
+      <c r="F9">
+        <v>121.36</v>
+      </c>
+      <c r="G9">
+        <v>0.485</v>
+      </c>
+      <c r="H9">
+        <v>-3.7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D4">
-        <v>131.7181818181818</v>
-      </c>
-      <c r="E4">
-        <v>1448.9</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D10">
+        <v>105.27</v>
+      </c>
+      <c r="E10">
+        <v>0.364</v>
+      </c>
+      <c r="F10">
+        <v>115.55</v>
+      </c>
+      <c r="G10">
+        <v>0.364</v>
+      </c>
+      <c r="H10">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>127.7981818181818</v>
-      </c>
-      <c r="E5">
-        <v>1405.78</v>
-      </c>
-      <c r="F5">
-        <v>89.5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>118.2109090909091</v>
-      </c>
-      <c r="E6">
-        <v>1300.32</v>
-      </c>
-      <c r="F6">
-        <v>88.3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>118.0709090909091</v>
-      </c>
-      <c r="E7">
-        <v>1298.78</v>
-      </c>
-      <c r="F7">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="G7">
-        <v>1.1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D8">
-        <v>113.2254545454546</v>
-      </c>
-      <c r="E8">
-        <v>1245.48</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>12.9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D9">
-        <v>113.9327272727273</v>
-      </c>
-      <c r="E9">
-        <v>1253.26</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>11.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="D11">
+        <v>113.23</v>
+      </c>
+      <c r="E11">
+        <v>0.364</v>
+      </c>
+      <c r="F11">
+        <v>115.78</v>
+      </c>
+      <c r="G11">
+        <v>0.515</v>
+      </c>
+      <c r="H11">
+        <v>-17.7</v>
+      </c>
+      <c r="I11">
         <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>105.2654545454545</v>
-      </c>
-      <c r="E10">
-        <v>1157.92</v>
-      </c>
-      <c r="F10">
-        <v>7.8</v>
-      </c>
-      <c r="G10">
-        <v>32.3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D11">
-        <v>115.3436363636364</v>
-      </c>
-      <c r="E11">
-        <v>1268.78</v>
-      </c>
-      <c r="F11">
-        <v>3.2</v>
-      </c>
-      <c r="G11">
-        <v>42.2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2718,6 +3108,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>128.6709090909091</v>
+      </c>
+      <c r="E2">
+        <v>1415.38</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>131.7181818181818</v>
+      </c>
+      <c r="E3">
+        <v>1448.9</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>123.8690909090909</v>
+      </c>
+      <c r="E4">
+        <v>1362.56</v>
+      </c>
+      <c r="F4">
+        <v>99.7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D5">
+        <v>118.2109090909091</v>
+      </c>
+      <c r="E5">
+        <v>1300.32</v>
+      </c>
+      <c r="F5">
+        <v>88.7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D6">
+        <v>127.7981818181818</v>
+      </c>
+      <c r="E6">
+        <v>1405.78</v>
+      </c>
+      <c r="F6">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>118.0709090909091</v>
+      </c>
+      <c r="E7">
+        <v>1298.78</v>
+      </c>
+      <c r="F7">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>113.2254545454546</v>
+      </c>
+      <c r="E8">
+        <v>1245.48</v>
+      </c>
+      <c r="F8">
+        <v>23.5</v>
+      </c>
+      <c r="G8">
+        <v>14.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>113.9327272727273</v>
+      </c>
+      <c r="E9">
+        <v>1253.26</v>
+      </c>
+      <c r="F9">
+        <v>17.4</v>
+      </c>
+      <c r="G9">
+        <v>12.7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D10">
+        <v>105.2654545454545</v>
+      </c>
+      <c r="E10">
+        <v>1157.92</v>
+      </c>
+      <c r="F10">
+        <v>9.9</v>
+      </c>
+      <c r="G10">
+        <v>32.8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D11">
+        <v>115.3436363636364</v>
+      </c>
+      <c r="E11">
+        <v>1268.78</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>39.3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2730,16 +3452,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2750,7 +3472,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -2759,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2770,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>26</v>
@@ -2779,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2790,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -2799,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2810,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2819,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2830,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2839,7 +3561,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2850,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>-5</v>
@@ -2859,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2870,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>-8</v>
@@ -2879,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2890,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>-13</v>
@@ -2899,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2919,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2930,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>-40</v>
@@ -2939,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2957,40 +3679,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3031,7 +3753,7 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3072,7 +3794,7 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3113,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3154,7 +3876,7 @@
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3195,7 +3917,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3236,7 +3958,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3277,7 +3999,7 @@
         <v>-8</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3318,7 +4040,7 @@
         <v>-13</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3359,7 +4081,7 @@
         <v>-20</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3400,381 +4122,7 @@
         <v>-40</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>-28</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>-8</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>-12</v>
-      </c>
-      <c r="G4">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>-20</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>-20</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>-13</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>-2</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>-18</v>
-      </c>
-      <c r="F11">
-        <v>-32</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>-6</v>
-      </c>
-      <c r="F13">
-        <v>-18</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="127">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -256,12 +256,12 @@
     <t>7-4</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>8.5-5.5</t>
   </si>
   <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
     <t>7.4-6.6</t>
   </si>
   <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
     <t>6.5-7.5</t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>5.2-8.7</t>
   </si>
   <si>
-    <t>4.4-9.6</t>
+    <t>4.3-9.6</t>
   </si>
   <si>
     <t>10-4</t>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
@@ -1161,25 +1164,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1937,19 +1940,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="C2">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="D2">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="E2">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1975,19 +1978,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>55.7</v>
+        <v>57.5</v>
       </c>
       <c r="C3">
-        <v>32.5</v>
+        <v>29.6</v>
       </c>
       <c r="D3">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2013,19 +2016,19 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C4">
-        <v>15.2</v>
+        <v>17.1</v>
       </c>
       <c r="D4">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>18.6</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="G4">
         <v>2.2</v>
@@ -2048,78 +2051,78 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E5">
-        <v>27.6</v>
+        <v>30.7</v>
       </c>
       <c r="F5">
-        <v>25.6</v>
+        <v>29.1</v>
       </c>
       <c r="G5">
-        <v>15.7</v>
+        <v>19.9</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>88.7</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="E6">
-        <v>29.4</v>
+        <v>27.8</v>
       </c>
       <c r="F6">
-        <v>28.4</v>
+        <v>22.7</v>
       </c>
       <c r="G6">
-        <v>20.3</v>
+        <v>17.3</v>
       </c>
       <c r="H6">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2133,31 +2136,31 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E7">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="G7">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="L7">
-        <v>69.2</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2171,31 +2174,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F8">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H8">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="I8">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="J8">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="K8">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="L8">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2209,31 +2212,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="F9">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="H9">
-        <v>18.1</v>
+        <v>19.6</v>
       </c>
       <c r="I9">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="J9">
-        <v>23.2</v>
+        <v>26.1</v>
       </c>
       <c r="K9">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="L9">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2250,28 +2253,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H10">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="I10">
-        <v>19.1</v>
+        <v>20.1</v>
       </c>
       <c r="J10">
-        <v>22.7</v>
+        <v>21.7</v>
       </c>
       <c r="K10">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="L10">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2288,28 +2291,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>10.6</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="J11">
-        <v>27.1</v>
+        <v>25.5</v>
       </c>
       <c r="K11">
-        <v>39.3</v>
+        <v>41.8</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -2368,28 +2371,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73.5</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="C2">
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E2">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2406,40 +2409,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>50.8</v>
       </c>
       <c r="C3">
-        <v>86.09999999999999</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="D3">
-        <v>95.3</v>
+        <v>84.3</v>
       </c>
       <c r="E3">
-        <v>90.5</v>
+        <v>88.3</v>
       </c>
       <c r="F3">
-        <v>95.89999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>92.7</v>
       </c>
       <c r="H3">
-        <v>99.7</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I3">
-        <v>99.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2447,125 +2450,125 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>51.2</v>
+        <v>31.6</v>
       </c>
       <c r="C4">
-        <v>39.4</v>
+        <v>86.3</v>
       </c>
       <c r="D4">
-        <v>85.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E4">
-        <v>86.3</v>
+        <v>91.3</v>
       </c>
       <c r="F4">
-        <v>94.69999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>98.8</v>
       </c>
       <c r="I4">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>60.2</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>71.59999999999999</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="D5">
-        <v>14.4</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E5">
-        <v>5.600000000000001</v>
+        <v>61.2</v>
       </c>
       <c r="F5">
-        <v>1.9</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="G5">
-        <v>8.1</v>
+        <v>63.4</v>
       </c>
       <c r="H5">
-        <v>5.600000000000001</v>
+        <v>53.7</v>
       </c>
       <c r="I5">
-        <v>36.7</v>
+        <v>39.3</v>
       </c>
       <c r="J5">
-        <v>68.10000000000001</v>
+        <v>51.7</v>
       </c>
       <c r="K5">
-        <v>82.3</v>
+        <v>73.8</v>
       </c>
       <c r="L5">
-        <v>89.60000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M5">
-        <v>90.3</v>
+        <v>90.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>92.60000000000001</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>91.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D6">
-        <v>92.7</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
-        <v>61.3</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>81.89999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="H6">
-        <v>53.8</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>38.9</v>
+        <v>34.4</v>
       </c>
       <c r="J6">
-        <v>51.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K6">
-        <v>69.89999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="L6">
-        <v>82.39999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="M6">
-        <v>88.90000000000001</v>
+        <v>89.60000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2573,40 +2576,40 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>75.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D7">
-        <v>78.2</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="E7">
-        <v>72.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F7">
         <v>61.4</v>
       </c>
       <c r="G7">
-        <v>43.7</v>
+        <v>41.3</v>
       </c>
       <c r="H7">
-        <v>65.2</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="I7">
-        <v>80.30000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="J7">
-        <v>71.89999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K7">
-        <v>55.2</v>
+        <v>53.2</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="M7">
-        <v>71.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2617,37 +2620,37 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>82.8</v>
+        <v>84.3</v>
       </c>
       <c r="D8">
-        <v>86.5</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="F8">
         <v>83.5</v>
       </c>
       <c r="G8">
-        <v>64.8</v>
+        <v>65.7</v>
       </c>
       <c r="H8">
-        <v>42.1</v>
+        <v>40.3</v>
       </c>
       <c r="I8">
-        <v>34.3</v>
+        <v>35.7</v>
       </c>
       <c r="J8">
+        <v>27.3</v>
+      </c>
+      <c r="K8">
+        <v>15.7</v>
+      </c>
+      <c r="L8">
         <v>25.9</v>
       </c>
-      <c r="K8">
-        <v>14.7</v>
-      </c>
-      <c r="L8">
-        <v>24.7</v>
-      </c>
       <c r="M8">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2655,40 +2658,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="C9">
-        <v>61.9</v>
+        <v>60.8</v>
       </c>
       <c r="D9">
-        <v>45.2</v>
+        <v>46.7</v>
       </c>
       <c r="E9">
-        <v>74.7</v>
+        <v>75.2</v>
       </c>
       <c r="F9">
-        <v>52</v>
+        <v>54.1</v>
       </c>
       <c r="G9">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="H9">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="I9">
-        <v>70.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="J9">
-        <v>56.8</v>
+        <v>54.6</v>
       </c>
       <c r="K9">
-        <v>35.7</v>
+        <v>38.1</v>
       </c>
       <c r="L9">
-        <v>19.2</v>
+        <v>21.1</v>
       </c>
       <c r="M9">
-        <v>15.8</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2696,40 +2699,40 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>15.7</v>
       </c>
       <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
       <c r="E10">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="H10">
-        <v>8.699999999999999</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="I10">
-        <v>23.4</v>
+        <v>25.9</v>
       </c>
       <c r="J10">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="K10">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="M10">
-        <v>9.199999999999999</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2737,40 +2740,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>68.8</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="C11">
-        <v>4.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>37.8</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>30.5</v>
+      </c>
+      <c r="H11">
+        <v>45.8</v>
+      </c>
+      <c r="I11">
+        <v>19.5</v>
+      </c>
+      <c r="J11">
+        <v>14.1</v>
+      </c>
+      <c r="K11">
+        <v>18.4</v>
+      </c>
+      <c r="L11">
         <v>4.9</v>
       </c>
-      <c r="E11">
-        <v>37.5</v>
-      </c>
-      <c r="F11">
-        <v>25.5</v>
-      </c>
-      <c r="G11">
-        <v>28.9</v>
-      </c>
-      <c r="H11">
-        <v>43</v>
-      </c>
-      <c r="I11">
-        <v>19.4</v>
-      </c>
-      <c r="J11">
-        <v>14.5</v>
-      </c>
-      <c r="K11">
-        <v>20.5</v>
-      </c>
-      <c r="L11">
-        <v>6.600000000000001</v>
-      </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -2825,8 +2828,8 @@
       <c r="D2">
         <v>127.8</v>
       </c>
-      <c r="E2">
-        <v>0.455</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>119.32</v>
@@ -2854,8 +2857,8 @@
       <c r="D3">
         <v>113.93</v>
       </c>
-      <c r="E3">
-        <v>0.364</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="F3">
         <v>125.86</v>
@@ -2883,8 +2886,8 @@
       <c r="D4">
         <v>123.87</v>
       </c>
-      <c r="E4">
-        <v>0.636</v>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>121.05</v>
@@ -2912,8 +2915,8 @@
       <c r="D5">
         <v>115.34</v>
       </c>
-      <c r="E5">
-        <v>0.273</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>121.59</v>
@@ -2941,8 +2944,8 @@
       <c r="D6">
         <v>118.21</v>
       </c>
-      <c r="E6">
-        <v>0.545</v>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="F6">
         <v>121.92</v>
@@ -2970,8 +2973,8 @@
       <c r="D7">
         <v>131.72</v>
       </c>
-      <c r="E7">
-        <v>0.727</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>117.72</v>
@@ -2999,8 +3002,8 @@
       <c r="D8">
         <v>118.07</v>
       </c>
-      <c r="E8">
-        <v>0.455</v>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
       <c r="F8">
         <v>115.96</v>
@@ -3028,8 +3031,8 @@
       <c r="D9">
         <v>128.67</v>
       </c>
-      <c r="E9">
-        <v>0.727</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
         <v>121.36</v>
@@ -3057,8 +3060,8 @@
       <c r="D10">
         <v>105.27</v>
       </c>
-      <c r="E10">
-        <v>0.364</v>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
       <c r="F10">
         <v>115.55</v>
@@ -3086,8 +3089,8 @@
       <c r="D11">
         <v>113.23</v>
       </c>
-      <c r="E11">
-        <v>0.364</v>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
       <c r="F11">
         <v>115.78</v>
@@ -3233,22 +3236,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D5">
-        <v>118.2109090909091</v>
+        <v>127.7981818181818</v>
       </c>
       <c r="E5">
-        <v>1300.32</v>
+        <v>1405.78</v>
       </c>
       <c r="F5">
-        <v>88.7</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3262,22 +3265,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>127.7981818181818</v>
+        <v>118.2109090909091</v>
       </c>
       <c r="E6">
-        <v>1405.78</v>
+        <v>1300.32</v>
       </c>
       <c r="F6">
-        <v>88.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3294,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0.4545454545454545</v>
@@ -3306,16 +3309,16 @@
         <v>1298.78</v>
       </c>
       <c r="F7">
-        <v>69.19999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="s">
         <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3335,16 +3338,16 @@
         <v>1245.48</v>
       </c>
       <c r="F8">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="G8">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3364,16 +3367,16 @@
         <v>1253.26</v>
       </c>
       <c r="F9">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="G9">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3393,16 +3396,16 @@
         <v>1157.92</v>
       </c>
       <c r="F10">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="G10">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="H10" t="s">
         <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3422,16 +3425,16 @@
         <v>1268.78</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
-        <v>39.3</v>
+        <v>41.8</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3452,16 +3455,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3481,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3501,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3521,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3541,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3561,7 +3564,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3581,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3601,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3621,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3641,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3661,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3682,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3753,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3794,7 +3797,7 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3835,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3876,7 +3879,7 @@
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3917,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3958,7 +3961,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3999,7 +4002,7 @@
         <v>-8</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4040,7 +4043,7 @@
         <v>-13</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4081,7 +4084,7 @@
         <v>-20</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4122,7 +4125,7 @@
         <v>-40</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="128">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,40 +55,43 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>7-3-1</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>6-4-1</t>
-  </si>
-  <si>
-    <t>5-5-1</t>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>8-3-1</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>7-4-1</t>
+  </si>
+  <si>
+    <t>5-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +181,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,33 +205,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Luke Galan</t>
+  </si>
+  <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
     <t>Andrew Steen</t>
   </si>
   <si>
-    <t>Luke Galan</t>
-  </si>
-  <si>
-    <t>Dan Davis</t>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
   </si>
   <si>
     <t>Matt Galvin</t>
   </si>
   <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Elle Patterson</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -250,72 +256,69 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>5.2-8.7</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>9.1-3.9-1.0</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.2-6.8-1.0</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -325,33 +328,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -807,31 +810,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -842,28 +845,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -880,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -895,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -912,10 +915,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -924,19 +927,19 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -953,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -968,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -982,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -994,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1006,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1014,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1026,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1041,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1049,28 +1052,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1084,31 +1087,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1119,22 +1122,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1156,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,25 +1167,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1242,25 +1245,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>-12</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,25 +1271,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1294,22 +1297,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-24</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -1320,25 +1323,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="F7">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1346,22 +1349,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -1375,22 +1378,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
       <c r="F9">
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1398,25 +1401,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,25 +1427,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>-18</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1450,25 +1453,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,51 +1479,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>-6</v>
+        <v>-18</v>
       </c>
       <c r="F13">
-        <v>-18</v>
+        <v>-32</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1538,13 +1515,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1552,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1566,13 +1543,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1580,13 +1557,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1594,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1611,10 +1588,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1625,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1639,10 +1616,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1653,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1664,13 +1641,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1678,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1702,16 +1679,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1722,13 +1699,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1739,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.4000000000000004</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1756,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1773,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="D5">
         <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1787,16 +1764,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1804,16 +1781,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000004</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1821,16 +1798,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D8">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1841,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D9">
-        <v>-0.5999999999999996</v>
+        <v>-1.2</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1858,13 +1835,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D10">
-        <v>0.4000000000000004</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1899,40 +1876,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1940,19 +1917,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.4</v>
+        <v>52.8</v>
       </c>
       <c r="C2">
-        <v>47.5</v>
+        <v>37.7</v>
       </c>
       <c r="D2">
-        <v>11.8</v>
+        <v>9.5</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1975,22 +1952,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>57.5</v>
+        <v>23.9</v>
       </c>
       <c r="C3">
-        <v>29.6</v>
+        <v>36.4</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>39.7</v>
       </c>
       <c r="E3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2013,28 +1990,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>5.5</v>
+        <v>23.3</v>
       </c>
       <c r="C4">
-        <v>17.1</v>
+        <v>25.9</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="E4">
-        <v>17.4</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2046,45 +2023,45 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>30.7</v>
+        <v>35.7</v>
       </c>
       <c r="F5">
-        <v>29.1</v>
+        <v>30.8</v>
       </c>
       <c r="G5">
-        <v>19.9</v>
+        <v>25.5</v>
       </c>
       <c r="H5">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>89.59999999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2092,75 +2069,75 @@
         <v>2</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0.6</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>14.5</v>
-      </c>
       <c r="E6">
-        <v>27.8</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>22.7</v>
+        <v>29.3</v>
       </c>
       <c r="G6">
-        <v>17.3</v>
+        <v>19.3</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>87.90000000000001</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>23.7</v>
       </c>
       <c r="F7">
-        <v>24.1</v>
+        <v>28.3</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I7">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="J7">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>69.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2174,36 +2151,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="F8">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G8">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="H8">
-        <v>23.5</v>
+        <v>34</v>
       </c>
       <c r="I8">
-        <v>18.8</v>
+        <v>21.6</v>
       </c>
       <c r="J8">
-        <v>20.3</v>
+        <v>16.9</v>
       </c>
       <c r="K8">
-        <v>13.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>24.2</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2215,33 +2192,33 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="F9">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="G9">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="H9">
-        <v>19.6</v>
+        <v>22.2</v>
       </c>
       <c r="I9">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
       <c r="J9">
-        <v>26.1</v>
+        <v>20.1</v>
       </c>
       <c r="K9">
-        <v>11.3</v>
+        <v>14.8</v>
       </c>
       <c r="L9">
-        <v>15.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2253,33 +2230,33 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
-        <v>16.2</v>
+        <v>10.5</v>
       </c>
       <c r="I10">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="J10">
-        <v>21.7</v>
+        <v>38.1</v>
       </c>
       <c r="K10">
-        <v>32.6</v>
+        <v>27.2</v>
       </c>
       <c r="L10">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2291,28 +2268,28 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.2</v>
       </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <v>3.5</v>
-      </c>
       <c r="H11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>19.4</v>
+        <v>16.1</v>
       </c>
       <c r="J11">
-        <v>25.5</v>
+        <v>21.8</v>
       </c>
       <c r="K11">
-        <v>41.8</v>
+        <v>55.9</v>
       </c>
       <c r="L11">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2322,68 +2299,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.10000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D2">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E2">
         <v>98.5</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
         <v>99.8</v>
@@ -2392,7 +2372,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2406,72 +2386,78 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>50.8</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>33.90000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="D3">
-        <v>84.3</v>
+        <v>83.3</v>
       </c>
       <c r="E3">
-        <v>88.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F3">
-        <v>93.8</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>92.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H3">
-        <v>94.89999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J3">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K3">
-        <v>94.39999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="L3">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>31.6</v>
+        <v>34.7</v>
       </c>
       <c r="C4">
-        <v>86.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D4">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>91.3</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="F4">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="G4">
-        <v>97.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="H4">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2488,131 +2474,143 @@
       <c r="M4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>92.10000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D5">
-        <v>92.60000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="E5">
-        <v>61.2</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="F5">
-        <v>80.80000000000001</v>
+        <v>60.2</v>
       </c>
       <c r="G5">
-        <v>63.4</v>
+        <v>43.9</v>
       </c>
       <c r="H5">
-        <v>53.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I5">
-        <v>39.3</v>
+        <v>77.8</v>
       </c>
       <c r="J5">
-        <v>51.7</v>
+        <v>69.5</v>
       </c>
       <c r="K5">
-        <v>73.8</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="L5">
-        <v>83.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="M5">
-        <v>90.60000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>86.7</v>
+      </c>
+      <c r="N5">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>59.7</v>
       </c>
       <c r="C6">
-        <v>70.59999999999999</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>17.4</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>8.799999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H6">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>34.4</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="J6">
-        <v>69.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="K6">
-        <v>80.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="L6">
-        <v>88.2</v>
+        <v>89.8</v>
       </c>
       <c r="M6">
-        <v>89.60000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="N6">
+        <v>83.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>93.8</v>
       </c>
       <c r="C7">
-        <v>76.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="D7">
-        <v>80.60000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E7">
-        <v>69.59999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="F7">
-        <v>61.4</v>
+        <v>81.2</v>
       </c>
       <c r="G7">
-        <v>41.3</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>66.60000000000001</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="I7">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="J7">
+        <v>52.1</v>
+      </c>
+      <c r="K7">
+        <v>71.7</v>
+      </c>
+      <c r="L7">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="M7">
+        <v>76.3</v>
+      </c>
+      <c r="N7">
         <v>82.39999999999999</v>
       </c>
-      <c r="J7">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="K7">
-        <v>53.2</v>
-      </c>
-      <c r="L7">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="M7">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2620,160 +2618,172 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>84.3</v>
+        <v>83.3</v>
       </c>
       <c r="D8">
-        <v>83.89999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E8">
-        <v>65.60000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F8">
-        <v>83.5</v>
+        <v>82.8</v>
       </c>
       <c r="G8">
-        <v>65.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H8">
-        <v>40.3</v>
+        <v>37.9</v>
       </c>
       <c r="I8">
-        <v>35.7</v>
+        <v>34.5</v>
       </c>
       <c r="J8">
-        <v>27.3</v>
+        <v>24.1</v>
       </c>
       <c r="K8">
-        <v>15.7</v>
+        <v>13.9</v>
       </c>
       <c r="L8">
-        <v>25.9</v>
+        <v>24.1</v>
       </c>
       <c r="M8">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34.3</v>
+      </c>
+      <c r="N8">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5.5</v>
+      </c>
+      <c r="E9">
+        <v>37.7</v>
+      </c>
+      <c r="F9">
+        <v>25.2</v>
+      </c>
+      <c r="G9">
+        <v>29.4</v>
+      </c>
+      <c r="H9">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>18.5</v>
+      </c>
+      <c r="J9">
+        <v>14.4</v>
+      </c>
+      <c r="K9">
+        <v>18.1</v>
+      </c>
+      <c r="L9">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="M9">
+        <v>12.5</v>
+      </c>
+      <c r="N9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="C9">
-        <v>60.8</v>
-      </c>
-      <c r="D9">
-        <v>46.7</v>
-      </c>
-      <c r="E9">
+      <c r="B10">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>62.3</v>
+      </c>
+      <c r="D10">
+        <v>44.8</v>
+      </c>
+      <c r="E10">
         <v>75.2</v>
       </c>
-      <c r="F9">
-        <v>54.1</v>
-      </c>
-      <c r="G9">
-        <v>89.2</v>
-      </c>
-      <c r="H9">
+      <c r="F10">
+        <v>51.9</v>
+      </c>
+      <c r="G10">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="H10">
         <v>88.8</v>
       </c>
-      <c r="I9">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="J9">
-        <v>54.6</v>
-      </c>
-      <c r="K9">
-        <v>38.1</v>
-      </c>
-      <c r="L9">
-        <v>21.1</v>
-      </c>
-      <c r="M9">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+      <c r="I10">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="J10">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="K10">
+        <v>36.8</v>
+      </c>
+      <c r="L10">
+        <v>16.7</v>
+      </c>
+      <c r="M10">
+        <v>7.5</v>
+      </c>
+      <c r="N10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>15.7</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
+      <c r="B11">
+        <v>17.5</v>
+      </c>
+      <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <v>6.5</v>
-      </c>
-      <c r="F10">
-        <v>2.5</v>
-      </c>
-      <c r="G10">
-        <v>10.7</v>
-      </c>
-      <c r="H10">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="I10">
-        <v>25.9</v>
-      </c>
-      <c r="J10">
-        <v>14.4</v>
-      </c>
-      <c r="K10">
-        <v>25.5</v>
-      </c>
-      <c r="L10">
-        <v>9.4</v>
-      </c>
-      <c r="M10">
-        <v>8.200000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>7.1</v>
+      </c>
+      <c r="F11">
+        <v>4.3</v>
+      </c>
+      <c r="G11">
+        <v>11.7</v>
+      </c>
+      <c r="H11">
+        <v>9.5</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>13.5</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11">
         <v>8.5</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>37.8</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>30.5</v>
-      </c>
-      <c r="H11">
-        <v>45.8</v>
-      </c>
-      <c r="I11">
-        <v>19.5</v>
-      </c>
-      <c r="J11">
-        <v>14.1</v>
-      </c>
-      <c r="K11">
-        <v>18.4</v>
-      </c>
-      <c r="L11">
-        <v>4.9</v>
-      </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>3.1</v>
+      </c>
+      <c r="N11">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2791,28 +2801,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2820,28 +2830,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>127.8</v>
+        <v>112.15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>119.32</v>
+        <v>130.19</v>
       </c>
       <c r="G2">
-        <v>0.455</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H2">
-        <v>12.7</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2849,28 +2859,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>128.88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>121.79</v>
+      </c>
+      <c r="G3">
+        <v>0.542</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3">
-        <v>113.93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>125.86</v>
-      </c>
-      <c r="G3">
-        <v>0.545</v>
-      </c>
-      <c r="H3">
-        <v>9.300000000000001</v>
-      </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2878,28 +2888,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>123.87</v>
+        <v>128.1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>121.05</v>
+        <v>114.72</v>
       </c>
       <c r="G4">
-        <v>0.545</v>
+        <v>0.333</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2907,28 +2917,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>115.34</v>
+        <v>118.67</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>121.59</v>
+        <v>120.2</v>
       </c>
       <c r="G5">
-        <v>0.515</v>
+        <v>0.583</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2936,28 +2946,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>132.29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>120.51</v>
+      </c>
+      <c r="G6">
+        <v>0.521</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6">
-        <v>118.21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>121.92</v>
-      </c>
-      <c r="G6">
-        <v>0.576</v>
-      </c>
-      <c r="H6">
-        <v>1.7</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2965,28 +2975,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>131.72</v>
+        <v>111.29</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>117.72</v>
+        <v>123.77</v>
       </c>
       <c r="G7">
-        <v>0.424</v>
+        <v>0.604</v>
       </c>
       <c r="H7">
-        <v>1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2994,28 +3004,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>118.07</v>
+        <v>103.96</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>115.96</v>
+        <v>117.46</v>
       </c>
       <c r="G8">
-        <v>0.485</v>
+        <v>0.417</v>
       </c>
       <c r="H8">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3023,28 +3033,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>128.67</v>
+        <v>117.64</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>121.36</v>
+        <v>116.53</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.542</v>
       </c>
       <c r="H9">
-        <v>-3.7</v>
+        <v>-10</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3052,28 +3062,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>105.27</v>
+        <v>129.1</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>115.55</v>
+        <v>118.15</v>
       </c>
       <c r="G10">
-        <v>0.364</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>-9.699999999999999</v>
+        <v>-12.5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3081,28 +3091,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>113.23</v>
+        <v>117.29</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>115.78</v>
+        <v>116.03</v>
       </c>
       <c r="G11">
-        <v>0.515</v>
+        <v>0.396</v>
       </c>
       <c r="H11">
-        <v>-17.7</v>
+        <v>-17</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3120,31 +3130,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3152,16 +3162,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>128.6709090909091</v>
+        <v>129.1033333333334</v>
       </c>
       <c r="E2">
-        <v>1415.38</v>
+        <v>1549.24</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3170,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>91</v>
@@ -3178,19 +3188,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D3">
-        <v>131.7181818181818</v>
+        <v>128.8783333333333</v>
       </c>
       <c r="E3">
-        <v>1448.9</v>
+        <v>1546.54</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3199,68 +3209,68 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>123.8690909090909</v>
+        <v>132.2883333333333</v>
       </c>
       <c r="E4">
-        <v>1362.56</v>
+        <v>1587.46</v>
       </c>
       <c r="F4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>127.7981818181818</v>
+        <v>117.6416666666667</v>
       </c>
       <c r="E5">
-        <v>1405.78</v>
+        <v>1411.7</v>
       </c>
       <c r="F5">
-        <v>89.60000000000001</v>
+        <v>92</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3268,57 +3278,57 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>118.2109090909091</v>
+        <v>118.6666666666667</v>
       </c>
       <c r="E6">
-        <v>1300.32</v>
+        <v>1424</v>
       </c>
       <c r="F6">
-        <v>87.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D7">
-        <v>118.0709090909091</v>
+        <v>128.1</v>
       </c>
       <c r="E7">
-        <v>1298.78</v>
+        <v>1537.2</v>
       </c>
       <c r="F7">
-        <v>69.09999999999999</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="G7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3326,115 +3336,115 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>113.2254545454546</v>
+        <v>111.2916666666667</v>
       </c>
       <c r="E8">
-        <v>1245.48</v>
+        <v>1335.5</v>
       </c>
       <c r="F8">
-        <v>24.2</v>
+        <v>25.4</v>
       </c>
       <c r="G8">
-        <v>13.2</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>113.9327272727273</v>
+        <v>117.2866666666667</v>
       </c>
       <c r="E9">
-        <v>1253.26</v>
+        <v>1407.44</v>
       </c>
       <c r="F9">
-        <v>15.8</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
-        <v>11.3</v>
+        <v>14.8</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>105.2654545454545</v>
+        <v>112.1483333333333</v>
       </c>
       <c r="E10">
-        <v>1157.92</v>
+        <v>1345.78</v>
       </c>
       <c r="F10">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="G10">
-        <v>32.6</v>
+        <v>27.2</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>115.3436363636364</v>
+        <v>103.9566666666667</v>
       </c>
       <c r="E11">
-        <v>1268.78</v>
+        <v>1247.48</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>41.8</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3452,19 +3462,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3475,16 +3485,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3495,16 +3505,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3515,16 +3525,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3532,19 +3542,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,19 +3562,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3575,16 +3585,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3595,16 +3605,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3615,16 +3625,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3638,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3655,16 +3665,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3674,13 +3684,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -3715,10 +3725,13 @@
         <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3755,11 +3768,14 @@
       <c r="L2">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3796,11 +3812,14 @@
       <c r="L3">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3837,93 +3856,102 @@
       <c r="L4">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3960,11 +3988,14 @@
       <c r="L7">
         <v>-5</v>
       </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4001,11 +4032,14 @@
       <c r="L8">
         <v>-8</v>
       </c>
-      <c r="M8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4042,11 +4076,14 @@
       <c r="L9">
         <v>-13</v>
       </c>
-      <c r="M9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,11 +4120,14 @@
       <c r="L10">
         <v>-20</v>
       </c>
-      <c r="M10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4124,8 +4164,11 @@
       <c r="L11">
         <v>-40</v>
       </c>
-      <c r="M11" t="s">
-        <v>104</v>
+      <c r="M11">
+        <v>-50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="131">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,43 +55,46 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>8-3-1</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>7-4-1</t>
-  </si>
-  <si>
-    <t>5-6-1</t>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>9-3-1</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>8-4-1</t>
+  </si>
+  <si>
+    <t>5-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -184,6 +187,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -205,30 +211,30 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>Dan Davis</t>
+    <t>Elle Patterson</t>
   </si>
   <si>
     <t>Andrew Steen</t>
   </si>
   <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
     <t>Kevin  Nichols</t>
   </si>
   <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
-    <t>Elle Patterson</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
     <t>Matt Galvin</t>
   </si>
   <si>
@@ -256,60 +262,63 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>9.1-3.9-1.0</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.2-6.8-1.0</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>10.6-3.4</t>
+  </si>
+  <si>
+    <t>9.5-3.5-1.0</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.6-7.4-1.0</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-3-1</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>6-7-1</t>
   </si>
   <si>
@@ -319,6 +328,9 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -328,28 +340,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -386,6 +392,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -813,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -828,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -851,19 +860,19 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -883,19 +892,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -927,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -956,10 +965,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -971,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -985,25 +994,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -1026,16 +1035,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1055,31 +1064,31 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1090,28 +1099,28 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1125,13 +1134,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1140,16 +1149,16 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1167,25 +1176,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1245,25 +1254,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1271,25 +1280,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>-12</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1297,25 +1306,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="G6">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1323,25 +1332,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1349,25 +1358,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>-20</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1378,22 +1387,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="F9">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1401,25 +1410,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
       </c>
       <c r="F10">
         <v>-13</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1427,25 +1436,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>34</v>
-      </c>
       <c r="F11">
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1453,51 +1462,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>-18</v>
-      </c>
-      <c r="F13">
-        <v>-32</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1515,13 +1498,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1532,10 +1515,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1546,10 +1529,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1557,13 +1540,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1571,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1585,13 +1568,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1599,13 +1582,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1616,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1627,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1641,13 +1624,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1655,13 +1638,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1679,16 +1662,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1696,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0.6999999999999993</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1713,16 +1696,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D3">
-        <v>-0.6999999999999993</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1730,16 +1713,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1.2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1747,16 +1730,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="D5">
-        <v>-1.1</v>
+        <v>2.3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1767,13 +1750,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D6">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1781,16 +1764,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>-0.7000000000000002</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1798,16 +1781,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1815,16 +1798,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="D9">
-        <v>-1.2</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1835,13 +1818,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>-0.4000000000000004</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1876,60 +1859,60 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>37.7</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.5</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>79.3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1952,16 +1935,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>23.9</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C3">
-        <v>36.4</v>
+        <v>20.6</v>
       </c>
       <c r="D3">
-        <v>39.7</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1990,19 +1973,19 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>23.3</v>
+        <v>20.6</v>
       </c>
       <c r="C4">
-        <v>25.9</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D4">
-        <v>50.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2028,7 +2011,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2037,22 +2020,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E5">
-        <v>35.7</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2061,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2075,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>20.6</v>
       </c>
       <c r="F6">
-        <v>29.3</v>
+        <v>45.5</v>
       </c>
       <c r="G6">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="I6">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2099,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2116,33 +2099,33 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>28.3</v>
+        <v>24.7</v>
       </c>
       <c r="G7">
-        <v>29.9</v>
+        <v>34.7</v>
       </c>
       <c r="H7">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>6.3</v>
+        <v>21.4</v>
       </c>
       <c r="J7">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>81.90000000000001</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2154,33 +2137,33 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>8.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="G8">
-        <v>13.1</v>
+        <v>24.5</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>42.2</v>
       </c>
       <c r="I8">
-        <v>21.6</v>
+        <v>18.6</v>
       </c>
       <c r="J8">
-        <v>16.9</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>25.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2192,33 +2175,33 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>8.6</v>
+        <v>16.7</v>
       </c>
       <c r="H9">
-        <v>22.2</v>
+        <v>20.2</v>
       </c>
       <c r="I9">
-        <v>31.4</v>
+        <v>33.1</v>
       </c>
       <c r="J9">
-        <v>20.1</v>
+        <v>27.6</v>
       </c>
       <c r="K9">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>11.5</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2233,25 +2216,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H10">
-        <v>10.5</v>
+        <v>16.3</v>
       </c>
       <c r="I10">
-        <v>20.4</v>
+        <v>24.6</v>
       </c>
       <c r="J10">
-        <v>38.1</v>
+        <v>49.5</v>
       </c>
       <c r="K10">
-        <v>27.2</v>
+        <v>2.9</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2274,22 +2257,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>21.8</v>
+        <v>2.9</v>
       </c>
       <c r="K11">
-        <v>55.9</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2299,133 +2282,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.9</v>
+      </c>
+      <c r="C2">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="E2">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="F2">
+        <v>56.8</v>
+      </c>
+      <c r="G2">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="H2">
+        <v>64.8</v>
+      </c>
+      <c r="I2">
+        <v>79.7</v>
+      </c>
+      <c r="J2">
+        <v>71.7</v>
+      </c>
+      <c r="K2">
+        <v>51.5</v>
+      </c>
+      <c r="L2">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="M2">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="N2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>71.3</v>
-      </c>
-      <c r="C2">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D2">
-        <v>97.5</v>
-      </c>
-      <c r="E2">
-        <v>98.5</v>
-      </c>
-      <c r="F2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G2">
-        <v>99.8</v>
-      </c>
-      <c r="H2">
+      <c r="B3">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C3">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>97.7</v>
+      </c>
+      <c r="E3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>99.5</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="M2">
+      <c r="L3">
         <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>38.4</v>
-      </c>
-      <c r="D3">
-        <v>83.3</v>
-      </c>
-      <c r="E3">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>95</v>
-      </c>
-      <c r="G3">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="H3">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="I3">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="J3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K3">
-        <v>97.8</v>
-      </c>
-      <c r="L3">
-        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2433,43 +2422,46 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>34.7</v>
+        <v>50.3</v>
       </c>
       <c r="C4">
-        <v>85.09999999999999</v>
+        <v>31.2</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>83.5</v>
       </c>
       <c r="E4">
-        <v>90.60000000000001</v>
+        <v>88</v>
       </c>
       <c r="F4">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="I4">
         <v>97</v>
       </c>
-      <c r="G4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="H4">
-        <v>99.2</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
       <c r="J4">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2477,313 +2469,337 @@
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>31.2</v>
       </c>
       <c r="C5">
-        <v>75.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D5">
-        <v>78.60000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E5">
-        <v>68.89999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="F5">
-        <v>60.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G5">
-        <v>43.9</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H5">
-        <v>65.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="I5">
-        <v>77.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J5">
-        <v>69.5</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>55.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>68.8</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>86.7</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>90.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>59.7</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>69.19999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D6">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>6.600000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G6">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>35.09999999999999</v>
+        <v>35.5</v>
       </c>
       <c r="J6">
-        <v>72.8</v>
+        <v>64.7</v>
       </c>
       <c r="K6">
-        <v>82.3</v>
+        <v>81.5</v>
       </c>
       <c r="L6">
-        <v>89.8</v>
+        <v>88.2</v>
       </c>
       <c r="M6">
         <v>79.60000000000001</v>
       </c>
       <c r="N6">
-        <v>83.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>77.8</v>
+      </c>
+      <c r="O6">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.8</v>
+        <v>93.2</v>
       </c>
       <c r="C7">
-        <v>92.2</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D7">
-        <v>91.40000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="E7">
-        <v>57.7</v>
+        <v>59.2</v>
       </c>
       <c r="F7">
-        <v>81.2</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="H7">
-        <v>56.10000000000001</v>
+        <v>56.8</v>
       </c>
       <c r="I7">
-        <v>41.09999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="J7">
-        <v>52.1</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K7">
-        <v>71.7</v>
+        <v>75.5</v>
       </c>
       <c r="L7">
-        <v>85.39999999999999</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>76.3</v>
+        <v>73.5</v>
       </c>
       <c r="N7">
-        <v>82.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>61.4</v>
+      </c>
+      <c r="O7">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>65.5</v>
+      </c>
+      <c r="C8">
+        <v>6.2</v>
+      </c>
+      <c r="D8">
+        <v>4.9</v>
+      </c>
+      <c r="E8">
+        <v>41.9</v>
+      </c>
+      <c r="F8">
+        <v>24.7</v>
+      </c>
+      <c r="G8">
+        <v>31.4</v>
+      </c>
+      <c r="H8">
+        <v>43.9</v>
+      </c>
+      <c r="I8">
+        <v>18.5</v>
+      </c>
+      <c r="J8">
+        <v>13.6</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>4.6</v>
+      </c>
+      <c r="M8">
+        <v>13.1</v>
+      </c>
+      <c r="N8">
+        <v>30.4</v>
+      </c>
+      <c r="O8">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>95.5</v>
+      </c>
+      <c r="C9">
+        <v>63.6</v>
+      </c>
+      <c r="D9">
+        <v>45.5</v>
+      </c>
+      <c r="E9">
+        <v>72.2</v>
+      </c>
+      <c r="F9">
+        <v>52.2</v>
+      </c>
+      <c r="G9">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>89.2</v>
+      </c>
+      <c r="I9">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="J9">
+        <v>53.5</v>
+      </c>
+      <c r="K9">
+        <v>33.1</v>
+      </c>
+      <c r="L9">
+        <v>16.7</v>
+      </c>
+      <c r="M9">
+        <v>8.5</v>
+      </c>
+      <c r="N9">
+        <v>16.1</v>
+      </c>
+      <c r="O9">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>83.3</v>
-      </c>
-      <c r="D8">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="E8">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="F8">
-        <v>82.8</v>
-      </c>
-      <c r="G8">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="H8">
-        <v>37.9</v>
-      </c>
-      <c r="I8">
-        <v>34.5</v>
-      </c>
-      <c r="J8">
-        <v>24.1</v>
-      </c>
-      <c r="K8">
-        <v>13.9</v>
-      </c>
-      <c r="L8">
-        <v>24.1</v>
-      </c>
-      <c r="M8">
-        <v>34.3</v>
-      </c>
-      <c r="N8">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>5.5</v>
-      </c>
-      <c r="E9">
-        <v>37.7</v>
-      </c>
-      <c r="F9">
-        <v>25.2</v>
-      </c>
-      <c r="G9">
-        <v>29.4</v>
-      </c>
-      <c r="H9">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>18.5</v>
-      </c>
-      <c r="J9">
-        <v>14.4</v>
-      </c>
-      <c r="K9">
-        <v>18.1</v>
-      </c>
-      <c r="L9">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="M9">
-        <v>12.5</v>
-      </c>
-      <c r="N9">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>94</v>
-      </c>
       <c r="C10">
-        <v>62.3</v>
+        <v>83.7</v>
       </c>
       <c r="D10">
-        <v>44.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E10">
-        <v>75.2</v>
+        <v>64.8</v>
       </c>
       <c r="F10">
-        <v>51.9</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G10">
-        <v>87.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>88.8</v>
+        <v>38.3</v>
       </c>
       <c r="I10">
-        <v>69.39999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="J10">
-        <v>54.50000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="K10">
-        <v>36.8</v>
+        <v>13.3</v>
       </c>
       <c r="L10">
-        <v>16.7</v>
+        <v>25.8</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>34.4</v>
       </c>
       <c r="N10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>14.9</v>
+      </c>
+      <c r="O10">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7.1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F11">
+        <v>3.2</v>
+      </c>
+      <c r="G11">
+        <v>10.2</v>
+      </c>
+      <c r="H11">
+        <v>9.1</v>
+      </c>
+      <c r="I11">
+        <v>23.5</v>
+      </c>
+      <c r="J11">
+        <v>13.8</v>
+      </c>
+      <c r="K11">
+        <v>27.6</v>
+      </c>
+      <c r="L11">
+        <v>8.4</v>
+      </c>
+      <c r="M11">
         <v>4.3</v>
       </c>
-      <c r="G11">
-        <v>11.7</v>
-      </c>
-      <c r="H11">
-        <v>9.5</v>
-      </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <v>13.5</v>
-      </c>
-      <c r="K11">
-        <v>24</v>
-      </c>
-      <c r="L11">
-        <v>8.5</v>
-      </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
       <c r="N11">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2801,28 +2817,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2830,28 +2846,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>112.15</v>
+        <v>129.17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>130.19</v>
+        <v>129.5</v>
       </c>
       <c r="G2">
-        <v>0.5620000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2859,28 +2875,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>128.88</v>
+        <v>118.96</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>121.79</v>
+        <v>127.95</v>
       </c>
       <c r="G3">
-        <v>0.542</v>
+        <v>0.769</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2888,28 +2904,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>128.1</v>
+        <v>112.62</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>114.72</v>
+        <v>125.71</v>
       </c>
       <c r="G4">
-        <v>0.333</v>
+        <v>0.423</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2917,28 +2933,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>118.67</v>
+        <v>102.32</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>120.2</v>
+        <v>116.01</v>
       </c>
       <c r="G5">
-        <v>0.583</v>
+        <v>0.385</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2946,28 +2962,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>132.29</v>
+        <v>125.71</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>120.51</v>
+        <v>112.62</v>
       </c>
       <c r="G6">
-        <v>0.521</v>
+        <v>0.385</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2978,25 +2994,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>111.29</v>
+        <v>109.72</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>123.77</v>
+        <v>117.64</v>
       </c>
       <c r="G7">
-        <v>0.604</v>
+        <v>0.462</v>
       </c>
       <c r="H7">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3004,28 +3020,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>103.96</v>
+        <v>129.5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>117.46</v>
+        <v>129.17</v>
       </c>
       <c r="G8">
-        <v>0.417</v>
+        <v>0.731</v>
       </c>
       <c r="H8">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3033,28 +3049,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>117.64</v>
+        <v>127.95</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>116.53</v>
+        <v>118.96</v>
       </c>
       <c r="G9">
-        <v>0.542</v>
+        <v>0.538</v>
       </c>
       <c r="H9">
-        <v>-10</v>
+        <v>-23</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3062,28 +3078,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>117.64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>109.72</v>
+      </c>
+      <c r="G10">
+        <v>0.385</v>
+      </c>
+      <c r="H10">
+        <v>-23</v>
+      </c>
+      <c r="I10">
         <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>129.1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>118.15</v>
-      </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10">
-        <v>-12.5</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3094,25 +3110,25 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>117.29</v>
+        <v>116.01</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>116.03</v>
+        <v>102.32</v>
       </c>
       <c r="G11">
-        <v>0.396</v>
+        <v>0.308</v>
       </c>
       <c r="H11">
-        <v>-17</v>
+        <v>-52</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3130,48 +3146,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
-        <v>129.1033333333334</v>
+        <v>118.9646153846154</v>
       </c>
       <c r="E2">
-        <v>1549.24</v>
+        <v>1546.54</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3180,27 +3196,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>0.7083333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D3">
-        <v>128.8783333333333</v>
+        <v>127.9461538461539</v>
       </c>
       <c r="E3">
-        <v>1546.54</v>
+        <v>1663.3</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3209,27 +3225,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D4">
-        <v>132.2883333333333</v>
+        <v>129.1676923076923</v>
       </c>
       <c r="E4">
-        <v>1587.46</v>
+        <v>1679.18</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3238,39 +3254,39 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>117.6416666666667</v>
+        <v>129.5046153846154</v>
       </c>
       <c r="E5">
-        <v>1411.7</v>
+        <v>1683.56</v>
       </c>
       <c r="F5">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3278,25 +3294,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6">
-        <v>118.6666666666667</v>
+        <v>117.6415384615385</v>
       </c>
       <c r="E6">
-        <v>1424</v>
+        <v>1529.34</v>
       </c>
       <c r="F6">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
@@ -3307,115 +3323,115 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.4583333333333333</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="D7">
-        <v>128.1</v>
+        <v>125.7092307692308</v>
       </c>
       <c r="E7">
-        <v>1537.2</v>
+        <v>1634.22</v>
       </c>
       <c r="F7">
-        <v>81.89999999999999</v>
+        <v>59.4</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D8">
-        <v>111.2916666666667</v>
+        <v>116.0076923076923</v>
       </c>
       <c r="E8">
-        <v>1335.5</v>
+        <v>1508.1</v>
       </c>
       <c r="F8">
-        <v>25.4</v>
+        <v>30.2</v>
       </c>
       <c r="G8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D9">
-        <v>117.2866666666667</v>
+        <v>112.6246153846154</v>
       </c>
       <c r="E9">
-        <v>1407.44</v>
+        <v>1464.12</v>
       </c>
       <c r="F9">
-        <v>11.5</v>
+        <v>19.1</v>
       </c>
       <c r="G9">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D10">
-        <v>112.1483333333333</v>
+        <v>109.7169230769231</v>
       </c>
       <c r="E10">
-        <v>1345.78</v>
+        <v>1426.32</v>
       </c>
       <c r="F10">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="G10">
-        <v>27.2</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3423,28 +3439,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>103.9566666666667</v>
+        <v>102.32</v>
       </c>
       <c r="E11">
-        <v>1247.48</v>
+        <v>1330.16</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>55.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3462,19 +3478,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3485,16 +3501,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3505,16 +3521,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3525,16 +3541,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3545,16 +3561,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,16 +3581,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3585,16 +3601,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3605,16 +3621,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3625,16 +3641,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3648,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3665,16 +3681,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3684,54 +3700,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3771,11 +3790,14 @@
       <c r="M2">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3815,11 +3837,14 @@
       <c r="M3">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3859,11 +3884,14 @@
       <c r="M4">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3903,11 +3931,14 @@
       <c r="M5">
         <v>12</v>
       </c>
-      <c r="N5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3947,11 +3978,14 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3991,11 +4025,14 @@
       <c r="M7">
         <v>-1</v>
       </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4035,11 +4072,14 @@
       <c r="M8">
         <v>-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4079,11 +4119,14 @@
       <c r="M9">
         <v>-22</v>
       </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4123,11 +4166,14 @@
       <c r="M10">
         <v>-24</v>
       </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4167,8 +4213,11 @@
       <c r="M11">
         <v>-50</v>
       </c>
-      <c r="N11" t="s">
-        <v>108</v>
+      <c r="N11">
+        <v>-52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="127">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,46 +55,49 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>9-3-1</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>8-4-1</t>
-  </si>
-  <si>
-    <t>5-7-1</t>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
+  </si>
+  <si>
+    <t>10-3-1</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,6 +193,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -211,33 +217,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
+  </si>
+  <si>
     <t>Dan Davis</t>
   </si>
   <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
     <t>Luke Galan</t>
   </si>
   <si>
-    <t>Elle Patterson</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -262,73 +268,40 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>10.6-3.4</t>
-  </si>
-  <si>
-    <t>9.5-3.5-1.0</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.6-7.4-1.0</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>10-3-1</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>6-7-1</t>
+    <t>10-4</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>10.0-3.0-1.0</t>
+  </si>
+  <si>
+    <t>6.0-7.0-1.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -340,22 +313,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>↑5</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -395,6 +380,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -822,25 +810,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -851,34 +839,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -886,16 +874,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -904,16 +892,16 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -921,34 +909,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -956,34 +944,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,34 +979,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1026,34 +1014,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1061,34 +1049,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1096,31 +1084,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1131,34 +1119,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1176,25 +1164,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1202,25 +1190,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-28</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1228,25 +1216,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1254,25 +1242,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>-4</v>
+      </c>
+      <c r="G4">
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="H4" t="s">
         <v>4</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1280,25 +1268,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1306,25 +1294,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1335,22 +1323,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>-24</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1358,25 +1346,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1384,22 +1372,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-24</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -1410,25 +1398,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="F10">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1436,22 +1424,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -1465,22 +1453,100 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>-13</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F13">
+        <v>-13</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>34</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-20</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1498,13 +1564,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1512,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1526,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1543,10 +1609,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1554,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1568,13 +1634,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1585,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1599,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1610,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1624,13 +1690,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1641,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1662,16 +1728,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1682,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1699,13 +1765,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1716,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D4">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1733,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5">
-        <v>2.3</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1747,16 +1813,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1764,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1781,16 +1847,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>-1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1801,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D9">
-        <v>-0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1818,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1841,7 +1907,7 @@
         <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1859,40 +1925,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1906,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>79.3</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1938,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>79.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>20.6</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1973,13 +2039,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>79.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1991,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2011,19 +2077,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2049,7 +2115,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2058,22 +2124,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2082,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>84.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2102,30 +2168,30 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.7</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>34.7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>59.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2140,30 +2206,30 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>30.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2178,25 +2244,25 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>20.2</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2216,30 +2282,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>24.6</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2266,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.9</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>97.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2282,130 +2348,136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="C2">
-        <v>75.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D2">
-        <v>81.10000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="E2">
-        <v>72.39999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="F2">
-        <v>56.8</v>
+        <v>60.6</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="H2">
-        <v>64.8</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
       <c r="J2">
-        <v>71.7</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="K2">
-        <v>51.5</v>
+        <v>52.8</v>
       </c>
       <c r="L2">
-        <v>69.39999999999999</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="M2">
-        <v>86.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="N2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C3">
-        <v>88.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D3">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E3">
-        <v>98.40000000000001</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F3">
         <v>99.5</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -2414,7 +2486,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2425,290 +2497,311 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>59.2</v>
+      </c>
+      <c r="C4">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="D4">
+        <v>18.7</v>
+      </c>
+      <c r="E4">
+        <v>6.9</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>34.9</v>
+      </c>
+      <c r="J4">
+        <v>67.10000000000001</v>
+      </c>
+      <c r="K4">
+        <v>82.3</v>
+      </c>
+      <c r="L4">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="M4">
+        <v>80.30000000000001</v>
+      </c>
+      <c r="N4">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="O4">
+        <v>47.9</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>50.3</v>
-      </c>
-      <c r="C4">
-        <v>31.2</v>
-      </c>
-      <c r="D4">
-        <v>83.5</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>94</v>
-      </c>
-      <c r="H4">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="I4">
-        <v>97</v>
-      </c>
-      <c r="J4">
-        <v>99.5</v>
-      </c>
-      <c r="K4">
-        <v>98.5</v>
-      </c>
-      <c r="L4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>51.7</v>
+      </c>
+      <c r="C5">
+        <v>33.4</v>
+      </c>
+      <c r="D5">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="E5">
+        <v>87.2</v>
+      </c>
+      <c r="F5">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="H5">
+        <v>95.8</v>
+      </c>
+      <c r="I5">
+        <v>97.8</v>
+      </c>
+      <c r="J5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K5">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>31.2</v>
-      </c>
-      <c r="C5">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="D5">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E5">
-        <v>90.7</v>
-      </c>
-      <c r="F5">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="G5">
+      <c r="B6">
+        <v>31.6</v>
+      </c>
+      <c r="C6">
+        <v>86.7</v>
+      </c>
+      <c r="D6">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E6">
+        <v>92.5</v>
+      </c>
+      <c r="F6">
+        <v>95.8</v>
+      </c>
+      <c r="G6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="H6">
         <v>98.40000000000001</v>
       </c>
-      <c r="H5">
-        <v>99.3</v>
-      </c>
-      <c r="I5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>100</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>61</v>
-      </c>
-      <c r="C6">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5.4</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6">
-        <v>8.1</v>
-      </c>
-      <c r="H6">
-        <v>3.7</v>
-      </c>
       <c r="I6">
-        <v>35.5</v>
+        <v>99.7</v>
       </c>
       <c r="J6">
-        <v>64.7</v>
+        <v>99.8</v>
       </c>
       <c r="K6">
-        <v>81.5</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>88.2</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>79.60000000000001</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>77.8</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.2</v>
+        <v>92.5</v>
       </c>
       <c r="C7">
-        <v>91.10000000000001</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>91.10000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="E7">
-        <v>59.2</v>
+        <v>61.1</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="G7">
-        <v>62.5</v>
+        <v>64.3</v>
       </c>
       <c r="H7">
-        <v>56.8</v>
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>41.7</v>
+        <v>44.6</v>
       </c>
       <c r="J7">
-        <v>56.99999999999999</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="K7">
-        <v>75.5</v>
+        <v>74.3</v>
       </c>
       <c r="L7">
-        <v>87</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M7">
-        <v>73.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="N7">
-        <v>61.4</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="O7">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>15.2</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>5.7</v>
+      </c>
+      <c r="F8">
+        <v>3.7</v>
+      </c>
+      <c r="G8">
+        <v>12.2</v>
+      </c>
+      <c r="H8">
+        <v>7.9</v>
+      </c>
+      <c r="I8">
+        <v>21.8</v>
+      </c>
+      <c r="J8">
+        <v>13.2</v>
+      </c>
+      <c r="K8">
+        <v>21.5</v>
+      </c>
+      <c r="L8">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>65.5</v>
-      </c>
-      <c r="C8">
-        <v>6.2</v>
-      </c>
-      <c r="D8">
-        <v>4.9</v>
-      </c>
-      <c r="E8">
-        <v>41.9</v>
-      </c>
-      <c r="F8">
-        <v>24.7</v>
-      </c>
-      <c r="G8">
-        <v>31.4</v>
-      </c>
-      <c r="H8">
-        <v>43.9</v>
-      </c>
-      <c r="I8">
-        <v>18.5</v>
-      </c>
-      <c r="J8">
-        <v>13.6</v>
-      </c>
-      <c r="K8">
+      <c r="B9">
+        <v>66.3</v>
+      </c>
+      <c r="C9">
+        <v>5.1</v>
+      </c>
+      <c r="D9">
+        <v>4.6</v>
+      </c>
+      <c r="E9">
+        <v>38.4</v>
+      </c>
+      <c r="F9">
+        <v>23.9</v>
+      </c>
+      <c r="G9">
+        <v>29.9</v>
+      </c>
+      <c r="H9">
+        <v>42.5</v>
+      </c>
+      <c r="I9">
+        <v>18.6</v>
+      </c>
+      <c r="J9">
+        <v>13.5</v>
+      </c>
+      <c r="K9">
         <v>19</v>
       </c>
-      <c r="L8">
-        <v>4.6</v>
-      </c>
-      <c r="M8">
-        <v>13.1</v>
-      </c>
-      <c r="N8">
-        <v>30.4</v>
-      </c>
-      <c r="O8">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>95.5</v>
-      </c>
-      <c r="C9">
-        <v>63.6</v>
-      </c>
-      <c r="D9">
-        <v>45.5</v>
-      </c>
-      <c r="E9">
-        <v>72.2</v>
-      </c>
-      <c r="F9">
-        <v>52.2</v>
-      </c>
-      <c r="G9">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="H9">
-        <v>89.2</v>
-      </c>
-      <c r="I9">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="J9">
-        <v>53.5</v>
-      </c>
-      <c r="K9">
-        <v>33.1</v>
-      </c>
       <c r="L9">
-        <v>16.7</v>
+        <v>5.1</v>
       </c>
       <c r="M9">
-        <v>8.5</v>
+        <v>11.6</v>
       </c>
       <c r="N9">
-        <v>16.1</v>
+        <v>32.3</v>
       </c>
       <c r="O9">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.8</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2716,89 +2809,95 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>83.7</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>84.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="E10">
-        <v>64.8</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="F10">
-        <v>86.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G10">
-        <v>64</v>
+        <v>64.3</v>
       </c>
       <c r="H10">
-        <v>38.3</v>
+        <v>40.3</v>
       </c>
       <c r="I10">
-        <v>36.3</v>
+        <v>33.4</v>
       </c>
       <c r="J10">
         <v>26.2</v>
       </c>
       <c r="K10">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="M10">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="N10">
+        <v>16.5</v>
+      </c>
+      <c r="O10">
         <v>34.4</v>
       </c>
-      <c r="N10">
-        <v>14.9</v>
-      </c>
-      <c r="O10">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5</v>
+        <v>93.7</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="E11">
-        <v>7.000000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>52.6</v>
       </c>
       <c r="G11">
-        <v>10.2</v>
+        <v>87.7</v>
       </c>
       <c r="H11">
-        <v>9.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I11">
-        <v>23.5</v>
+        <v>70</v>
       </c>
       <c r="J11">
-        <v>13.8</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="K11">
-        <v>27.6</v>
+        <v>38.7</v>
       </c>
       <c r="L11">
-        <v>8.4</v>
+        <v>20.5</v>
       </c>
       <c r="M11">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2817,28 +2916,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2846,28 +2945,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>129.17</v>
+        <v>122.09</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>129.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2875,28 +2974,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>118.96</v>
+        <v>127.35</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>127.95</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2904,28 +3003,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>112.62</v>
+        <v>116.38</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>125.71</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2936,25 +3035,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>102.32</v>
+        <v>99.3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>116.01</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2962,28 +3061,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>125.71</v>
+        <v>128.37</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>112.62</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2991,28 +3090,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>109.72</v>
+        <v>114.69</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>117.64</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3020,28 +3119,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>129.5</v>
+        <v>110.9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>129.17</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3049,28 +3148,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>127.95</v>
+        <v>126.74</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>118.96</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3078,28 +3177,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>117.64</v>
+        <v>126.82</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>109.72</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3107,28 +3206,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>116.01</v>
+        <v>112.73</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>102.32</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3146,31 +3245,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3178,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2">
-        <v>118.9646153846154</v>
+        <v>122.0942857142857</v>
       </c>
       <c r="E2">
-        <v>1546.54</v>
+        <v>1709.32</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3196,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3207,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>127.9461538461539</v>
+        <v>127.3457142857143</v>
       </c>
       <c r="E3">
-        <v>1663.3</v>
+        <v>1782.84</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3225,27 +3324,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>0.7307692307692307</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D4">
-        <v>129.1676923076923</v>
+        <v>116.3842857142857</v>
       </c>
       <c r="E4">
-        <v>1679.18</v>
+        <v>1629.38</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3254,27 +3353,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>129.5046153846154</v>
+        <v>128.37</v>
       </c>
       <c r="E5">
-        <v>1683.56</v>
+        <v>1797.18</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3283,39 +3382,39 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>117.6415384615385</v>
+        <v>126.74</v>
       </c>
       <c r="E6">
-        <v>1529.34</v>
+        <v>1774.36</v>
       </c>
       <c r="F6">
-        <v>84.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3323,19 +3422,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.4230769230769231</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D7">
-        <v>125.7092307692308</v>
+        <v>126.8185714285714</v>
       </c>
       <c r="E7">
-        <v>1634.22</v>
+        <v>1775.46</v>
       </c>
       <c r="F7">
-        <v>59.4</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3344,65 +3443,65 @@
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D8">
-        <v>116.0076923076923</v>
+        <v>99.30428571428571</v>
       </c>
       <c r="E8">
-        <v>1508.1</v>
+        <v>1390.26</v>
       </c>
       <c r="F8">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
         <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
       <c r="C9">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>112.6246153846154</v>
+        <v>114.6871428571429</v>
       </c>
       <c r="E9">
-        <v>1464.12</v>
+        <v>1605.62</v>
       </c>
       <c r="F9">
-        <v>19.1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3413,54 +3512,54 @@
         <v>83</v>
       </c>
       <c r="C10">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>109.7169230769231</v>
+        <v>110.8971428571429</v>
       </c>
       <c r="E10">
-        <v>1426.32</v>
+        <v>1552.56</v>
       </c>
       <c r="F10">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D11">
-        <v>102.32</v>
+        <v>112.7328571428571</v>
       </c>
       <c r="E11">
-        <v>1330.16</v>
+        <v>1578.26</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>97.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3478,19 +3577,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3498,19 +3597,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3518,19 +3617,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3541,16 +3640,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3558,19 +3657,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3578,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -3590,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3601,16 +3700,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3621,16 +3720,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3638,19 +3737,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3658,19 +3757,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3681,13 +3780,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>105</v>
@@ -3700,151 +3799,160 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
         <v>26</v>
       </c>
-      <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="N2">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3887,105 +3995,114 @@
       <c r="N4">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
+      <c r="M6">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
       <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4028,11 +4145,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4075,105 +4195,114 @@
       <c r="N8">
         <v>-1</v>
       </c>
-      <c r="O8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-12</v>
+      </c>
+      <c r="H9">
         <v>-11</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-13</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>-16</v>
+      </c>
+      <c r="K9">
         <v>-14</v>
       </c>
-      <c r="I9">
-        <v>-10</v>
-      </c>
-      <c r="J9">
-        <v>-17</v>
-      </c>
-      <c r="K9">
-        <v>-19</v>
-      </c>
       <c r="L9">
-        <v>-13</v>
+        <v>-20</v>
       </c>
       <c r="M9">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="N9">
         <v>-23</v>
       </c>
-      <c r="O9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>-4</v>
       </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="G10">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="H10">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10">
         <v>-13</v>
       </c>
-      <c r="J10">
-        <v>-16</v>
-      </c>
-      <c r="K10">
-        <v>-14</v>
-      </c>
-      <c r="L10">
-        <v>-20</v>
-      </c>
       <c r="M10">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="N10">
         <v>-23</v>
       </c>
-      <c r="O10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4216,7 +4345,10 @@
       <c r="N11">
         <v>-52</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>-61</v>
+      </c>
+      <c r="P11" t="s">
         <v>105</v>
       </c>
     </row>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="137">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,195 +55,225 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>14-1-0</t>
+  </si>
+  <si>
+    <t>10-3-2</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
+  </si>
+  <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Luke Galan</t>
+  </si>
+  <si>
     <t>8-6-0</t>
   </si>
   <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
     <t>4-10-0</t>
   </si>
   <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
+    <t>10-3-1</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
   </si>
   <si>
     <t>5-9-0</t>
   </si>
   <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
-  </si>
-  <si>
-    <t>10-3-1</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
-    <t>Elle Patterson</t>
-  </si>
-  <si>
-    <t>Dan Davis</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Luke Galan</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -313,33 +343,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓9</t>
   </si>
   <si>
@@ -383,6 +410,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -810,28 +840,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -845,22 +875,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -877,31 +907,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -912,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -924,19 +954,19 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -944,34 +974,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -979,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -991,22 +1021,22 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1014,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1049,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -1076,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1087,28 +1117,28 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1119,34 +1149,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,25 +1194,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1320,25 +1350,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>-13</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1346,25 +1376,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>-12</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,25 +1402,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="G9">
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1398,25 +1428,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,25 +1454,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>-20</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1453,22 +1483,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="F12">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,76 +1506,24 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>-20</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1564,13 +1542,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1578,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1592,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1606,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1620,13 +1598,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1634,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1651,10 +1629,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1665,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1679,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1693,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1707,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1728,16 +1706,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1748,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="D2">
-        <v>-0.4000000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1765,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1782,13 +1760,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D4">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1799,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>2.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1816,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1833,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1847,16 +1825,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1864,16 +1842,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1884,13 +1862,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1925,40 +1903,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2356,49 +2334,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2406,43 +2384,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C2">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>78.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E2">
-        <v>70.19999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F2">
-        <v>60.6</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G2">
-        <v>43.3</v>
+        <v>42.3</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I2">
-        <v>79.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="J2">
-        <v>71.39999999999999</v>
+        <v>69</v>
       </c>
       <c r="K2">
-        <v>52.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="L2">
-        <v>67.30000000000001</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="N2">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2456,22 +2434,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>77.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C3">
-        <v>86.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>97.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E3">
-        <v>97.39999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2486,7 +2464,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2506,46 +2484,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59.2</v>
+        <v>63.5</v>
       </c>
       <c r="C4">
         <v>71.89999999999999</v>
       </c>
       <c r="D4">
-        <v>18.7</v>
+        <v>17.1</v>
       </c>
       <c r="E4">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G4">
-        <v>8.200000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="I4">
-        <v>34.9</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="J4">
-        <v>67.10000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="K4">
-        <v>82.3</v>
+        <v>80</v>
       </c>
       <c r="L4">
-        <v>90.10000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="M4">
-        <v>80.30000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="N4">
-        <v>78.60000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="O4">
-        <v>47.9</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2556,37 +2534,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51.7</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>33.4</v>
+        <v>35.2</v>
       </c>
       <c r="D5">
-        <v>81.69999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E5">
-        <v>87.2</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="F5">
+        <v>95.3</v>
+      </c>
+      <c r="G5">
         <v>93.89999999999999</v>
       </c>
-      <c r="G5">
-        <v>92.60000000000001</v>
-      </c>
       <c r="H5">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="I5">
-        <v>97.8</v>
+        <v>96.7</v>
       </c>
       <c r="J5">
+        <v>99.7</v>
+      </c>
+      <c r="K5">
+        <v>98.2</v>
+      </c>
+      <c r="L5">
         <v>99.40000000000001</v>
-      </c>
-      <c r="K5">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2606,31 +2584,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>31.6</v>
+        <v>31.2</v>
       </c>
       <c r="C6">
-        <v>86.7</v>
+        <v>85.3</v>
       </c>
       <c r="D6">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E6">
-        <v>92.5</v>
+        <v>90.2</v>
       </c>
       <c r="F6">
-        <v>95.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G6">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H6">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="I6">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J6">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2656,46 +2634,46 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>92.5</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D7">
-        <v>91.8</v>
+        <v>93</v>
       </c>
       <c r="E7">
-        <v>61.1</v>
+        <v>62.1</v>
       </c>
       <c r="F7">
-        <v>84.39999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="G7">
-        <v>64.3</v>
+        <v>62.4</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>57.2</v>
       </c>
       <c r="I7">
-        <v>44.6</v>
+        <v>42.4</v>
       </c>
       <c r="J7">
-        <v>53.90000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="K7">
-        <v>74.3</v>
+        <v>72.5</v>
       </c>
       <c r="L7">
-        <v>85.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="M7">
-        <v>77.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="N7">
-        <v>57.49999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="O7">
-        <v>74.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2706,43 +2684,43 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
       <c r="E8">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="F8">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="G8">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="H8">
-        <v>7.9</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="I8">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="J8">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K8">
-        <v>21.5</v>
+        <v>24.8</v>
       </c>
       <c r="L8">
-        <v>8.799999999999999</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2756,46 +2734,46 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="D9">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="E9">
-        <v>38.4</v>
+        <v>40.2</v>
       </c>
       <c r="F9">
-        <v>23.9</v>
+        <v>21.7</v>
       </c>
       <c r="G9">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="H9">
-        <v>42.5</v>
+        <v>41.9</v>
       </c>
       <c r="I9">
-        <v>18.6</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="K9">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="L9">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="M9">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="N9">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="O9">
-        <v>42.8</v>
+        <v>44.3</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2809,43 +2787,43 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="D10">
-        <v>87.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E10">
-        <v>68.10000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F10">
-        <v>83.59999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="G10">
-        <v>64.3</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="H10">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="I10">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="J10">
-        <v>26.2</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>14.7</v>
       </c>
       <c r="L10">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>34.59999999999999</v>
+        <v>33.1</v>
       </c>
       <c r="N10">
-        <v>16.5</v>
+        <v>11.7</v>
       </c>
       <c r="O10">
-        <v>34.4</v>
+        <v>30.1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2856,43 +2834,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>93.7</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="C11">
-        <v>65.40000000000001</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="D11">
-        <v>44.2</v>
+        <v>43.1</v>
       </c>
       <c r="E11">
-        <v>72.5</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="F11">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="G11">
-        <v>87.7</v>
+        <v>88.2</v>
       </c>
       <c r="H11">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I11">
-        <v>70</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="J11">
-        <v>55.50000000000001</v>
+        <v>51.8</v>
       </c>
       <c r="K11">
-        <v>38.7</v>
+        <v>36.2</v>
       </c>
       <c r="L11">
-        <v>20.5</v>
+        <v>16.4</v>
       </c>
       <c r="M11">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="N11">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2916,28 +2894,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2954,7 +2932,7 @@
         <v>122.09</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2977,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>127.35</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3006,13 +2984,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>116.38</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3035,13 +3013,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>99.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3064,13 +3042,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>128.37</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3093,13 +3071,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>114.69</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3122,13 +3100,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>110.9</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3151,13 +3129,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>126.74</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3180,13 +3158,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>126.82</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3209,13 +3187,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>112.73</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3245,31 +3223,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3277,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3295,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3306,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3324,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3335,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3353,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3364,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -3382,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3393,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3411,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3422,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0.4642857142857143</v>
@@ -3440,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3451,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>0.2857142857142857</v>
@@ -3469,10 +3447,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3480,7 +3458,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3498,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3509,7 +3487,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3527,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3538,7 +3516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3556,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3577,19 +3555,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3597,19 +3575,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3617,19 +3595,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3640,16 +3618,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3657,19 +3635,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,16 +3658,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3697,19 +3675,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3720,16 +3698,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3743,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3760,16 +3738,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3780,16 +3758,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-61</v>
+        <v>-70</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3799,160 +3777,169 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2">
         <v>34</v>
       </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
         <v>19</v>
       </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <v>35</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
         <v>34</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>40</v>
       </c>
-      <c r="N3">
-        <v>38</v>
-      </c>
-      <c r="O3">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3998,61 +3985,67 @@
       <c r="O4">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5">
+        <v>-13</v>
+      </c>
+      <c r="H5">
+        <v>-19</v>
+      </c>
+      <c r="I5">
+        <v>-12</v>
+      </c>
+      <c r="J5">
+        <v>-2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>-5</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4098,61 +4091,67 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-10</v>
-      </c>
-      <c r="G7">
-        <v>-13</v>
-      </c>
-      <c r="H7">
-        <v>-19</v>
-      </c>
-      <c r="I7">
-        <v>-12</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>-5</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4198,11 +4197,14 @@
       <c r="O8">
         <v>-4</v>
       </c>
-      <c r="P8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4248,11 +4250,14 @@
       <c r="O9">
         <v>-14</v>
       </c>
-      <c r="P9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-13</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4298,11 +4303,14 @@
       <c r="O10">
         <v>-20</v>
       </c>
-      <c r="P10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4348,8 +4356,11 @@
       <c r="O11">
         <v>-61</v>
       </c>
-      <c r="P11" t="s">
-        <v>105</v>
+      <c r="P11">
+        <v>-70</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="136">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,58 +55,55 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>14-1-0</t>
-  </si>
-  <si>
-    <t>10-3-2</t>
-  </si>
-  <si>
-    <t>11-3-1</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>9-5-1</t>
-  </si>
-  <si>
-    <t>6-8-1</t>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>11-4-1</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>14-2-0</t>
+  </si>
+  <si>
+    <t>15-1-0</t>
+  </si>
+  <si>
+    <t>10-4-2</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
+  </si>
+  <si>
+    <t>7-8-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -343,31 +340,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑8</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -413,6 +407,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -840,28 +837,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -872,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -884,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -904,31 +901,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -939,34 +936,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -974,34 +971,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1009,22 +1006,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1033,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -1044,34 +1041,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1079,34 +1076,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1114,34 +1111,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1149,10 +1146,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1161,19 +1158,19 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
@@ -1186,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,25 +1191,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1499,32 +1496,6 @@
       </c>
       <c r="H12" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>-18</v>
-      </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,13 +1513,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1556,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1570,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1587,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1598,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1612,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1629,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1643,10 +1614,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1657,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1668,13 +1639,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1682,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1706,16 +1677,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1726,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="D2">
         <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1743,13 +1714,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1760,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D4">
-        <v>-1.5</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1777,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1794,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1811,13 +1782,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1828,10 +1799,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000004</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1845,10 +1816,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0.7000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1862,13 +1833,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D10">
-        <v>-0.7999999999999998</v>
+        <v>-1.2</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1885,7 +1856,7 @@
         <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1903,40 +1874,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2334,49 +2305,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2384,43 +2355,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D2">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>62.5</v>
+      </c>
+      <c r="G2">
+        <v>41.5</v>
+      </c>
+      <c r="H2">
+        <v>60.5</v>
+      </c>
+      <c r="I2">
+        <v>79.3</v>
+      </c>
+      <c r="J2">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="K2">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="L2">
         <v>68.40000000000001</v>
       </c>
-      <c r="F2">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="G2">
-        <v>42.3</v>
-      </c>
-      <c r="H2">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="J2">
-        <v>69</v>
-      </c>
-      <c r="K2">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="L2">
-        <v>70.39999999999999</v>
-      </c>
       <c r="M2">
-        <v>84.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2434,28 +2405,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D3">
-        <v>96.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E3">
         <v>98.40000000000001</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -2484,46 +2455,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63.5</v>
+        <v>60.2</v>
       </c>
       <c r="C4">
-        <v>71.89999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D4">
-        <v>17.1</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
-        <v>4.100000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="G4">
-        <v>7.3</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>35.09999999999999</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>68.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="K4">
-        <v>80</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="L4">
-        <v>89.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M4">
-        <v>82.8</v>
+        <v>80.7</v>
       </c>
       <c r="N4">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="O4">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2534,37 +2505,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="C5">
-        <v>35.2</v>
+        <v>36.6</v>
       </c>
       <c r="D5">
-        <v>82.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E5">
-        <v>85.39999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="F5">
-        <v>95.3</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G5">
-        <v>93.89999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="H5">
-        <v>95.5</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="I5">
-        <v>96.7</v>
+        <v>97.7</v>
       </c>
       <c r="J5">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="K5">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L5">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -2584,31 +2555,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>31.2</v>
+        <v>33.1</v>
       </c>
       <c r="C6">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="D6">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E6">
-        <v>90.2</v>
+        <v>89</v>
       </c>
       <c r="F6">
-        <v>96.59999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G6">
-        <v>98.5</v>
+        <v>97.2</v>
       </c>
       <c r="H6">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="I6">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2634,46 +2605,46 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>92.60000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C7">
         <v>92.30000000000001</v>
       </c>
       <c r="D7">
-        <v>93</v>
+        <v>91.2</v>
       </c>
       <c r="E7">
-        <v>62.1</v>
+        <v>59.8</v>
       </c>
       <c r="F7">
-        <v>81.8</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="G7">
-        <v>62.4</v>
+        <v>61.5</v>
       </c>
       <c r="H7">
-        <v>57.2</v>
+        <v>60</v>
       </c>
       <c r="I7">
-        <v>42.4</v>
+        <v>44</v>
       </c>
       <c r="J7">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L7">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="M7">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="N7">
         <v>58.2</v>
       </c>
-      <c r="K7">
-        <v>72.5</v>
-      </c>
-      <c r="L7">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="M7">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="N7">
-        <v>62.8</v>
-      </c>
       <c r="O7">
-        <v>76.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2684,40 +2655,40 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>4.2</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+      <c r="H8">
         <v>7.1</v>
       </c>
-      <c r="F8">
-        <v>4.7</v>
-      </c>
-      <c r="G8">
-        <v>10.9</v>
-      </c>
-      <c r="H8">
-        <v>8.799999999999999</v>
-      </c>
       <c r="I8">
-        <v>21.6</v>
+        <v>22.5</v>
       </c>
       <c r="J8">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="K8">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8">
-        <v>4.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2734,46 +2705,46 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>5.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="E9">
-        <v>40.2</v>
+        <v>38.9</v>
       </c>
       <c r="F9">
-        <v>21.7</v>
+        <v>22.7</v>
       </c>
       <c r="G9">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="H9">
-        <v>41.9</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>17.9</v>
       </c>
       <c r="J9">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="K9">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="L9">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M9">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="N9">
-        <v>32.2</v>
+        <v>33.7</v>
       </c>
       <c r="O9">
-        <v>44.3</v>
+        <v>42.9</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2787,43 +2758,43 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>81.69999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D10">
-        <v>88.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E10">
-        <v>68.5</v>
+        <v>70.5</v>
       </c>
       <c r="F10">
-        <v>84.39999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="G10">
-        <v>66.10000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="H10">
-        <v>40.9</v>
+        <v>42.8</v>
       </c>
       <c r="I10">
-        <v>33.8</v>
+        <v>36.3</v>
       </c>
       <c r="J10">
-        <v>27</v>
+        <v>23.8</v>
       </c>
       <c r="K10">
+        <v>14.5</v>
+      </c>
+      <c r="L10">
+        <v>23.9</v>
+      </c>
+      <c r="M10">
+        <v>31.5</v>
+      </c>
+      <c r="N10">
         <v>14.7</v>
       </c>
-      <c r="L10">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>33.1</v>
-      </c>
-      <c r="N10">
-        <v>11.7</v>
-      </c>
       <c r="O10">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2834,43 +2805,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>94.89999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="C11">
-        <v>65.60000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="D11">
-        <v>43.1</v>
+        <v>49.4</v>
       </c>
       <c r="E11">
-        <v>72.39999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F11">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>88.2</v>
+        <v>89.7</v>
       </c>
       <c r="H11">
-        <v>87.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="I11">
-        <v>69.69999999999999</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="J11">
-        <v>51.8</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="K11">
-        <v>36.2</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="L11">
-        <v>16.4</v>
+        <v>18.1</v>
       </c>
       <c r="M11">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="N11">
-        <v>15.2</v>
+        <v>17.5</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2894,28 +2865,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2932,7 +2903,7 @@
         <v>122.09</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2955,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>127.35</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2984,13 +2955,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>116.38</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3013,13 +2984,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>99.3</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3042,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>128.37</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3071,13 +3042,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>114.69</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3100,13 +3071,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>110.9</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3129,13 +3100,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>126.74</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3158,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>126.82</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3187,13 +3158,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>112.73</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3223,31 +3194,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3255,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3273,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3284,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3302,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3313,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3331,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3342,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -3360,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3371,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3389,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3400,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>0.4642857142857143</v>
@@ -3418,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3429,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>0.2857142857142857</v>
@@ -3447,10 +3418,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3458,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3476,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3487,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3505,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3516,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3534,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3555,19 +3526,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3578,16 +3549,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3598,16 +3569,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3618,16 +3589,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3638,16 +3609,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3655,19 +3626,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3675,19 +3646,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3695,19 +3666,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3715,19 +3686,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3738,16 +3709,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3758,16 +3729,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3777,63 +3748,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3882,11 +3856,14 @@
       <c r="P2">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3935,11 +3912,14 @@
       <c r="P3">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3988,11 +3968,14 @@
       <c r="P4">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4041,223 +4024,238 @@
       <c r="P5">
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
         <v>-5</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
       <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-11</v>
+      </c>
+      <c r="I8">
+        <v>-13</v>
+      </c>
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8">
+        <v>-14</v>
+      </c>
+      <c r="L8">
+        <v>-20</v>
+      </c>
+      <c r="M8">
+        <v>-24</v>
+      </c>
+      <c r="N8">
+        <v>-23</v>
+      </c>
+      <c r="O8">
+        <v>-14</v>
+      </c>
+      <c r="P8">
+        <v>-13</v>
+      </c>
+      <c r="Q8">
+        <v>-5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="G8">
+      <c r="D9">
         <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>-2</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-18</v>
-      </c>
-      <c r="L8">
-        <v>-8</v>
-      </c>
-      <c r="M8">
-        <v>-2</v>
-      </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8">
-        <v>-4</v>
-      </c>
-      <c r="P8">
-        <v>-12</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-4</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
       </c>
       <c r="E9">
         <v>-6</v>
       </c>
       <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>-7</v>
+      </c>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9">
+        <v>-8</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="P9">
+        <v>-12</v>
+      </c>
+      <c r="Q9">
         <v>-6</v>
       </c>
-      <c r="G9">
-        <v>-12</v>
-      </c>
-      <c r="H9">
-        <v>-11</v>
-      </c>
-      <c r="I9">
-        <v>-13</v>
-      </c>
-      <c r="J9">
-        <v>-16</v>
-      </c>
-      <c r="K9">
-        <v>-14</v>
-      </c>
-      <c r="L9">
-        <v>-20</v>
-      </c>
-      <c r="M9">
-        <v>-24</v>
-      </c>
-      <c r="N9">
-        <v>-23</v>
-      </c>
-      <c r="O9">
-        <v>-14</v>
-      </c>
-      <c r="P9">
-        <v>-13</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4306,11 +4304,14 @@
       <c r="P10">
         <v>-18</v>
       </c>
-      <c r="Q10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4360,11 @@
       <c r="P11">
         <v>-70</v>
       </c>
-      <c r="Q11" t="s">
-        <v>114</v>
+      <c r="Q11">
+        <v>-80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -262,12 +262,6 @@
     <t>4-10-0</t>
   </si>
   <si>
-    <t>10-3-1</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
     <t>5-9-0</t>
   </si>
   <si>
@@ -317,12 +311,6 @@
   </si>
   <si>
     <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>10.0-3.0-1.0</t>
-  </si>
-  <si>
-    <t>6.0-7.0-1.0</t>
   </si>
   <si>
     <t>4.0-10.0</t>
@@ -1191,25 +1179,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2355,43 +2343,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="C2">
-        <v>75.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>72.3</v>
       </c>
       <c r="F2">
-        <v>62.5</v>
+        <v>60.7</v>
       </c>
       <c r="G2">
-        <v>41.5</v>
+        <v>43.5</v>
       </c>
       <c r="H2">
-        <v>60.5</v>
+        <v>68</v>
       </c>
       <c r="I2">
-        <v>79.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="J2">
-        <v>70.09999999999999</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="K2">
-        <v>55.00000000000001</v>
+        <v>55.7</v>
       </c>
       <c r="L2">
-        <v>68.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="M2">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="N2">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2405,22 +2393,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73.3</v>
+        <v>74.3</v>
       </c>
       <c r="C3">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D3">
-        <v>97.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E3">
-        <v>98.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F3">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2435,7 +2423,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2455,46 +2443,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60.2</v>
+        <v>62.9</v>
       </c>
       <c r="C4">
-        <v>73.2</v>
+        <v>71.2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="E4">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="F4">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="G4">
-        <v>8.200000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I4">
-        <v>35</v>
+        <v>36.1</v>
       </c>
       <c r="J4">
-        <v>68.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="K4">
-        <v>81.39999999999999</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="L4">
-        <v>89.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="M4">
-        <v>80.7</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>76.7</v>
+        <v>75.8</v>
       </c>
       <c r="O4">
-        <v>48.7</v>
+        <v>50.3</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2505,40 +2493,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49.3</v>
+        <v>52.3</v>
       </c>
       <c r="C5">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D5">
-        <v>81.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="E5">
-        <v>85.3</v>
+        <v>86.3</v>
       </c>
       <c r="F5">
-        <v>94.39999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="G5">
-        <v>94.69999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="H5">
-        <v>94.39999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="I5">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="J5">
-        <v>99.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K5">
-        <v>97.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2555,22 +2543,22 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>33.1</v>
+        <v>28.3</v>
       </c>
       <c r="C6">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="D6">
-        <v>95.59999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="E6">
-        <v>89</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F6">
-        <v>96.39999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="G6">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="H6">
         <v>98.8</v>
@@ -2579,7 +2567,7 @@
         <v>99.5</v>
       </c>
       <c r="J6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2605,46 +2593,46 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="C7">
-        <v>92.30000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D7">
-        <v>91.2</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="E7">
-        <v>59.8</v>
+        <v>57.2</v>
       </c>
       <c r="F7">
-        <v>81.39999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="G7">
-        <v>61.5</v>
+        <v>64.8</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>54.6</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>39.1</v>
       </c>
       <c r="J7">
-        <v>57.09999999999999</v>
+        <v>52.2</v>
       </c>
       <c r="K7">
-        <v>74.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="L7">
-        <v>85.90000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="M7">
-        <v>77.60000000000001</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>58.2</v>
+        <v>61.2</v>
       </c>
       <c r="O7">
-        <v>77.3</v>
+        <v>75.2</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2655,40 +2643,40 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7.000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="F8">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
       <c r="H8">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I8">
-        <v>22.5</v>
+        <v>21.9</v>
       </c>
       <c r="J8">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="K8">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="L8">
-        <v>9.199999999999999</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2705,46 +2693,46 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68.7</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="E9">
-        <v>38.9</v>
+        <v>40.8</v>
       </c>
       <c r="F9">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="G9">
-        <v>30.2</v>
+        <v>32.6</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I9">
-        <v>17.9</v>
+        <v>19.9</v>
       </c>
       <c r="J9">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
       <c r="K9">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="L9">
-        <v>5.4</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="M9">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="N9">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="O9">
-        <v>42.9</v>
+        <v>40.9</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2758,43 +2746,43 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>82.09999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="D10">
-        <v>85.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E10">
-        <v>70.5</v>
+        <v>67.2</v>
       </c>
       <c r="F10">
-        <v>83.7</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G10">
-        <v>64.5</v>
+        <v>62.3</v>
       </c>
       <c r="H10">
-        <v>42.8</v>
+        <v>40.5</v>
       </c>
       <c r="I10">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="J10">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
       <c r="K10">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="L10">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="M10">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="N10">
         <v>14.7</v>
       </c>
       <c r="O10">
-        <v>31.1</v>
+        <v>33.6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2808,40 +2796,40 @@
         <v>94.3</v>
       </c>
       <c r="C11">
-        <v>62.4</v>
+        <v>63.6</v>
       </c>
       <c r="D11">
-        <v>49.4</v>
+        <v>46.3</v>
       </c>
       <c r="E11">
-        <v>75.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>55.2</v>
       </c>
       <c r="G11">
-        <v>89.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H11">
-        <v>87.8</v>
+        <v>88.2</v>
       </c>
       <c r="I11">
-        <v>67.80000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="J11">
-        <v>54.50000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="K11">
-        <v>33.90000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="L11">
-        <v>18.1</v>
+        <v>20.3</v>
       </c>
       <c r="M11">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>17.5</v>
+        <v>15.4</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3019,7 +3007,7 @@
         <v>128.37</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3135,7 +3123,7 @@
         <v>126.82</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3164,7 +3152,7 @@
         <v>112.73</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3197,28 +3185,28 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3226,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3244,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3255,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3273,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3284,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3302,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3313,10 +3301,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
         <v>128.37</v>
@@ -3331,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3342,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3360,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3371,10 +3359,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
         <v>126.8185714285714</v>
@@ -3389,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3400,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>0.2857142857142857</v>
@@ -3418,10 +3406,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3429,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3447,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3458,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3476,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3487,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3505,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3529,16 +3517,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3558,7 +3546,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3578,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3598,7 +3586,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3618,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3638,7 +3626,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3658,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3678,7 +3666,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3698,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3718,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3738,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3756,55 +3744,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3860,7 +3848,7 @@
         <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3916,7 +3904,7 @@
         <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3972,7 +3960,7 @@
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4028,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4084,7 +4072,7 @@
         <v>-2</v>
       </c>
       <c r="R6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4140,7 +4128,7 @@
         <v>-5</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4196,7 +4184,7 @@
         <v>-5</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4252,7 +4240,7 @@
         <v>-6</v>
       </c>
       <c r="R9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4308,7 +4296,7 @@
         <v>-18</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4364,7 +4352,7 @@
         <v>-80</v>
       </c>
       <c r="R11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="134">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -55,55 +55,61 @@
     <t>Kevin Nichols The Third</t>
   </si>
   <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>11-4-1</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>14-2-0</t>
-  </si>
-  <si>
-    <t>15-1-0</t>
-  </si>
-  <si>
-    <t>10-4-2</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
-  </si>
-  <si>
-    <t>7-8-1</t>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>16-1-0</t>
+  </si>
+  <si>
+    <t>10-5-2</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>8-8-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -319,85 +325,85 @@
     <t>5.0-9.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -828,25 +834,25 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -854,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -869,19 +875,19 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -889,34 +895,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -924,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -933,22 +939,22 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -959,34 +965,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -994,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1009,19 +1015,19 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1029,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1038,25 +1044,25 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1064,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1073,25 +1079,25 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1099,34 +1105,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1134,28 +1140,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1171,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1179,25 +1185,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1458,32 +1464,6 @@
       </c>
       <c r="H11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>-20</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1501,13 +1481,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1515,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1529,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1543,13 +1523,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1560,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1574,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1588,10 +1568,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1599,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1613,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1630,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1644,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1665,16 +1645,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1685,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="D2">
         <v>0.09999999999999964</v>
@@ -1702,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1716,16 +1696,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D4">
-        <v>-0.8000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1733,16 +1713,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5">
-        <v>1.9</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1750,16 +1730,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1767,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D7">
-        <v>0.2000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1784,16 +1764,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1801,16 +1781,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1818,16 +1798,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D10">
-        <v>-1.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1838,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D11">
-        <v>-0.7000000000000002</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1862,40 +1842,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2293,49 +2273,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2343,43 +2323,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.4</v>
+        <v>12.6</v>
       </c>
       <c r="C2">
-        <v>76.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>80.60000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="E2">
-        <v>72.3</v>
+        <v>69.3</v>
       </c>
       <c r="F2">
-        <v>60.7</v>
+        <v>61.4</v>
       </c>
       <c r="G2">
-        <v>43.5</v>
+        <v>44.4</v>
       </c>
       <c r="H2">
-        <v>68</v>
+        <v>67.7</v>
       </c>
       <c r="I2">
-        <v>80.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="J2">
-        <v>71.89999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="K2">
-        <v>55.7</v>
+        <v>58.7</v>
       </c>
       <c r="L2">
-        <v>70.5</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>87.8</v>
+        <v>85.5</v>
       </c>
       <c r="N2">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2393,22 +2373,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74.3</v>
+        <v>73.7</v>
       </c>
       <c r="C3">
-        <v>87.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="D3">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E3">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2423,7 +2403,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2443,46 +2423,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62.9</v>
+        <v>59.3</v>
       </c>
       <c r="C4">
-        <v>71.2</v>
+        <v>72.2</v>
       </c>
       <c r="D4">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E4">
-        <v>5.7</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="F4">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>8.6</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H4">
-        <v>4.399999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="I4">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J4">
-        <v>70.3</v>
+        <v>70.5</v>
       </c>
       <c r="K4">
-        <v>81.89999999999999</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="L4">
-        <v>88.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="N4">
-        <v>75.8</v>
+        <v>77.8</v>
       </c>
       <c r="O4">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2493,40 +2473,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>52.3</v>
+        <v>49.4</v>
       </c>
       <c r="C5">
-        <v>36.3</v>
+        <v>37.5</v>
       </c>
       <c r="D5">
-        <v>84.2</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>86.3</v>
+        <v>86.8</v>
       </c>
       <c r="F5">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>92.7</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="H5">
-        <v>93.40000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I5">
-        <v>98.2</v>
+        <v>96.8</v>
       </c>
       <c r="J5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K5">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L5">
         <v>98.40000000000001</v>
       </c>
-      <c r="K5">
-        <v>93.8</v>
-      </c>
-      <c r="L5">
-        <v>99.09999999999999</v>
-      </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2543,31 +2523,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>28.3</v>
+        <v>33.1</v>
       </c>
       <c r="C6">
-        <v>85.7</v>
+        <v>86.2</v>
       </c>
       <c r="D6">
-        <v>95.19999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E6">
-        <v>91.40000000000001</v>
+        <v>91</v>
       </c>
       <c r="F6">
-        <v>95.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G6">
-        <v>97</v>
+        <v>97.8</v>
       </c>
       <c r="H6">
-        <v>98.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I6">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -2593,46 +2573,46 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>93.5</v>
+        <v>92.7</v>
       </c>
       <c r="C7">
-        <v>91.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="D7">
-        <v>90.10000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="E7">
-        <v>57.2</v>
+        <v>61.9</v>
       </c>
       <c r="F7">
-        <v>81.8</v>
+        <v>79.3</v>
       </c>
       <c r="G7">
-        <v>64.8</v>
+        <v>62.3</v>
       </c>
       <c r="H7">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="I7">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J7">
-        <v>52.2</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="K7">
-        <v>72.2</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="L7">
-        <v>82.39999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="N7">
-        <v>61.2</v>
+        <v>62.2</v>
       </c>
       <c r="O7">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2643,40 +2623,40 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="C8">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="F8">
+        <v>3.6</v>
+      </c>
+      <c r="G8">
+        <v>11.9</v>
+      </c>
+      <c r="H8">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="I8">
+        <v>25.8</v>
+      </c>
+      <c r="J8">
+        <v>15.1</v>
+      </c>
+      <c r="K8">
+        <v>23.3</v>
+      </c>
+      <c r="L8">
+        <v>10.5</v>
+      </c>
+      <c r="M8">
         <v>4</v>
-      </c>
-      <c r="G8">
-        <v>9.6</v>
-      </c>
-      <c r="H8">
-        <v>6.9</v>
-      </c>
-      <c r="I8">
-        <v>21.9</v>
-      </c>
-      <c r="J8">
-        <v>14.5</v>
-      </c>
-      <c r="K8">
-        <v>24.9</v>
-      </c>
-      <c r="L8">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="M8">
-        <v>4.100000000000001</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2693,46 +2673,46 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>68.7</v>
+        <v>67.7</v>
       </c>
       <c r="C9">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E9">
-        <v>40.8</v>
+        <v>37.5</v>
       </c>
       <c r="F9">
-        <v>22.3</v>
+        <v>25.3</v>
       </c>
       <c r="G9">
-        <v>32.6</v>
+        <v>27.5</v>
       </c>
       <c r="H9">
-        <v>45.2</v>
+        <v>43.2</v>
       </c>
       <c r="I9">
         <v>19.9</v>
       </c>
       <c r="J9">
-        <v>14.9</v>
+        <v>13.8</v>
       </c>
       <c r="K9">
-        <v>21.5</v>
+        <v>19.6</v>
       </c>
       <c r="L9">
-        <v>4.399999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="M9">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="N9">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="O9">
-        <v>40.9</v>
+        <v>43.1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2746,43 +2726,43 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>82.19999999999999</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>87.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="E10">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="F10">
-        <v>83.39999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="G10">
-        <v>62.3</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="H10">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="I10">
-        <v>35.9</v>
+        <v>35.3</v>
       </c>
       <c r="J10">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="K10">
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="L10">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="M10">
-        <v>31.6</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="N10">
-        <v>14.7</v>
+        <v>12.7</v>
       </c>
       <c r="O10">
-        <v>33.6</v>
+        <v>31.8</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2793,43 +2773,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>94.3</v>
+        <v>95.3</v>
       </c>
       <c r="C11">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="D11">
-        <v>46.3</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="E11">
-        <v>75.2</v>
+        <v>73.5</v>
       </c>
       <c r="F11">
-        <v>55.2</v>
+        <v>53.5</v>
       </c>
       <c r="G11">
-        <v>88.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="H11">
-        <v>88.2</v>
+        <v>88</v>
       </c>
       <c r="I11">
-        <v>68.5</v>
+        <v>67.2</v>
       </c>
       <c r="J11">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="K11">
-        <v>35.8</v>
+        <v>37.4</v>
       </c>
       <c r="L11">
-        <v>20.3</v>
+        <v>18.5</v>
       </c>
       <c r="M11">
-        <v>6.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="N11">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2853,28 +2833,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2891,7 +2871,7 @@
         <v>122.09</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2914,13 +2894,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>127.35</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2943,13 +2923,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>116.38</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2972,13 +2952,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>99.3</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3001,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>128.37</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3030,13 +3010,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>114.69</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3059,13 +3039,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>110.9</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3088,13 +3068,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>126.74</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3117,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>126.82</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3146,13 +3126,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>112.73</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3182,31 +3162,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3214,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3232,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3243,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3261,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3272,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3290,10 +3270,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3301,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3319,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3330,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3348,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3359,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3377,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3388,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>0.2857142857142857</v>
@@ -3406,10 +3386,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3417,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -3435,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3446,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3464,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3475,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3493,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3505,236 +3485,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>-5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10">
-        <v>-18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>-80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3744,167 +3494,167 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
         <v>26</v>
       </c>
-      <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="N2">
-        <v>38</v>
-      </c>
-      <c r="O2">
-        <v>34</v>
-      </c>
       <c r="P2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
         <v>34</v>
       </c>
-      <c r="O3">
-        <v>40</v>
-      </c>
       <c r="P3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
         <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3959,64 +3709,64 @@
       <c r="Q4">
         <v>13</v>
       </c>
-      <c r="R4" t="s">
-        <v>103</v>
+      <c r="R4">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E5">
         <v>-6</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="G5">
+        <v>-12</v>
+      </c>
+      <c r="H5">
+        <v>-11</v>
+      </c>
+      <c r="I5">
         <v>-13</v>
       </c>
-      <c r="H5">
-        <v>-19</v>
-      </c>
-      <c r="I5">
-        <v>-12</v>
-      </c>
       <c r="J5">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="L5">
+        <v>-20</v>
+      </c>
+      <c r="M5">
+        <v>-24</v>
+      </c>
+      <c r="N5">
+        <v>-23</v>
+      </c>
+      <c r="O5">
+        <v>-14</v>
+      </c>
+      <c r="P5">
+        <v>-13</v>
+      </c>
+      <c r="Q5">
         <v>-5</v>
       </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4</v>
-      </c>
-      <c r="R5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4071,176 +3821,176 @@
       <c r="Q6">
         <v>-2</v>
       </c>
-      <c r="R6" t="s">
-        <v>105</v>
+      <c r="R6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-19</v>
+      </c>
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
+      <c r="Q7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>-5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>106</v>
+      <c r="R7">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
         <v>-4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
       </c>
       <c r="E8">
         <v>-6</v>
       </c>
       <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-4</v>
+      </c>
+      <c r="P8">
+        <v>-12</v>
+      </c>
+      <c r="Q8">
         <v>-6</v>
       </c>
-      <c r="G8">
-        <v>-12</v>
-      </c>
-      <c r="H8">
-        <v>-11</v>
-      </c>
-      <c r="I8">
-        <v>-13</v>
-      </c>
-      <c r="J8">
-        <v>-16</v>
-      </c>
-      <c r="K8">
-        <v>-14</v>
-      </c>
-      <c r="L8">
-        <v>-20</v>
-      </c>
-      <c r="M8">
-        <v>-24</v>
-      </c>
-      <c r="N8">
-        <v>-23</v>
-      </c>
-      <c r="O8">
-        <v>-14</v>
-      </c>
-      <c r="P8">
-        <v>-13</v>
-      </c>
-      <c r="Q8">
-        <v>-5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>102</v>
+      <c r="R8">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-7</v>
-      </c>
-      <c r="K9">
-        <v>-18</v>
-      </c>
-      <c r="L9">
-        <v>-8</v>
-      </c>
       <c r="M9">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>-6</v>
-      </c>
-      <c r="R9" t="s">
-        <v>101</v>
+        <v>-5</v>
+      </c>
+      <c r="R9">
+        <v>-11</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4295,8 +4045,8 @@
       <c r="Q10">
         <v>-18</v>
       </c>
-      <c r="R10" t="s">
-        <v>107</v>
+      <c r="R10">
+        <v>-22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4351,8 +4101,667 @@
       <c r="Q11">
         <v>-80</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>49</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>34</v>
+      </c>
+      <c r="P3">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>-12</v>
+      </c>
+      <c r="H5">
+        <v>-11</v>
+      </c>
+      <c r="I5">
+        <v>-13</v>
+      </c>
+      <c r="J5">
+        <v>-16</v>
+      </c>
+      <c r="K5">
+        <v>-14</v>
+      </c>
+      <c r="L5">
+        <v>-20</v>
+      </c>
+      <c r="M5">
+        <v>-24</v>
+      </c>
+      <c r="N5">
+        <v>-23</v>
+      </c>
+      <c r="O5">
+        <v>-14</v>
+      </c>
+      <c r="P5">
+        <v>-13</v>
+      </c>
+      <c r="Q5">
+        <v>-5</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-19</v>
+      </c>
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-4</v>
+      </c>
+      <c r="P8">
+        <v>-12</v>
+      </c>
+      <c r="Q8">
+        <v>-6</v>
+      </c>
+      <c r="R8">
+        <v>-10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>-5</v>
+      </c>
+      <c r="R9">
+        <v>-11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-14</v>
+      </c>
+      <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-19</v>
+      </c>
+      <c r="L10">
+        <v>-13</v>
+      </c>
+      <c r="M10">
+        <v>-22</v>
+      </c>
+      <c r="N10">
+        <v>-23</v>
+      </c>
+      <c r="O10">
+        <v>-20</v>
+      </c>
+      <c r="P10">
+        <v>-18</v>
+      </c>
+      <c r="Q10">
+        <v>-18</v>
+      </c>
+      <c r="R10">
+        <v>-22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11">
+        <v>-19</v>
+      </c>
+      <c r="E11">
+        <v>-18</v>
+      </c>
+      <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+      <c r="H11">
+        <v>-26</v>
+      </c>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11">
+        <v>-24</v>
+      </c>
+      <c r="K11">
+        <v>-32</v>
+      </c>
+      <c r="L11">
+        <v>-40</v>
+      </c>
+      <c r="M11">
+        <v>-50</v>
+      </c>
+      <c r="N11">
+        <v>-52</v>
+      </c>
+      <c r="O11">
+        <v>-61</v>
+      </c>
+      <c r="P11">
+        <v>-70</v>
+      </c>
+      <c r="Q11">
+        <v>-80</v>
+      </c>
+      <c r="R11">
+        <v>-80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Philly Extra Special 2025.xlsx
+++ b/leagues/Philly Extra Special 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="136">
   <si>
     <t>Matthew Dorchak</t>
   </si>
@@ -126,6 +130,201 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Andrew Li</t>
+  </si>
+  <si>
+    <t>Kevin  Nichols</t>
+  </si>
+  <si>
+    <t>Elle Patterson</t>
+  </si>
+  <si>
+    <t>Dan Davis</t>
+  </si>
+  <si>
+    <t>Matt Galvin</t>
+  </si>
+  <si>
+    <t>Josh Cai</t>
+  </si>
+  <si>
+    <t>Steve Heidengren</t>
+  </si>
+  <si>
+    <t>Andrew Steen</t>
+  </si>
+  <si>
+    <t>Luke Galan</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -133,33 +332,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Andrew Li</t>
-  </si>
-  <si>
-    <t>Steve Heidengren</t>
-  </si>
-  <si>
-    <t>Andrew Steen</t>
-  </si>
-  <si>
-    <t>Luke Galan</t>
-  </si>
-  <si>
-    <t>Kevin  Nichols</t>
-  </si>
-  <si>
-    <t>Dan Davis</t>
-  </si>
-  <si>
-    <t>Matt Galvin</t>
-  </si>
-  <si>
-    <t>Josh Cai</t>
-  </si>
-  <si>
-    <t>Elle Patterson</t>
   </si>
   <si>
     <t>↑11</t>
@@ -1009,6 +1181,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>-14</v>
+      </c>
+      <c r="G2">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>-28</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>-4</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-8</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-13</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>-24</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-20</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1372,6 +1840,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.1</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="E2">
+        <v>72.2</v>
+      </c>
+      <c r="F2">
+        <v>60.6</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="I2">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="J2">
+        <v>71.8</v>
+      </c>
+      <c r="K2">
+        <v>54.2</v>
+      </c>
+      <c r="L2">
+        <v>68</v>
+      </c>
+      <c r="M2">
+        <v>84.8</v>
+      </c>
+      <c r="N2">
+        <v>99.5</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>72.5</v>
+      </c>
+      <c r="C3">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>97.5</v>
+      </c>
+      <c r="E3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>99.2</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="C4">
+        <v>69.5</v>
+      </c>
+      <c r="D4">
+        <v>18.4</v>
+      </c>
+      <c r="E4">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="F4">
+        <v>2.3</v>
+      </c>
+      <c r="G4">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="H4">
+        <v>4.9</v>
+      </c>
+      <c r="I4">
+        <v>36.4</v>
+      </c>
+      <c r="J4">
+        <v>69.3</v>
+      </c>
+      <c r="K4">
+        <v>82.5</v>
+      </c>
+      <c r="L4">
+        <v>87.5</v>
+      </c>
+      <c r="M4">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="N4">
+        <v>77.8</v>
+      </c>
+      <c r="O4">
+        <v>48.2</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>49.9</v>
+      </c>
+      <c r="C5">
+        <v>36.9</v>
+      </c>
+      <c r="D5">
+        <v>82.5</v>
+      </c>
+      <c r="E5">
+        <v>86.3</v>
+      </c>
+      <c r="F5">
+        <v>94.8</v>
+      </c>
+      <c r="G5">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="H5">
+        <v>93.5</v>
+      </c>
+      <c r="I5">
+        <v>95.5</v>
+      </c>
+      <c r="J5">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K5">
+        <v>95.8</v>
+      </c>
+      <c r="L5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>33.2</v>
+      </c>
+      <c r="C6">
+        <v>85.7</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="H6">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I6">
+        <v>99.8</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>93.8</v>
+      </c>
+      <c r="C7">
+        <v>90.8</v>
+      </c>
+      <c r="D7">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="E7">
+        <v>58.2</v>
+      </c>
+      <c r="F7">
+        <v>83.2</v>
+      </c>
+      <c r="G7">
+        <v>64.8</v>
+      </c>
+      <c r="H7">
+        <v>53.1</v>
+      </c>
+      <c r="I7">
+        <v>38.8</v>
+      </c>
+      <c r="J7">
+        <v>50.5</v>
+      </c>
+      <c r="K7">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L7">
+        <v>83.8</v>
+      </c>
+      <c r="M7">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="N7">
+        <v>63.2</v>
+      </c>
+      <c r="O7">
+        <v>75.8</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>16.4</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="F8">
+        <v>3.9</v>
+      </c>
+      <c r="G8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H8">
+        <v>9.5</v>
+      </c>
+      <c r="I8">
+        <v>24.9</v>
+      </c>
+      <c r="J8">
+        <v>15.6</v>
+      </c>
+      <c r="K8">
+        <v>24.1</v>
+      </c>
+      <c r="L8">
+        <v>11.2</v>
+      </c>
+      <c r="M8">
+        <v>4.6</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C9">
+        <v>5.7</v>
+      </c>
+      <c r="D9">
+        <v>5.1</v>
+      </c>
+      <c r="E9">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="F9">
+        <v>26.2</v>
+      </c>
+      <c r="G9">
+        <v>30.3</v>
+      </c>
+      <c r="H9">
+        <v>44.7</v>
+      </c>
+      <c r="I9">
+        <v>19.9</v>
+      </c>
+      <c r="J9">
+        <v>15.6</v>
+      </c>
+      <c r="K9">
+        <v>20.4</v>
+      </c>
+      <c r="L9">
+        <v>5.5</v>
+      </c>
+      <c r="M9">
+        <v>12.4</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>44.6</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="D10">
+        <v>84.8</v>
+      </c>
+      <c r="E10">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="F10">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="G10">
+        <v>65.7</v>
+      </c>
+      <c r="H10">
+        <v>40.6</v>
+      </c>
+      <c r="I10">
+        <v>37.5</v>
+      </c>
+      <c r="J10">
+        <v>27.4</v>
+      </c>
+      <c r="K10">
+        <v>14.2</v>
+      </c>
+      <c r="L10">
+        <v>24.9</v>
+      </c>
+      <c r="M10">
+        <v>34.4</v>
+      </c>
+      <c r="N10">
+        <v>15.3</v>
+      </c>
+      <c r="O10">
+        <v>31.4</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C11">
+        <v>63.5</v>
+      </c>
+      <c r="D11">
+        <v>44.2</v>
+      </c>
+      <c r="E11">
+        <v>70.8</v>
+      </c>
+      <c r="F11">
+        <v>50.1</v>
+      </c>
+      <c r="G11">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="H11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="J11">
+        <v>51.4</v>
+      </c>
+      <c r="K11">
+        <v>37.7</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>7.6</v>
+      </c>
+      <c r="N11">
+        <v>14.2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>122.09</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>127.35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>116.38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>99.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>128.37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>114.69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8">
+        <v>110.9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>126.74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>126.82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>112.73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D2">
+        <v>122.0942857142857</v>
+      </c>
+      <c r="E2">
+        <v>1709.32</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D3">
+        <v>127.3457142857143</v>
+      </c>
+      <c r="E3">
+        <v>1782.84</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D4">
+        <v>116.3842857142857</v>
+      </c>
+      <c r="E4">
+        <v>1629.38</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D5">
+        <v>128.37</v>
+      </c>
+      <c r="E5">
+        <v>1797.18</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>126.74</v>
+      </c>
+      <c r="E6">
+        <v>1774.36</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D7">
+        <v>126.8185714285714</v>
+      </c>
+      <c r="E7">
+        <v>1775.46</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D8">
+        <v>99.30428571428571</v>
+      </c>
+      <c r="E8">
+        <v>1390.26</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D9">
+        <v>114.6871428571429</v>
+      </c>
+      <c r="E9">
+        <v>1605.62</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D10">
+        <v>110.8971428571429</v>
+      </c>
+      <c r="E10">
+        <v>1552.56</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D11">
+        <v>112.7328571428571</v>
+      </c>
+      <c r="E11">
+        <v>1578.26</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1383,16 +3503,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1403,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -1412,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1423,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>49</v>
@@ -1432,7 +3552,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1443,7 +3563,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -1452,7 +3572,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1472,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1483,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1492,7 +3612,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1503,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1512,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1523,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>-10</v>
@@ -1532,7 +3652,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1543,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>-11</v>
@@ -1552,7 +3672,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1563,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>-22</v>
@@ -1572,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1583,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>-80</v>
@@ -1592,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +3720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1610,58 +3730,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1720,7 +3840,7 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1779,7 +3899,7 @@
         <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1838,7 +3958,7 @@
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1897,7 +4017,7 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1956,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2015,7 +4135,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2074,7 +4194,7 @@
         <v>-10</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2133,7 +4253,7 @@
         <v>-11</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2192,7 +4312,7 @@
         <v>-22</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2251,303 +4371,7 @@
         <v>-80</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>-14</v>
-      </c>
-      <c r="G2">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>-28</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>-4</v>
-      </c>
-      <c r="G4">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>-8</v>
-      </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-13</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>-24</v>
-      </c>
-      <c r="G10">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>-20</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
